--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +709,7 @@
         <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
         <v>2.44</v>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>13.5</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
         <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -826,13 +826,13 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
@@ -841,7 +841,7 @@
         <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.6</v>
@@ -850,7 +850,7 @@
         <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>1.46</v>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>14</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.04</v>
       </c>
-      <c r="N4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.58</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
         <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G8" t="n">
         <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="H9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
         <v>4.7</v>
@@ -1738,28 +1738,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>2.18</v>
       </c>
       <c r="I11" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.54</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>2.06</v>
       </c>
       <c r="I12" t="n">
-        <v>2.98</v>
+        <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,61 +2143,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,193 +2611,328 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Oviedo</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.88</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
         <v>2.98</v>
       </c>
-      <c r="J17" t="n">
+      <c r="I18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.15</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>3.2</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.11</v>
       </c>
-      <c r="N17" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="N18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.61</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.22</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S18" t="n">
         <v>5.1</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T18" t="n">
         <v>2.08</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U18" t="n">
         <v>1.87</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y18" t="n">
         <v>9</v>
       </c>
-      <c r="Z17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="Z18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA18" t="n">
         <v>55</v>
       </c>
-      <c r="AB17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AB18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC18" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AE18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH18" t="n">
         <v>22</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="n">
         <v>65</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AM18" t="n">
         <v>190</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN18" t="n">
         <v>44</v>
       </c>
-      <c r="AO17" t="n">
-        <v>50</v>
+      <c r="AO18" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
         <v>2.66</v>
@@ -676,10 +676,10 @@
         <v>2.72</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
@@ -715,7 +715,7 @@
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.6</v>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>13.5</v>
@@ -760,7 +760,7 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
@@ -769,7 +769,7 @@
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>19.5</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G3" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.15</v>
       </c>
       <c r="H3" t="n">
         <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -841,7 +841,7 @@
         <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
         <v>1.6</v>
@@ -850,10 +850,10 @@
         <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>1.18</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>1.27</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>2.34</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>3.65</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>2.34</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.63</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>2.22</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,58 +1396,58 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,49 +1603,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.26</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>1.59</v>
+        <v>2.74</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,28 +1873,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="H11" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.16</v>
+        <v>2.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
-        <v>2.58</v>
+        <v>1.59</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="I13" t="n">
-        <v>2.96</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.24</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.28</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,125 +2813,395 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.84</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.98</v>
       </c>
       <c r="I18" t="n">
         <v>3.05</v>
       </c>
       <c r="J18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.15</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K20" t="n">
         <v>3.2</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.11</v>
       </c>
-      <c r="N18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="N20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.5</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="P20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.22</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S20" t="n">
         <v>5.1</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T20" t="n">
         <v>2.08</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="U20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB20" t="n">
         <v>9</v>
       </c>
-      <c r="Z18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC18" t="n">
+      <c r="AC20" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN20" t="n">
         <v>44</v>
       </c>
-      <c r="AF18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO18" t="n">
+      <c r="AO20" t="n">
         <v>55</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,16 +943,16 @@
         <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
         <v>1.58</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
         <v>2.42</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
         <v>1.09</v>
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,34 +1096,34 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
         <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Chindia Targoviste</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>1.66</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>WSC Hertha Wels</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>2.74</v>
+        <v>1.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
-        <v>1.69</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>2.76</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.31</v>
+        <v>1.02</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.67</v>
+        <v>6.4</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>11.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>1.56</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.41</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.59</v>
+        <v>4.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>2.54</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.86</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.6</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.51</v>
-      </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,84 +2408,84 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.94</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.98</v>
+        <v>2.44</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
       </c>
       <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>23</v>
-      </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
         <v>13.5</v>
@@ -2494,46 +2494,46 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK15" t="n">
         <v>40</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>26</v>
-      </c>
       <c r="AL15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
         <v>36</v>
       </c>
-      <c r="AM15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>17</v>
-      </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.01</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.48</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.72</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>1.95</v>
       </c>
       <c r="I18" t="n">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -2948,260 +2948,2015 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.76</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.24</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="n">
         <v>2.58</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
         <v>20</v>
       </c>
-      <c r="Y19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>28</v>
       </c>
-      <c r="AF19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jong PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>St Polten</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Austria Wien (A)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A.C. Trento S.C.S.D.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Crotone</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Oviedo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="F33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.15</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K33" t="n">
         <v>3.2</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>1.11</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N33" t="n">
         <v>2.9</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O33" t="n">
         <v>1.5</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P33" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="Q33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.22</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S33" t="n">
         <v>5.1</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T33" t="n">
         <v>2.08</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U33" t="n">
         <v>1.88</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y33" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z33" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA33" t="n">
         <v>55</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB33" t="n">
         <v>9</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE33" t="n">
         <v>65</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF33" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH33" t="n">
         <v>22</v>
       </c>
-      <c r="AI20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AI33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>46</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK33" t="n">
         <v>38</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL33" t="n">
         <v>65</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM33" t="n">
         <v>190</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN33" t="n">
         <v>44</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO33" t="n">
         <v>55</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
         <v>2.66</v>
@@ -676,13 +676,13 @@
         <v>2.72</v>
       </c>
       <c r="I2" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.27</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -700,19 +700,19 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
         <v>1.57</v>
@@ -763,7 +763,7 @@
         <v>30</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
@@ -805,7 +805,7 @@
         <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
         <v>2.32</v>
@@ -817,7 +817,7 @@
         <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -853,7 +853,7 @@
         <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="n">
         <v>1.02</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.16</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1486,10 +1486,10 @@
         <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1648,10 +1648,10 @@
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T9" t="n">
         <v>1.55</v>
@@ -1675,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
         <v>14.5</v>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>18</v>
@@ -1699,7 +1699,7 @@
         <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
@@ -1711,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
         <v>13</v>
@@ -1759,7 +1759,7 @@
         <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
         <v>5.3</v>
@@ -1777,28 +1777,28 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1834,7 +1834,7 @@
         <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
         <v>15.5</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
@@ -1915,10 +1915,10 @@
         <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
         <v>3.5</v>
@@ -2173,7 +2173,7 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>2.18</v>
@@ -2329,7 +2329,7 @@
         <v>2.52</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
         <v>2.04</v>
@@ -2353,10 +2353,10 @@
         <v>280</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
@@ -2368,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2389,7 +2389,7 @@
         <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
         <v>140</v>
@@ -2593,7 +2593,7 @@
         <v>1.61</v>
       </c>
       <c r="R16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
         <v>2.52</v>
@@ -2602,10 +2602,10 @@
         <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W16" t="n">
         <v>1.31</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
         <v>2.24</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
         <v>4.8</v>
@@ -2716,7 +2716,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O17" t="n">
         <v>1.18</v>
@@ -2740,7 +2740,7 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
         <v>1.81</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="I18" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R18" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="V18" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
         <v>28</v>
       </c>
       <c r="AB18" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN18" t="n">
         <v>23</v>
       </c>
-      <c r="AF18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>38</v>
-      </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>980</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>1.43</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>1.04</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.56</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
+        <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>2.68</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.8</v>
       </c>
-      <c r="K21" t="n">
-        <v>1000</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>2.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="I22" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>2.56</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.69</v>
+        <v>1.99</v>
       </c>
       <c r="H23" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>2.76</v>
+        <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.31</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.63</v>
+        <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.92</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>2.46</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>2.26</v>
+        <v>1.52</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.3</v>
+        <v>2.46</v>
       </c>
       <c r="G26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
         <v>1.4</v>
       </c>
-      <c r="H26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X26" t="n">
         <v>12.5</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="n">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC27" t="n">
         <v>9</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.56</v>
+        <v>1.61</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
-        <v>2.92</v>
+        <v>4.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.96</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.63</v>
-      </c>
       <c r="U28" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="G31" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N31" t="n">
         <v>3.05</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,261 +4703,3366 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="G32" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="R32" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>2.84</v>
+        <v>4.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.61</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>2.58</v>
+        <v>1.84</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AB32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD32" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE32" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AN32" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AO32" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dutch Eredivisie</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FC Groningen</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Jong PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K41" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FC Vaduz</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Neuchatel Xamax</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X42" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FC Wil</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Crotone</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A.C. Trento S.C.S.D.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>St Polten</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Austria Wien (A)</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X48" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Morton</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Queens Park</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Connahs Quay</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Llanelli Town</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>950</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Oviedo</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F54" t="n">
         <v>2.86</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G54" t="n">
         <v>2.9</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H54" t="n">
         <v>2.96</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I54" t="n">
         <v>3</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J54" t="n">
         <v>3.15</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K54" t="n">
         <v>3.2</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X54" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X55" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z33" t="n">
+      <c r="N56" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF56" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AG56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI56" t="n">
         <v>55</v>
       </c>
-      <c r="AB33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK33" t="n">
+      <c r="AJ56" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK56" t="n">
         <v>38</v>
       </c>
-      <c r="AL33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>55</v>
+      <c r="AL56" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -676,7 +676,7 @@
         <v>2.72</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -712,7 +712,7 @@
         <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.57</v>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
@@ -748,7 +748,7 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>16</v>
@@ -757,13 +757,13 @@
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK2" t="n">
         <v>980</v>
       </c>
-      <c r="AK2" t="n">
-        <v>30</v>
-      </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
         <v>3.15</v>
@@ -811,7 +811,7 @@
         <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -829,7 +829,7 @@
         <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
         <v>2.34</v>
@@ -850,16 +850,16 @@
         <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.46</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.16</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1378,10 +1378,10 @@
         <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1489,7 +1489,7 @@
         <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1648,10 +1648,10 @@
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
         <v>1.55</v>
@@ -1759,13 +1759,13 @@
         <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
         <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,7 +1777,7 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
         <v>1.72</v>
@@ -1786,7 +1786,7 @@
         <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.93</v>
@@ -1798,7 +1798,7 @@
         <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
         <v>11.5</v>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -2173,7 +2173,7 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
         <v>2.18</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2320,7 +2320,7 @@
         <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
         <v>1.57</v>
@@ -2335,34 +2335,34 @@
         <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y14" t="n">
         <v>29</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2371,10 +2371,10 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -2392,7 +2392,7 @@
         <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
         <v>3.55</v>
@@ -2431,13 +2431,13 @@
         <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2470,10 +2470,10 @@
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
@@ -2563,16 +2563,16 @@
         <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.31</v>
@@ -2605,7 +2605,7 @@
         <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>1.31</v>
@@ -2695,19 +2695,19 @@
         <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,34 +2716,34 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>2.32</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>2.12</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2773,7 +2773,7 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
         <v>3.4</v>
@@ -2839,10 +2839,10 @@
         <v>2.24</v>
       </c>
       <c r="J18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2851,13 +2851,13 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.61</v>
@@ -2878,25 +2878,25 @@
         <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
         <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
@@ -2929,7 +2929,7 @@
         <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>11</v>
@@ -2986,22 +2986,22 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q19" t="n">
         <v>1.19</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3118,7 +3118,7 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>3.15</v>
@@ -3127,7 +3127,7 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
         <v>2.04</v>
@@ -3139,7 +3139,7 @@
         <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
         <v>1.81</v>
@@ -3262,10 +3262,10 @@
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.42</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>1.2</v>
@@ -3541,7 +3541,7 @@
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.98</v>
@@ -3562,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA23" t="n">
         <v>170</v>
@@ -3586,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
         <v>110</v>
@@ -4051,10 +4051,10 @@
         <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
@@ -4066,28 +4066,28 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
         <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
@@ -4096,7 +4096,7 @@
         <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y27" t="n">
         <v>17.5</v>
@@ -4105,7 +4105,7 @@
         <v>42</v>
       </c>
       <c r="AA27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="n">
         <v>8.6</v>
@@ -4117,7 +4117,7 @@
         <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
         <v>11.5</v>
@@ -4138,16 +4138,16 @@
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
         <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4219,10 +4219,10 @@
         <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
         <v>1.16</v>
@@ -4315,13 +4315,13 @@
         <v>1.54</v>
       </c>
       <c r="G29" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H29" t="n">
         <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J29" t="n">
         <v>3.95</v>
@@ -4360,10 +4360,10 @@
         <v>1.81</v>
       </c>
       <c r="V29" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W29" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="X29" t="n">
         <v>15</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G30" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G31" t="n">
         <v>2.7</v>
@@ -4597,7 +4597,7 @@
         <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4615,7 +4615,7 @@
         <v>1.71</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G32" t="n">
         <v>3.05</v>
@@ -4732,7 +4732,7 @@
         <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4750,7 +4750,7 @@
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
@@ -4771,7 +4771,7 @@
         <v>1.48</v>
       </c>
       <c r="X32" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y32" t="n">
         <v>9.6</v>
@@ -4810,7 +4810,7 @@
         <v>55</v>
       </c>
       <c r="AK32" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="n">
         <v>65</v>
@@ -4894,10 +4894,10 @@
         <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G35" t="n">
         <v>1.85</v>
@@ -5260,13 +5260,13 @@
         <v>1.71</v>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
         <v>4.3</v>
       </c>
       <c r="I36" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -5287,76 +5287,76 @@
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="R36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S36" t="n">
         <v>2.42</v>
       </c>
       <c r="T36" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U36" t="n">
         <v>2.3</v>
       </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W36" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z36" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AA36" t="n">
         <v>120</v>
       </c>
       <c r="AB36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG36" t="n">
         <v>13</v>
       </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>11</v>
-      </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN36" t="n">
         <v>9.4</v>
@@ -5494,7 +5494,7 @@
         <v>70</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5686,7 +5686,7 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="O39" t="n">
         <v>1.14</v>
@@ -5695,7 +5695,7 @@
         <v>2.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="R39" t="n">
         <v>1.6</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="G40" t="n">
         <v>1.57</v>
@@ -5806,7 +5806,7 @@
         <v>2.76</v>
       </c>
       <c r="I40" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J40" t="n">
         <v>4.7</v>
@@ -5845,7 +5845,7 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W40" t="n">
         <v>2.72</v>
@@ -6226,13 +6226,13 @@
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="O43" t="n">
         <v>1.05</v>
       </c>
       <c r="P43" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="Q43" t="n">
         <v>1.79</v>
@@ -6346,13 +6346,13 @@
         <v>2.82</v>
       </c>
       <c r="I44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="n">
         <v>3.55</v>
       </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,7 +6361,7 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O44" t="n">
         <v>1.28</v>
@@ -6379,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U44" t="n">
         <v>2.08</v>
@@ -6391,7 +6391,7 @@
         <v>1.59</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
         <v>13.5</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="G45" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H45" t="n">
         <v>4.4</v>
@@ -6490,28 +6490,28 @@
         <v>4.1</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="P45" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S45" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
         <v>1.96</v>
@@ -6520,16 +6520,16 @@
         <v>1.61</v>
       </c>
       <c r="V45" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W45" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X45" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z45" t="n">
         <v>46</v>
@@ -6538,43 +6538,43 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD45" t="n">
         <v>26</v>
       </c>
       <c r="AE45" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF45" t="n">
         <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK45" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL45" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G46" t="n">
         <v>3.3</v>
@@ -6622,7 +6622,7 @@
         <v>2.62</v>
       </c>
       <c r="K46" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6760,7 +6760,7 @@
         <v>5.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -6775,7 +6775,7 @@
         <v>2.12</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
         <v>1.43</v>
@@ -6784,10 +6784,10 @@
         <v>2.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V47" t="n">
         <v>1.13</v>
@@ -6796,55 +6796,55 @@
         <v>2.68</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6883,10 +6883,10 @@
         <v>2.6</v>
       </c>
       <c r="H48" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I48" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J48" t="n">
         <v>3.65</v>
@@ -6907,7 +6907,7 @@
         <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q48" t="n">
         <v>1.76</v>
@@ -6925,7 +6925,7 @@
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W48" t="n">
         <v>1.62</v>
@@ -7036,88 +7036,88 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
         <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="T49" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="U49" t="n">
         <v>1.91</v>
       </c>
       <c r="V49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W49" t="n">
         <v>2.06</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y49" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB49" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH49" t="n">
         <v>26</v>
       </c>
-      <c r="AE49" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>30</v>
-      </c>
       <c r="AI49" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL49" t="n">
         <v>50</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -7285,19 +7285,19 @@
         <v>1.63</v>
       </c>
       <c r="G51" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="H51" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J51" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K51" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,19 +7306,19 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="O51" t="n">
         <v>1.14</v>
       </c>
       <c r="P51" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R51" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="S51" t="n">
         <v>1.98</v>
@@ -7330,10 +7330,10 @@
         <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7429,7 +7429,7 @@
         <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K52" t="n">
         <v>950</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>1.61</v>
       </c>
       <c r="W53" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7693,16 +7693,16 @@
         <v>2.9</v>
       </c>
       <c r="H54" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K54" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.2</v>
       </c>
       <c r="L54" t="n">
         <v>1.53</v>
@@ -7711,10 +7711,10 @@
         <v>1.11</v>
       </c>
       <c r="N54" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O54" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
         <v>1.62</v>
@@ -7729,13 +7729,13 @@
         <v>5.1</v>
       </c>
       <c r="T54" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U54" t="n">
         <v>1.88</v>
       </c>
       <c r="V54" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W54" t="n">
         <v>1.53</v>
@@ -7762,10 +7762,10 @@
         <v>13.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF54" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG54" t="n">
         <v>13</v>
@@ -7786,7 +7786,7 @@
         <v>65</v>
       </c>
       <c r="AM54" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN54" t="n">
         <v>44</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G55" t="n">
         <v>2.68</v>
@@ -7852,7 +7852,7 @@
         <v>1.24</v>
       </c>
       <c r="P55" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q55" t="n">
         <v>1.73</v>
@@ -7924,10 +7924,10 @@
         <v>70</v>
       </c>
       <c r="AN55" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -7960,58 +7960,58 @@
         <v>2.62</v>
       </c>
       <c r="G56" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>2.8</v>
       </c>
       <c r="I56" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J56" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L56" t="n">
         <v>1.44</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="O56" t="n">
         <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R56" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S56" t="n">
         <v>3.6</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U56" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="V56" t="n">
         <v>1.51</v>
       </c>
       <c r="W56" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y56" t="n">
         <v>11.5</v>
@@ -8020,19 +8020,19 @@
         <v>21</v>
       </c>
       <c r="AA56" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB56" t="n">
         <v>11</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD56" t="n">
         <v>13.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF56" t="n">
         <v>18.5</v>
@@ -8044,19 +8044,19 @@
         <v>19</v>
       </c>
       <c r="AI56" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ56" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL56" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN56" t="n">
         <v>29</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -700,13 +700,13 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
         <v>1.61</v>
@@ -715,7 +715,7 @@
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
         <v>1.6</v>
@@ -859,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>5.3</v>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -970,10 +970,10 @@
         <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>2.38</v>
@@ -988,7 +988,7 @@
         <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1387,7 +1387,7 @@
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
         <v>1.03</v>
@@ -1486,7 +1486,7 @@
         <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1519,10 +1519,10 @@
         <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.22</v>
@@ -1627,7 +1627,7 @@
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1753,16 +1753,16 @@
         <v>1.52</v>
       </c>
       <c r="H10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I10" t="n">
         <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.24</v>
@@ -1792,13 +1792,13 @@
         <v>1.93</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -2062,7 +2062,7 @@
         <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V12" t="n">
         <v>2.74</v>
@@ -2167,7 +2167,7 @@
         <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2302,7 +2302,7 @@
         <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2332,7 +2332,7 @@
         <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
         <v>1.15</v>
@@ -2341,58 +2341,58 @@
         <v>2.92</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
         <v>12</v>
       </c>
-      <c r="AC14" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
         <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +2437,7 @@
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2464,13 +2464,13 @@
         <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
         <v>1.39</v>
@@ -2566,7 +2566,7 @@
         <v>1.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2605,7 +2605,7 @@
         <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W16" t="n">
         <v>1.31</v>
@@ -2743,7 +2743,7 @@
         <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I18" t="n">
         <v>2.24</v>
@@ -2857,7 +2857,7 @@
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q18" t="n">
         <v>1.61</v>
@@ -2875,7 +2875,7 @@
         <v>2.58</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
         <v>1.41</v>
@@ -2929,7 +2929,7 @@
         <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>11</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G19" t="n">
         <v>980</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="I19" t="n">
         <v>3.05</v>
@@ -2977,7 +2977,7 @@
         <v>1.43</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -2986,19 +2986,19 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q19" t="n">
         <v>1.19</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
         <v>1.2</v>
@@ -3100,7 +3100,7 @@
         <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
@@ -3109,7 +3109,7 @@
         <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -3265,7 +3265,7 @@
         <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
         <v>1.2</v>
@@ -3541,7 +3541,7 @@
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.98</v>
@@ -3562,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
         <v>170</v>
@@ -3583,10 +3583,10 @@
         <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
         <v>110</v>
@@ -3652,7 +3652,7 @@
         <v>2.96</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -4057,7 +4057,7 @@
         <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4084,10 +4084,10 @@
         <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
@@ -4357,7 +4357,7 @@
         <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V29" t="n">
         <v>1.14</v>
@@ -4459,7 +4459,7 @@
         <v>3.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.45</v>
@@ -4624,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U31" t="n">
         <v>1.96</v>
@@ -4723,13 +4723,13 @@
         <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I32" t="n">
         <v>2.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>3.25</v>
@@ -4759,16 +4759,16 @@
         <v>4.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U32" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
         <v>1.52</v>
       </c>
       <c r="W32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X32" t="n">
         <v>9.800000000000001</v>
@@ -4780,7 +4780,7 @@
         <v>19.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB32" t="n">
         <v>9.4</v>
@@ -4894,10 +4894,10 @@
         <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
@@ -5029,7 +5029,7 @@
         <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U34" t="n">
         <v>2.42</v>
@@ -5299,7 +5299,7 @@
         <v>2.42</v>
       </c>
       <c r="T36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U36" t="n">
         <v>2.3</v>
@@ -5407,7 +5407,7 @@
         <v>3.8</v>
       </c>
       <c r="K37" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5665,7 +5665,7 @@
         <v>1.32</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H39" t="n">
         <v>3.9</v>
@@ -5713,7 +5713,7 @@
         <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5803,7 +5803,7 @@
         <v>1.57</v>
       </c>
       <c r="H40" t="n">
-        <v>2.76</v>
+        <v>1.09</v>
       </c>
       <c r="I40" t="n">
         <v>16</v>
@@ -5812,7 +5812,7 @@
         <v>4.7</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.21</v>
@@ -6082,7 +6082,7 @@
         <v>3.55</v>
       </c>
       <c r="K42" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6103,7 +6103,7 @@
         <v>1.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S42" t="n">
         <v>2.28</v>
@@ -6247,7 +6247,7 @@
         <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V43" t="n">
         <v>1.39</v>
@@ -6349,7 +6349,7 @@
         <v>3.1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
         <v>3.7</v>
@@ -6472,46 +6472,46 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G45" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O45" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P45" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q45" t="n">
         <v>2.18</v>
       </c>
       <c r="R45" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T45" t="n">
         <v>1.96</v>
@@ -6520,28 +6520,28 @@
         <v>1.61</v>
       </c>
       <c r="V45" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD45" t="n">
         <v>26</v>
@@ -6556,25 +6556,25 @@
         <v>13</v>
       </c>
       <c r="AH45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK45" t="n">
         <v>29</v>
       </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>30</v>
-      </c>
       <c r="AL45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J46" t="n">
         <v>2.62</v>
       </c>
       <c r="K46" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W46" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6883,10 +6883,10 @@
         <v>2.6</v>
       </c>
       <c r="H48" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I48" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J48" t="n">
         <v>3.65</v>
@@ -6901,7 +6901,7 @@
         <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -6925,7 +6925,7 @@
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W48" t="n">
         <v>1.62</v>
@@ -7039,19 +7039,19 @@
         <v>3.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
         <v>1.79</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
         <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T49" t="n">
         <v>1.89</v>
@@ -7060,7 +7060,7 @@
         <v>1.91</v>
       </c>
       <c r="V49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W49" t="n">
         <v>2.06</v>
@@ -7174,7 +7174,7 @@
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="G51" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I51" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="J51" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K51" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,19 +7306,19 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P51" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="Q51" t="n">
         <v>1.37</v>
       </c>
       <c r="R51" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="S51" t="n">
         <v>1.98</v>
@@ -7330,10 +7330,10 @@
         <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="W51" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7429,7 +7429,7 @@
         <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
         <v>950</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G55" t="n">
         <v>2.68</v>
@@ -7855,7 +7855,7 @@
         <v>2.28</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R55" t="n">
         <v>1.51</v>
@@ -7876,10 +7876,10 @@
         <v>1.59</v>
       </c>
       <c r="X55" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y55" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z55" t="n">
         <v>20</v>
@@ -7888,7 +7888,7 @@
         <v>42</v>
       </c>
       <c r="AB55" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC55" t="n">
         <v>8.4</v>
@@ -7900,7 +7900,7 @@
         <v>27</v>
       </c>
       <c r="AF55" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG55" t="n">
         <v>12</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G56" t="n">
         <v>2.8</v>
@@ -7987,7 +7987,7 @@
         <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q56" t="n">
         <v>2.06</v>
@@ -8005,7 +8005,7 @@
         <v>2.08</v>
       </c>
       <c r="V56" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W56" t="n">
         <v>1.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.64</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.66</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="I2" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -697,25 +697,25 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
         <v>1.6</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.32</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.34</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -853,10 +853,10 @@
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
         <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
         <v>1.6</v>
@@ -976,19 +976,19 @@
         <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1108,7 +1108,7 @@
         <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
         <v>2.28</v>
@@ -1387,7 +1387,7 @@
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.03</v>
@@ -1480,7 +1480,7 @@
         <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1531,7 +1531,7 @@
         <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
         <v>21</v>
@@ -1555,10 +1555,10 @@
         <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1579,7 +1579,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AO8" t="n">
         <v>100</v>
@@ -1648,10 +1648,10 @@
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T9" t="n">
         <v>1.55</v>
@@ -1786,7 +1786,7 @@
         <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="T10" t="n">
         <v>1.93</v>
@@ -1891,7 +1891,7 @@
         <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
@@ -2065,10 +2065,10 @@
         <v>1.54</v>
       </c>
       <c r="V12" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="W12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2176,22 +2176,22 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G14" t="n">
         <v>1.52</v>
@@ -2296,7 +2296,7 @@
         <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>4.8</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.21</v>
@@ -2326,28 +2326,28 @@
         <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
         <v>2.92</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
         <v>240</v>
@@ -2356,10 +2356,10 @@
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
         <v>100</v>
@@ -2368,13 +2368,13 @@
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
         <v>13.5</v>
@@ -2434,7 +2434,7 @@
         <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
@@ -2470,7 +2470,7 @@
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
         <v>1.39</v>
@@ -2482,13 +2482,13 @@
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
         <v>8.199999999999999</v>
@@ -2503,10 +2503,10 @@
         <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
         <v>38</v>
@@ -2527,7 +2527,7 @@
         <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>1.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2605,7 +2605,7 @@
         <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>1.31</v>
@@ -2632,7 +2632,7 @@
         <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
         <v>32</v>
@@ -2641,7 +2641,7 @@
         <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -2695,16 +2695,16 @@
         <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>5.1</v>
@@ -2740,10 +2740,10 @@
         <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G18" t="n">
         <v>3.4</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.45</v>
-      </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I18" t="n">
         <v>2.24</v>
@@ -2851,13 +2851,13 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.61</v>
@@ -2872,16 +2872,16 @@
         <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
         <v>1.41</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
         <v>15</v>
@@ -2929,7 +2929,7 @@
         <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>11</v>
@@ -2986,7 +2986,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
@@ -3106,7 +3106,7 @@
         <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
@@ -3145,7 +3145,7 @@
         <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
         <v>1.3</v>
@@ -3157,13 +3157,13 @@
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
         <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
         <v>9.199999999999999</v>
@@ -3178,7 +3178,7 @@
         <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
         <v>1.99</v>
@@ -3535,7 +3535,7 @@
         <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
@@ -3562,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA23" t="n">
         <v>170</v>
@@ -3832,19 +3832,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AA25" t="n">
         <v>40</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE25" t="n">
         <v>40</v>
@@ -3937,10 +3937,10 @@
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
         <v>1.23</v>
@@ -3961,10 +3961,10 @@
         <v>1.55</v>
       </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
         <v>26</v>
@@ -3979,16 +3979,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
         <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
         <v>24</v>
@@ -4318,7 +4318,7 @@
         <v>1.63</v>
       </c>
       <c r="H29" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I29" t="n">
         <v>8.199999999999999</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
         <v>2.64</v>
@@ -4459,7 +4459,7 @@
         <v>3.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
         <v>3.45</v>
@@ -4489,7 +4489,7 @@
         <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
         <v>1.9</v>
@@ -4594,7 +4594,7 @@
         <v>3.45</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>3.45</v>
@@ -4615,7 +4615,7 @@
         <v>1.71</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
@@ -4624,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
         <v>1.96</v>
@@ -4633,7 +4633,7 @@
         <v>1.42</v>
       </c>
       <c r="W31" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
@@ -4729,7 +4729,7 @@
         <v>2.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
         <v>3.25</v>
@@ -4855,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
@@ -4864,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
@@ -4903,7 +4903,7 @@
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4990,10 +4990,10 @@
         <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I34" t="n">
         <v>2.26</v>
@@ -5023,16 +5023,16 @@
         <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S34" t="n">
         <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U34" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V34" t="n">
         <v>1.79</v>
@@ -5266,7 +5266,7 @@
         <v>4.3</v>
       </c>
       <c r="I36" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -5296,7 +5296,7 @@
         <v>1.57</v>
       </c>
       <c r="S36" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.6</v>
@@ -5395,16 +5395,16 @@
         <v>2.24</v>
       </c>
       <c r="G37" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>4.5</v>
@@ -5425,7 +5425,7 @@
         <v>2.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R37" t="n">
         <v>1.64</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W37" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X37" t="n">
         <v>46</v>
@@ -5467,13 +5467,13 @@
         <v>20</v>
       </c>
       <c r="AE37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="n">
         <v>30</v>
       </c>
       <c r="AG37" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
@@ -5839,7 +5839,7 @@
         <v>1.86</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U40" t="n">
         <v>1.01</v>
@@ -5998,10 +5998,10 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AD41" t="n">
         <v>44</v>
@@ -6109,7 +6109,7 @@
         <v>2.28</v>
       </c>
       <c r="T42" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U42" t="n">
         <v>2.3</v>
@@ -6133,25 +6133,25 @@
         <v>80</v>
       </c>
       <c r="AB42" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD42" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE42" t="n">
         <v>44</v>
       </c>
       <c r="AF42" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH42" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI42" t="n">
         <v>46</v>
@@ -6160,7 +6160,7 @@
         <v>26</v>
       </c>
       <c r="AK42" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AL42" t="n">
         <v>28</v>
@@ -6169,7 +6169,7 @@
         <v>70</v>
       </c>
       <c r="AN42" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AO42" t="n">
         <v>26</v>
@@ -6217,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L43" t="n">
         <v>1.3</v>
@@ -6232,7 +6232,7 @@
         <v>1.05</v>
       </c>
       <c r="P43" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q43" t="n">
         <v>1.79</v>
@@ -6340,7 +6340,7 @@
         <v>2.48</v>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H44" t="n">
         <v>2.82</v>
@@ -6388,13 +6388,13 @@
         <v>1.48</v>
       </c>
       <c r="W44" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z44" t="n">
         <v>22</v>
@@ -6403,25 +6403,25 @@
         <v>55</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD44" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE44" t="n">
         <v>32</v>
       </c>
       <c r="AF44" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG44" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI44" t="n">
         <v>40</v>
@@ -6478,7 +6478,7 @@
         <v>2.02</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
         <v>6.6</v>
@@ -6520,16 +6520,16 @@
         <v>1.61</v>
       </c>
       <c r="V45" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W45" t="n">
         <v>1.98</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Z45" t="n">
         <v>48</v>
@@ -6541,7 +6541,7 @@
         <v>8.6</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD45" t="n">
         <v>26</v>
@@ -6550,10 +6550,10 @@
         <v>110</v>
       </c>
       <c r="AF45" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH45" t="n">
         <v>28</v>
@@ -7039,7 +7039,7 @@
         <v>3.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
         <v>1.79</v>
@@ -7051,7 +7051,7 @@
         <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T49" t="n">
         <v>1.89</v>
@@ -7147,46 +7147,46 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="G50" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J50" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="K50" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="O50" t="n">
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>2.42</v>
+        <v>1.7</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
@@ -7195,10 +7195,10 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="W50" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,127 +7678,127 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="H54" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="I54" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="J54" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="L54" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="M54" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>2.92</v>
+        <v>4.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="P54" t="n">
-        <v>1.62</v>
+        <v>2.28</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.54</v>
+        <v>1.74</v>
       </c>
       <c r="R54" t="n">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="S54" t="n">
-        <v>5.1</v>
+        <v>2.84</v>
       </c>
       <c r="T54" t="n">
-        <v>2.06</v>
+        <v>1.61</v>
       </c>
       <c r="U54" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="V54" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="W54" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="X54" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AB54" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC54" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE54" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AF54" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH54" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK54" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AL54" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AN54" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,121 +7813,121 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.64</v>
+        <v>2.86</v>
       </c>
       <c r="G55" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="I55" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N55" t="n">
-        <v>4.7</v>
+        <v>2.92</v>
       </c>
       <c r="O55" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.74</v>
+        <v>2.54</v>
       </c>
       <c r="R55" t="n">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="S55" t="n">
-        <v>2.84</v>
+        <v>5.1</v>
       </c>
       <c r="T55" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="U55" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="V55" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="W55" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="X55" t="n">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y55" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z55" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE55" t="n">
         <v>42</v>
       </c>
-      <c r="AB55" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>27</v>
-      </c>
       <c r="AF55" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AJ55" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK55" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AO55" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G56" t="n">
         <v>2.8</v>
@@ -7972,7 +7972,7 @@
         <v>3.45</v>
       </c>
       <c r="K56" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.44</v>
@@ -8005,7 +8005,7 @@
         <v>2.08</v>
       </c>
       <c r="V56" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W56" t="n">
         <v>1.55</v>
@@ -8062,7 +8062,142 @@
         <v>29</v>
       </c>
       <c r="AO56" t="n">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W57" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -676,7 +676,7 @@
         <v>2.78</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -700,7 +700,7 @@
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.52</v>
@@ -712,7 +712,7 @@
         <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
@@ -757,13 +757,13 @@
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
         <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G3" t="n">
         <v>3.15</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -820,13 +820,13 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
@@ -835,19 +835,19 @@
         <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
         <v>1.75</v>
@@ -859,7 +859,7 @@
         <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -871,7 +871,7 @@
         <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>14</v>
@@ -1075,55 +1075,55 @@
         <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>9.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>2.28</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
         <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1243,7 +1243,7 @@
         <v>1.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.37</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,28 +1372,28 @@
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1510,7 +1510,7 @@
         <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
@@ -1522,7 +1522,7 @@
         <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>1.22</v>
@@ -1564,7 +1564,7 @@
         <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
         <v>2.42</v>
@@ -1621,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1642,7 +1642,7 @@
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
@@ -1651,13 +1651,13 @@
         <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
         <v>1.55</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
         <v>1.41</v>
@@ -1759,7 +1759,7 @@
         <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>5.2</v>
@@ -1771,16 +1771,16 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
@@ -1789,10 +1789,10 @@
         <v>2.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="I12" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2041,43 +2041,43 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,10 +2086,10 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>5.5</v>
@@ -2182,16 +2182,16 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2293,16 +2293,16 @@
         <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2329,7 +2329,7 @@
         <v>2.54</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
         <v>2.06</v>
@@ -2338,7 +2338,7 @@
         <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X14" t="n">
         <v>24</v>
@@ -2359,7 +2359,7 @@
         <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
         <v>100</v>
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
         <v>95</v>
@@ -2434,7 +2434,7 @@
         <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
@@ -2452,7 +2452,7 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q15" t="n">
         <v>1.9</v>
@@ -2470,7 +2470,7 @@
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
         <v>1.39</v>
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.85</v>
       </c>
-      <c r="G16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>14.5</v>
@@ -2635,7 +2635,7 @@
         <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
         <v>17</v>
@@ -2647,7 +2647,7 @@
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
         <v>44</v>
@@ -2656,10 +2656,10 @@
         <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
         <v>10.5</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2722,13 +2722,13 @@
         <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
         <v>2.12</v>
@@ -2740,10 +2740,10 @@
         <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2884,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
@@ -2911,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -2980,7 +2980,7 @@
         <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -2989,19 +2989,19 @@
         <v>1.04</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>1.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R19" t="n">
         <v>1.34</v>
       </c>
       <c r="S19" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
         <v>4.3</v>
@@ -3127,7 +3127,7 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
         <v>2.04</v>
@@ -3166,7 +3166,7 @@
         <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
         <v>13.5</v>
@@ -3199,10 +3199,10 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H21" t="n">
         <v>4.6</v>
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
@@ -3391,19 +3391,19 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>1.61</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
         <v>3.3</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3562,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
         <v>170</v>
@@ -3841,7 +3841,7 @@
         <v>970</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>970</v>
@@ -3853,7 +3853,7 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
         <v>28</v>
@@ -3865,7 +3865,7 @@
         <v>120</v>
       </c>
       <c r="AK25" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="n">
         <v>110</v>
@@ -3910,13 +3910,13 @@
         <v>2.46</v>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
@@ -3937,10 +3937,10 @@
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R26" t="n">
         <v>1.23</v>
@@ -3949,16 +3949,16 @@
         <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
         <v>1.77</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X26" t="n">
         <v>970</v>
@@ -3967,13 +3967,13 @@
         <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
@@ -3982,7 +3982,7 @@
         <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
         <v>970</v>
@@ -3991,16 +3991,16 @@
         <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
@@ -4009,10 +4009,10 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -4045,16 +4045,16 @@
         <v>1.76</v>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I27" t="n">
         <v>5.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -4084,10 +4084,10 @@
         <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
@@ -4096,58 +4096,58 @@
         <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD27" t="n">
         <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
         <v>40</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J28" t="n">
         <v>3.85</v>
@@ -4228,7 +4228,7 @@
         <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4336,7 +4336,7 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.34</v>
@@ -4357,7 +4357,7 @@
         <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V29" t="n">
         <v>1.14</v>
@@ -4390,7 +4390,7 @@
         <v>150</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG29" t="n">
         <v>10.5</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G30" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
         <v>3.45</v>
@@ -4468,43 +4468,43 @@
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O30" t="n">
         <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>22</v>
@@ -4513,7 +4513,7 @@
         <v>60</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>8.199999999999999</v>
@@ -4525,7 +4525,7 @@
         <v>44</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
@@ -4537,7 +4537,7 @@
         <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="n">
         <v>34</v>
@@ -4546,10 +4546,10 @@
         <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
         <v>50</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>3.45</v>
@@ -4609,13 +4609,13 @@
         <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P31" t="n">
         <v>1.71</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
@@ -4624,19 +4624,19 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
         <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W31" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
         <v>11.5</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="G32" t="n">
         <v>3.05</v>
@@ -4726,7 +4726,7 @@
         <v>2.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="n">
         <v>3.15</v>
@@ -4744,7 +4744,7 @@
         <v>2.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P32" t="n">
         <v>1.58</v>
@@ -4762,10 +4762,10 @@
         <v>1.99</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
         <v>1.5</v>
@@ -4774,7 +4774,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z32" t="n">
         <v>19.5</v>
@@ -4822,7 +4822,7 @@
         <v>48</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -4861,10 +4861,10 @@
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
@@ -4876,16 +4876,16 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="O33" t="n">
         <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R33" t="n">
         <v>1.19</v>
@@ -4897,7 +4897,7 @@
         <v>1.87</v>
       </c>
       <c r="U33" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
@@ -4906,46 +4906,46 @@
         <v>1.87</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4990,16 +4990,16 @@
         <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I34" t="n">
         <v>2.26</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
         <v>3.9</v>
@@ -5017,7 +5017,7 @@
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q34" t="n">
         <v>1.65</v>
@@ -5029,10 +5029,10 @@
         <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U34" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V34" t="n">
         <v>1.79</v>
@@ -5056,7 +5056,7 @@
         <v>18.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
         <v>12</v>
@@ -5425,7 +5425,7 @@
         <v>2.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R37" t="n">
         <v>1.64</v>
@@ -5530,7 +5530,7 @@
         <v>1.04</v>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="H38" t="n">
         <v>1.04</v>
@@ -5539,31 +5539,31 @@
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K38" t="n">
         <v>1000</v>
       </c>
       <c r="L38" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="O38" t="n">
         <v>1.11</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="Q38" t="n">
         <v>1.32</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S38" t="n">
         <v>1.87</v>
@@ -5578,7 +5578,7 @@
         <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5698,7 +5698,7 @@
         <v>1.42</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S39" t="n">
         <v>2.02</v>
@@ -5956,13 +5956,13 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="O41" t="n">
         <v>1.12</v>
       </c>
       <c r="P41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q41" t="n">
         <v>1.38</v>
@@ -5974,10 +5974,10 @@
         <v>1.92</v>
       </c>
       <c r="T41" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U41" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="V41" t="n">
         <v>1.08</v>
@@ -6079,7 +6079,7 @@
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
         <v>4.6</v>
@@ -6091,7 +6091,7 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
@@ -6100,10 +6100,10 @@
         <v>2.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R42" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
         <v>2.28</v>
@@ -6112,10 +6112,10 @@
         <v>1.46</v>
       </c>
       <c r="U42" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W42" t="n">
         <v>1.87</v>
@@ -6130,7 +6130,7 @@
         <v>32</v>
       </c>
       <c r="AA42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="n">
         <v>970</v>
@@ -6142,7 +6142,7 @@
         <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF42" t="n">
         <v>970</v>
@@ -6154,7 +6154,7 @@
         <v>970</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="n">
         <v>26</v>
@@ -6340,13 +6340,13 @@
         <v>2.48</v>
       </c>
       <c r="G44" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H44" t="n">
         <v>2.82</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J44" t="n">
         <v>3.5</v>
@@ -6361,10 +6361,10 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P44" t="n">
         <v>2.02</v>
@@ -6388,7 +6388,7 @@
         <v>1.48</v>
       </c>
       <c r="W44" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -6439,7 +6439,7 @@
         <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO44" t="n">
         <v>25</v>
@@ -6478,7 +6478,7 @@
         <v>2.02</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="n">
         <v>6.6</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H46" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="I46" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J46" t="n">
         <v>2.62</v>
       </c>
       <c r="K46" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W46" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6901,28 +6901,28 @@
         <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R48" t="n">
         <v>1.49</v>
       </c>
       <c r="S48" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T48" t="n">
         <v>1.63</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V48" t="n">
         <v>1.51</v>
@@ -7042,7 +7042,7 @@
         <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
@@ -7051,13 +7051,13 @@
         <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T49" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U49" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V49" t="n">
         <v>1.18</v>
@@ -7072,10 +7072,10 @@
         <v>20</v>
       </c>
       <c r="Z49" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA49" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB49" t="n">
         <v>9.6</v>
@@ -7099,7 +7099,7 @@
         <v>26</v>
       </c>
       <c r="AI49" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="n">
         <v>25</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="H50" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K50" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L50" t="n">
         <v>1.27</v>
@@ -7171,22 +7171,22 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O50" t="n">
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="R50" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S50" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
@@ -7195,10 +7195,10 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W50" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7429,7 +7429,7 @@
         <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K52" t="n">
         <v>950</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7555,13 +7555,13 @@
         <v>2.96</v>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H53" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="I53" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
         <v>2.96</v>
@@ -7570,19 +7570,19 @@
         <v>1000</v>
       </c>
       <c r="L53" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="n">
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q53" t="n">
         <v>1.96</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W53" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7696,10 +7696,10 @@
         <v>2.78</v>
       </c>
       <c r="I54" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K54" t="n">
         <v>3.75</v>
@@ -7735,7 +7735,7 @@
         <v>2.58</v>
       </c>
       <c r="V54" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W54" t="n">
         <v>1.59</v>
@@ -7744,7 +7744,7 @@
         <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z54" t="n">
         <v>20</v>
@@ -7771,7 +7771,7 @@
         <v>12</v>
       </c>
       <c r="AH54" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI54" t="n">
         <v>34</v>
@@ -7879,7 +7879,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z55" t="n">
         <v>17</v>
@@ -7888,10 +7888,10 @@
         <v>50</v>
       </c>
       <c r="AB55" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC55" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD55" t="n">
         <v>13.5</v>
@@ -7969,7 +7969,7 @@
         <v>3.05</v>
       </c>
       <c r="J56" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K56" t="n">
         <v>3.5</v>
@@ -7981,16 +7981,16 @@
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O56" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P56" t="n">
         <v>1.83</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R56" t="n">
         <v>1.31</v>
@@ -8005,7 +8005,7 @@
         <v>2.08</v>
       </c>
       <c r="V56" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W56" t="n">
         <v>1.55</v>
@@ -8026,7 +8026,7 @@
         <v>11</v>
       </c>
       <c r="AC56" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD56" t="n">
         <v>13.5</v>
@@ -8041,7 +8041,7 @@
         <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI56" t="n">
         <v>48</v>
@@ -8056,13 +8056,13 @@
         <v>46</v>
       </c>
       <c r="AM56" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO56" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -8125,13 +8125,13 @@
         <v>1.74</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R57" t="n">
         <v>1.18</v>
       </c>
       <c r="S57" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="T57" t="n">
         <v>1.01</v>
@@ -8143,7 +8143,7 @@
         <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -670,7 +670,7 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
         <v>2.78</v>
@@ -703,7 +703,7 @@
         <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
         <v>2.78</v>
@@ -721,55 +721,55 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
         <v>19.5</v>
@@ -805,10 +805,10 @@
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
         <v>2.34</v>
@@ -820,37 +820,37 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
@@ -859,7 +859,7 @@
         <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -868,7 +868,7 @@
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>14</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
         <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,10 +961,10 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>2.08</v>
@@ -979,13 +979,13 @@
         <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
         <v>2.5</v>
@@ -1078,7 +1078,7 @@
         <v>1.26</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
         <v>28</v>
@@ -1111,7 +1111,7 @@
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="T5" t="n">
         <v>2.44</v>
@@ -1123,7 +1123,7 @@
         <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H7" t="n">
         <v>5.7</v>
@@ -1372,13 +1372,13 @@
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
         <v>2.38</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1501,34 +1501,34 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1552,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
         <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1567,22 +1567,22 @@
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
         <v>970</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1630,40 +1630,40 @@
         <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
@@ -1678,7 +1678,7 @@
         <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1687,10 +1687,10 @@
         <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1717,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
         <v>9.4</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -1780,16 +1780,16 @@
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
         <v>1.87</v>
@@ -1849,10 +1849,10 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>4.9</v>
@@ -1912,25 +1912,25 @@
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
         <v>1.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W11" t="n">
         <v>1.25</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
         <v>1.44</v>
       </c>
       <c r="I12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2041,31 +2041,31 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
         <v>1.09</v>
@@ -2074,22 +2074,22 @@
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2116,13 +2116,13 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2293,13 +2293,13 @@
         <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
         <v>5.1</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.21</v>
@@ -2323,22 +2323,22 @@
         <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
         <v>2.54</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
         <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="X14" t="n">
         <v>24</v>
@@ -2356,16 +2356,16 @@
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2377,7 +2377,7 @@
         <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO14" t="n">
         <v>95</v>
@@ -2425,10 +2425,10 @@
         <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I15" t="n">
         <v>2.34</v>
@@ -2437,7 +2437,7 @@
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2446,13 +2446,13 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" t="n">
         <v>1.9</v>
@@ -2464,28 +2464,28 @@
         <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
         <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
         <v>970</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>970</v>
@@ -2497,10 +2497,10 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>970</v>
@@ -2512,19 +2512,19 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
         <v>970</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
         <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
@@ -2581,31 +2581,31 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
         <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W16" t="n">
         <v>1.3</v>
@@ -2650,10 +2650,10 @@
         <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>75</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,7 +2716,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.18</v>
@@ -2731,19 +2731,19 @@
         <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U17" t="n">
         <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2860,19 +2860,19 @@
         <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
         <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T18" t="n">
         <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V18" t="n">
         <v>1.8</v>
@@ -2884,10 +2884,10 @@
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA18" t="n">
         <v>29</v>
@@ -2917,7 +2917,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
         <v>32</v>
@@ -2932,7 +2932,7 @@
         <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.43</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2986,34 +2986,34 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>1.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.6</v>
       </c>
-      <c r="T19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I20" t="n">
         <v>2.32</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -3127,22 +3127,22 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
         <v>1.75</v>
@@ -3151,10 +3151,10 @@
         <v>1.3</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
         <v>970</v>
@@ -3169,10 +3169,10 @@
         <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF20" t="n">
         <v>34</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="G21" t="n">
         <v>1.89</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G22" t="n">
         <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I22" t="n">
         <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,7 +3415,7 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W22" t="n">
         <v>1.31</v>
@@ -3508,7 +3508,7 @@
         <v>1.99</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
         <v>5.7</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.96</v>
       </c>
       <c r="K24" t="n">
         <v>3.7</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="W24" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3775,19 +3775,19 @@
         <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
         <v>2.46</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,7 +3802,7 @@
         <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q25" t="n">
         <v>2.34</v>
@@ -3817,7 +3817,7 @@
         <v>1.91</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="V25" t="n">
         <v>1.68</v>
@@ -3847,7 +3847,7 @@
         <v>970</v>
       </c>
       <c r="AE25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
         <v>34</v>
@@ -3907,58 +3907,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="G26" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="X26" t="n">
         <v>970</v>
@@ -3967,22 +3967,22 @@
         <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD26" t="n">
         <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
         <v>970</v>
@@ -3991,10 +3991,10 @@
         <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>48</v>
@@ -4012,7 +4012,7 @@
         <v>40</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -4063,25 +4063,25 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.91</v>
+        <v>1.02</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
         <v>970</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G28" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I28" t="n">
         <v>8.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
         <v>4.4</v>
@@ -4201,22 +4201,22 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4324,7 +4324,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>4.6</v>
@@ -4336,19 +4336,19 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q29" t="n">
         <v>1.95</v>
       </c>
       <c r="R29" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
         <v>3.4</v>
@@ -4357,7 +4357,7 @@
         <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V29" t="n">
         <v>1.14</v>
@@ -4408,16 +4408,16 @@
         <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="n">
         <v>10.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="H30" t="n">
         <v>2.98</v>
@@ -4468,37 +4468,37 @@
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O30" t="n">
         <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U30" t="n">
         <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
@@ -4513,7 +4513,7 @@
         <v>60</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
         <v>8.199999999999999</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="n">
         <v>2.72</v>
@@ -4597,7 +4597,7 @@
         <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4633,7 +4633,7 @@
         <v>1.44</v>
       </c>
       <c r="W31" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X31" t="n">
         <v>13.5</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G32" t="n">
         <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.15</v>
       </c>
       <c r="K32" t="n">
         <v>3.25</v>
@@ -4750,7 +4750,7 @@
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
@@ -4759,10 +4759,10 @@
         <v>4.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
         <v>1.5</v>
@@ -4855,16 +4855,16 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
@@ -4873,37 +4873,37 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q33" t="n">
         <v>2.3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X33" t="n">
         <v>12.5</v>
@@ -4993,49 +4993,49 @@
         <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I34" t="n">
         <v>2.26</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R34" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U34" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>1.4</v>
@@ -5056,7 +5056,7 @@
         <v>18.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD34" t="n">
         <v>12</v>
@@ -5074,7 +5074,7 @@
         <v>16.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="n">
         <v>60</v>
@@ -5083,16 +5083,16 @@
         <v>36</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
         <v>4.1</v>
       </c>
       <c r="K35" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5155,13 +5155,13 @@
         <v>2.16</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5173,7 +5173,7 @@
         <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G36" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H36" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I36" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K36" t="n">
         <v>4.8</v>
@@ -5281,25 +5281,25 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O36" t="n">
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R36" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S36" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T36" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U36" t="n">
         <v>2.3</v>
@@ -5308,16 +5308,16 @@
         <v>1.24</v>
       </c>
       <c r="W36" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X36" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y36" t="n">
         <v>29</v>
       </c>
-      <c r="Y36" t="n">
-        <v>27</v>
-      </c>
       <c r="Z36" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA36" t="n">
         <v>120</v>
@@ -5326,10 +5326,10 @@
         <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE36" t="n">
         <v>65</v>
@@ -5359,7 +5359,7 @@
         <v>85</v>
       </c>
       <c r="AN36" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G37" t="n">
         <v>2.5</v>
       </c>
       <c r="H37" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
         <v>4.5</v>
@@ -5416,31 +5416,31 @@
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O37" t="n">
         <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q37" t="n">
         <v>1.4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T37" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U37" t="n">
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W37" t="n">
         <v>1.66</v>
@@ -5530,7 +5530,7 @@
         <v>1.04</v>
       </c>
       <c r="G38" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="H38" t="n">
         <v>1.04</v>
@@ -5551,25 +5551,25 @@
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.11</v>
       </c>
       <c r="P38" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q38" t="n">
         <v>1.32</v>
       </c>
       <c r="R38" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S38" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T38" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="U38" t="n">
         <v>1.01</v>
@@ -5578,7 +5578,7 @@
         <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5665,10 +5665,10 @@
         <v>1.32</v>
       </c>
       <c r="G39" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
         <v>5.7</v>
@@ -5701,10 +5701,10 @@
         <v>1.61</v>
       </c>
       <c r="S39" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T39" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="U39" t="n">
         <v>1.01</v>
@@ -5713,7 +5713,7 @@
         <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5800,10 +5800,10 @@
         <v>1.38</v>
       </c>
       <c r="G40" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H40" t="n">
-        <v>1.09</v>
+        <v>4.2</v>
       </c>
       <c r="I40" t="n">
         <v>16</v>
@@ -5821,25 +5821,25 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="O40" t="n">
         <v>1.12</v>
       </c>
       <c r="P40" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="R40" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S40" t="n">
         <v>1.86</v>
       </c>
       <c r="T40" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="U40" t="n">
         <v>1.01</v>
@@ -5848,7 +5848,7 @@
         <v>1.07</v>
       </c>
       <c r="W40" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5956,7 +5956,7 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.12</v>
@@ -5968,10 +5968,10 @@
         <v>1.38</v>
       </c>
       <c r="R41" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S41" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T41" t="n">
         <v>1.69</v>
@@ -5983,13 +5983,13 @@
         <v>1.08</v>
       </c>
       <c r="W41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X41" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z41" t="n">
         <v>120</v>
@@ -5998,7 +5998,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AC41" t="n">
         <v>970</v>
@@ -6019,7 +6019,7 @@
         <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="n">
         <v>15</v>
@@ -6034,7 +6034,7 @@
         <v>110</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO41" t="n">
         <v>120</v>
@@ -6070,22 +6070,22 @@
         <v>1.95</v>
       </c>
       <c r="G42" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
         <v>4.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -6100,7 +6100,7 @@
         <v>2.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R42" t="n">
         <v>1.62</v>
@@ -6115,10 +6115,10 @@
         <v>2.32</v>
       </c>
       <c r="V42" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X42" t="n">
         <v>32</v>
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="G43" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="H43" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="I43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K43" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="O43" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R43" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S43" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U43" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="V43" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6379,10 +6379,10 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
         <v>1.48</v>
@@ -6391,7 +6391,7 @@
         <v>1.6</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="G45" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
         <v>6.6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
         <v>4</v>
@@ -6496,34 +6496,34 @@
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="O45" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S45" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T45" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="X45" t="n">
         <v>970</v>
@@ -6532,22 +6532,22 @@
         <v>970</v>
       </c>
       <c r="Z45" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC45" t="n">
         <v>970</v>
       </c>
       <c r="AD45" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
         <v>970</v>
@@ -6607,46 +6607,46 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="G46" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="I46" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="O46" t="n">
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="R46" t="n">
         <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W46" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G47" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="H47" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J47" t="n">
         <v>4.5</v>
@@ -6778,7 +6778,7 @@
         <v>1.53</v>
       </c>
       <c r="R47" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S47" t="n">
         <v>2.3</v>
@@ -6787,13 +6787,13 @@
         <v>1.54</v>
       </c>
       <c r="U47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
         <v>1.13</v>
       </c>
       <c r="W47" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="X47" t="n">
         <v>30</v>
@@ -6883,7 +6883,7 @@
         <v>2.6</v>
       </c>
       <c r="H48" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I48" t="n">
         <v>2.96</v>
@@ -6895,7 +6895,7 @@
         <v>3.7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -6907,7 +6907,7 @@
         <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q48" t="n">
         <v>1.77</v>
@@ -6922,7 +6922,7 @@
         <v>1.63</v>
       </c>
       <c r="U48" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V48" t="n">
         <v>1.51</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G49" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I49" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L49" t="n">
         <v>1.33</v>
@@ -7042,7 +7042,7 @@
         <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
@@ -7051,31 +7051,31 @@
         <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T49" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U49" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V49" t="n">
         <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X49" t="n">
         <v>16</v>
       </c>
       <c r="Y49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z49" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA49" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB49" t="n">
         <v>9.6</v>
@@ -7084,16 +7084,16 @@
         <v>10.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE49" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF49" t="n">
         <v>13</v>
       </c>
       <c r="AG49" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
         <v>26</v>
@@ -7102,7 +7102,7 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK49" t="n">
         <v>25</v>
@@ -7114,10 +7114,10 @@
         <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO49" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -7147,58 +7147,58 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="G50" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K50" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="L50" t="n">
         <v>1.27</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>1.86</v>
+        <v>3.6</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="R50" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S50" t="n">
-        <v>1.64</v>
+        <v>2.68</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V50" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W50" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="G51" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J51" t="n">
         <v>4.1</v>
       </c>
-      <c r="I51" t="n">
-        <v>11</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K51" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,88 +7306,88 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2.56</v>
+        <v>5.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.13</v>
       </c>
       <c r="P51" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R51" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="S51" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="V51" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="W51" t="n">
         <v>2.12</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="G52" t="n">
-        <v>1000</v>
+        <v>1.39</v>
       </c>
       <c r="H52" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I52" t="n">
         <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="K52" t="n">
         <v>950</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
         <v>4.4</v>
       </c>
       <c r="H53" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="I53" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J53" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
         <v>1000</v>
@@ -7600,7 +7600,7 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W53" t="n">
         <v>1.29</v>
@@ -7690,7 +7690,7 @@
         <v>2.66</v>
       </c>
       <c r="G54" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H54" t="n">
         <v>2.78</v>
@@ -7699,7 +7699,7 @@
         <v>2.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
         <v>3.75</v>
@@ -7711,7 +7711,7 @@
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O54" t="n">
         <v>1.24</v>
@@ -7726,7 +7726,7 @@
         <v>1.51</v>
       </c>
       <c r="S54" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T54" t="n">
         <v>1.61</v>
@@ -7738,7 +7738,7 @@
         <v>1.55</v>
       </c>
       <c r="W54" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X54" t="n">
         <v>18</v>
@@ -7789,7 +7789,7 @@
         <v>70</v>
       </c>
       <c r="AN54" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO54" t="n">
         <v>19</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H55" t="n">
         <v>2.98</v>
@@ -7852,7 +7852,7 @@
         <v>1.5</v>
       </c>
       <c r="P55" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q55" t="n">
         <v>2.54</v>
@@ -7882,7 +7882,7 @@
         <v>9</v>
       </c>
       <c r="Z55" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA55" t="n">
         <v>50</v>
@@ -7927,7 +7927,7 @@
         <v>44</v>
       </c>
       <c r="AO55" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.62</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.66</v>
       </c>
       <c r="H2" t="n">
         <v>2.78</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,31 +700,31 @@
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
         <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
@@ -733,7 +733,7 @@
         <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
         <v>19.5</v>
@@ -772,7 +772,7 @@
         <v>17.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -826,40 +826,40 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -868,13 +868,13 @@
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -898,16 +898,16 @@
         <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>8.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1096,31 +1096,31 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
         <v>2.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1375,13 +1375,13 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1390,10 +1390,10 @@
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1483,49 +1483,49 @@
         <v>1.89</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>2.68</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
         <v>2.12</v>
@@ -1534,37 +1534,37 @@
         <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1576,13 +1576,13 @@
         <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>970</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1618,13 +1618,13 @@
         <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I9" t="n">
         <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>4.3</v>
@@ -1648,43 +1648,43 @@
         <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U9" t="n">
         <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
         <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB9" t="n">
         <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
         <v>32</v>
@@ -1693,13 +1693,13 @@
         <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
@@ -1711,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
         <v>13</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
         <v>1.51</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="I10" t="n">
         <v>9.4</v>
@@ -1765,7 +1765,7 @@
         <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1774,13 +1774,13 @@
         <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
@@ -1789,67 +1789,67 @@
         <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
         <v>340</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="n">
         <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AO10" t="n">
         <v>200</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
         <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>970</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
         <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
         <v>1.94</v>
@@ -1930,10 +1930,10 @@
         <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2050,7 +2050,7 @@
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>1.3</v>
@@ -2059,16 +2059,16 @@
         <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="W12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2077,10 +2077,10 @@
         <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>1000</v>
@@ -2110,10 +2110,10 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM12" t="n">
         <v>280</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>5.5</v>
@@ -2176,34 +2176,34 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
         <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J14" t="n">
         <v>4.8</v>
@@ -2311,31 +2311,31 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
         <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
         <v>2.88</v>
@@ -2350,16 +2350,16 @@
         <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>95</v>
@@ -2371,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
         <v>14</v>
@@ -2386,10 +2386,10 @@
         <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>95</v>
@@ -2425,10 +2425,10 @@
         <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
         <v>2.34</v>
@@ -2437,7 +2437,7 @@
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2449,16 +2449,16 @@
         <v>3.85</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
         <v>1.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S15" t="n">
         <v>3.3</v>
@@ -2473,10 +2473,10 @@
         <v>1.74</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
         <v>10.5</v>
@@ -2488,7 +2488,7 @@
         <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.199999999999999</v>
@@ -2518,7 +2518,7 @@
         <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -2563,16 +2563,16 @@
         <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2590,10 +2590,10 @@
         <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
         <v>2.72</v>
@@ -2602,7 +2602,7 @@
         <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
         <v>2.02</v>
@@ -2614,19 +2614,19 @@
         <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
         <v>11</v>
@@ -2638,16 +2638,16 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="n">
         <v>46</v>
@@ -2659,10 +2659,10 @@
         <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H17" t="n">
         <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2836,13 +2836,13 @@
         <v>2.22</v>
       </c>
       <c r="I18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2869,13 +2869,13 @@
         <v>2.54</v>
       </c>
       <c r="T18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="n">
         <v>2.64</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
         <v>1.41</v>
@@ -2884,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z18" t="n">
         <v>16.5</v>
@@ -2893,7 +2893,7 @@
         <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC18" t="n">
         <v>9.199999999999999</v>
@@ -2917,7 +2917,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
         <v>32</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2986,28 +2986,28 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
         <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T19" t="n">
         <v>1.6</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
         <v>2</v>
@@ -3019,22 +3019,22 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB19" t="n">
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3043,7 +3043,7 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3124,7 +3124,7 @@
         <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
         <v>1.74</v>
@@ -3136,16 +3136,16 @@
         <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
         <v>1.96</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
         <v>1.3</v>
@@ -3154,22 +3154,22 @@
         <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
         <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
         <v>30</v>
@@ -3178,19 +3178,19 @@
         <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
         <v>100</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
         <v>80</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="G21" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
         <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
         <v>2.8</v>
       </c>
-      <c r="J22" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.65</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
         <v>3.55</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
         <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="G23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.99</v>
       </c>
-      <c r="H23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.18</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA23" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>25</v>
       </c>
-      <c r="AE23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>26</v>
-      </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="G24" t="n">
         <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
         <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
@@ -3667,22 +3667,22 @@
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.57</v>
@@ -3775,109 +3775,109 @@
         <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.2</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.34</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
         <v>1.68</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
         <v>970</v>
       </c>
       <c r="AA25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="n">
         <v>970</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD25" t="n">
         <v>970</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG25" t="n">
         <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -3910,55 +3910,55 @@
         <v>2.22</v>
       </c>
       <c r="G26" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
         <v>970</v>
@@ -4042,52 +4042,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="H28" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
         <v>4.4</v>
@@ -4201,34 +4201,34 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
         <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4321,7 +4321,7 @@
         <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4330,7 +4330,7 @@
         <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4342,16 +4342,16 @@
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
         <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T29" t="n">
         <v>2.02</v>
@@ -4363,10 +4363,10 @@
         <v>1.14</v>
       </c>
       <c r="W29" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
         <v>23</v>
@@ -4378,25 +4378,25 @@
         <v>300</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
         <v>150</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI29" t="n">
         <v>140</v>
@@ -4405,7 +4405,7 @@
         <v>15.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>42</v>
@@ -4414,10 +4414,10 @@
         <v>190</v>
       </c>
       <c r="AN29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -4471,73 +4471,73 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE30" t="n">
         <v>60</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>44</v>
       </c>
       <c r="AF30" t="n">
         <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
         <v>34</v>
@@ -4546,13 +4546,13 @@
         <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="G31" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I31" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
@@ -4600,7 +4600,7 @@
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -4612,16 +4612,16 @@
         <v>1.41</v>
       </c>
       <c r="P31" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
         <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T31" t="n">
         <v>1.84</v>
@@ -4630,40 +4630,40 @@
         <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W31" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
         <v>65</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>44</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
         <v>20</v>
@@ -4672,22 +4672,22 @@
         <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO31" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="O32" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="P32" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W32" t="n">
         <v>1.5</v>
       </c>
       <c r="X32" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA32" t="n">
         <v>55</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF32" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN32" t="n">
         <v>65</v>
       </c>
-      <c r="AM32" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>48</v>
-      </c>
       <c r="AO32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -4864,7 +4864,7 @@
         <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
@@ -4873,31 +4873,31 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O33" t="n">
         <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
@@ -4906,55 +4906,55 @@
         <v>1.86</v>
       </c>
       <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H34" t="n">
         <v>2.18</v>
@@ -5005,7 +5005,7 @@
         <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5014,25 +5014,25 @@
         <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
         <v>1.49</v>
       </c>
       <c r="S34" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T34" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
         <v>1.8</v>
@@ -5044,16 +5044,16 @@
         <v>24</v>
       </c>
       <c r="Y34" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB34" t="n">
         <v>17</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>18.5</v>
       </c>
       <c r="AC34" t="n">
         <v>9.4</v>
@@ -5062,34 +5062,34 @@
         <v>12</v>
       </c>
       <c r="AE34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>28</v>
       </c>
       <c r="AG34" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AH34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK34" t="n">
         <v>38</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>36</v>
-      </c>
       <c r="AL34" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="n">
         <v>80</v>
       </c>
       <c r="AN34" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO34" t="n">
         <v>13.5</v>
@@ -5125,19 +5125,19 @@
         <v>1.64</v>
       </c>
       <c r="G35" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H35" t="n">
         <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="J35" t="n">
         <v>4.1</v>
       </c>
       <c r="K35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,76 +5146,76 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>2.16</v>
+        <v>4.9</v>
       </c>
       <c r="O35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.2</v>
       </c>
-      <c r="P35" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S35" t="n">
+      <c r="W35" t="n">
         <v>2.3</v>
       </c>
-      <c r="T35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.28</v>
-      </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5224,10 +5224,10 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
@@ -5266,13 +5266,13 @@
         <v>4.5</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J36" t="n">
         <v>4.1</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5287,7 +5287,7 @@
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q36" t="n">
         <v>1.56</v>
@@ -5296,10 +5296,10 @@
         <v>1.59</v>
       </c>
       <c r="S36" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U36" t="n">
         <v>2.3</v>
@@ -5350,13 +5350,13 @@
         <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="n">
         <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
         <v>9</v>
@@ -5392,109 +5392,109 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H37" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="I37" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="S37" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T37" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="V37" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W37" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X37" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Z37" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AA37" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE37" t="n">
         <v>26</v>
       </c>
-      <c r="AC37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>38</v>
-      </c>
       <c r="AF37" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AG37" t="n">
         <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AJ37" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AK37" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AM37" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AN37" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="G38" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H38" t="n">
         <v>1.04</v>
@@ -5539,10 +5539,10 @@
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K38" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.2</v>
@@ -5551,34 +5551,34 @@
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O38" t="n">
         <v>1.11</v>
       </c>
       <c r="P38" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R38" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S38" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="T38" t="n">
         <v>1.45</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V38" t="n">
         <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="G39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>1.02</v>
+        <v>2.32</v>
       </c>
       <c r="O39" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P39" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R39" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="S39" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="T39" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V39" t="n">
         <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="G40" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="H40" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K40" t="n">
         <v>8</v>
@@ -5821,34 +5821,34 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O40" t="n">
         <v>1.12</v>
       </c>
       <c r="P40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R40" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="S40" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T40" t="n">
         <v>1.46</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V40" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="W40" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5935,7 +5935,7 @@
         <v>1.3</v>
       </c>
       <c r="G41" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H41" t="n">
         <v>7.6</v>
@@ -5944,10 +5944,10 @@
         <v>12.5</v>
       </c>
       <c r="J41" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="K41" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5965,25 +5965,25 @@
         <v>3.15</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R41" t="n">
         <v>1.88</v>
       </c>
       <c r="S41" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T41" t="n">
         <v>1.69</v>
       </c>
       <c r="U41" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="V41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W41" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X41" t="n">
         <v>50</v>
@@ -5998,7 +5998,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
         <v>970</v>
@@ -6025,7 +6025,7 @@
         <v>15</v>
       </c>
       <c r="AK41" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AL41" t="n">
         <v>34</v>
@@ -6067,31 +6067,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G42" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K42" t="n">
         <v>4.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
@@ -6109,22 +6109,22 @@
         <v>2.28</v>
       </c>
       <c r="T42" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="U42" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X42" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y42" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z42" t="n">
         <v>32</v>
@@ -6142,7 +6142,7 @@
         <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="n">
         <v>970</v>
@@ -6172,7 +6172,7 @@
         <v>970</v>
       </c>
       <c r="AO42" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -6205,31 +6205,31 @@
         <v>2.48</v>
       </c>
       <c r="G43" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H43" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="P43" t="n">
         <v>1.91</v>
@@ -6238,22 +6238,22 @@
         <v>1.88</v>
       </c>
       <c r="R43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T43" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="U43" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="G44" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="H44" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J44" t="n">
         <v>3.5</v>
@@ -6355,64 +6355,64 @@
         <v>3.7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
         <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P44" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q44" t="n">
         <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S44" t="n">
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="V44" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W44" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="X44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
       </c>
       <c r="Z44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD44" t="n">
         <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF44" t="n">
         <v>970</v>
@@ -6427,10 +6427,10 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL44" t="n">
         <v>38</v>
@@ -6439,10 +6439,10 @@
         <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO44" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -6472,58 +6472,58 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="G45" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L45" t="n">
         <v>1.39</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P45" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W45" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="X45" t="n">
         <v>970</v>
@@ -6610,19 +6610,19 @@
         <v>2.26</v>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>2.84</v>
       </c>
       <c r="I46" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="K46" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="L46" t="n">
         <v>1.41</v>
@@ -6631,34 +6631,34 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.54</v>
+        <v>2.32</v>
       </c>
       <c r="O46" t="n">
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.02</v>
+        <v>1.92</v>
       </c>
       <c r="R46" t="n">
         <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W46" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6742,109 +6742,109 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G47" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="H47" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J47" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K47" t="n">
         <v>5.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>4.6</v>
+        <v>2.42</v>
       </c>
       <c r="O47" t="n">
         <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S47" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="V47" t="n">
         <v>1.13</v>
       </c>
       <c r="W47" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="X47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y47" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z47" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC47" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AD47" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AK47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6907,7 +6907,7 @@
         <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q48" t="n">
         <v>1.77</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G49" t="n">
         <v>1.89</v>
       </c>
       <c r="H49" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J49" t="n">
         <v>3.5</v>
       </c>
       <c r="K49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L49" t="n">
         <v>1.33</v>
@@ -7042,79 +7042,79 @@
         <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
         <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T49" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U49" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W49" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X49" t="n">
         <v>16</v>
       </c>
       <c r="Y49" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA49" t="n">
         <v>180</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD49" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE49" t="n">
         <v>100</v>
       </c>
       <c r="AF49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI49" t="n">
         <v>100</v>
       </c>
       <c r="AJ49" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK49" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL49" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM49" t="n">
         <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO49" t="n">
         <v>130</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G50" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I50" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J50" t="n">
         <v>3.05</v>
       </c>
       <c r="K50" t="n">
-        <v>7.8</v>
+        <v>950</v>
       </c>
       <c r="L50" t="n">
         <v>1.27</v>
@@ -7180,25 +7180,25 @@
         <v>2.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R50" t="n">
         <v>1.41</v>
       </c>
       <c r="S50" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T50" t="n">
         <v>1.7</v>
       </c>
       <c r="U50" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V50" t="n">
         <v>1.22</v>
       </c>
       <c r="W50" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="G51" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K51" t="n">
         <v>5.5</v>
@@ -7303,10 +7303,10 @@
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="O51" t="n">
         <v>1.13</v>
@@ -7318,7 +7318,7 @@
         <v>1.39</v>
       </c>
       <c r="R51" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="S51" t="n">
         <v>1.89</v>
@@ -7330,64 +7330,64 @@
         <v>2.6</v>
       </c>
       <c r="V51" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W51" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="X51" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE51" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AG51" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL51" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO51" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G52" t="n">
         <v>1.39</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="Q52" t="n">
         <v>1.58</v>
@@ -7555,13 +7555,13 @@
         <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H53" t="n">
         <v>1.46</v>
       </c>
       <c r="I53" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J53" t="n">
         <v>3</v>
@@ -7570,13 +7570,13 @@
         <v>1000</v>
       </c>
       <c r="L53" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M53" t="n">
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.6</v>
+        <v>2.58</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
@@ -7585,25 +7585,25 @@
         <v>1.6</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R53" t="n">
         <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>1.96</v>
+        <v>2.74</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V53" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W53" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7690,13 +7690,13 @@
         <v>2.66</v>
       </c>
       <c r="G54" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>2.78</v>
       </c>
       <c r="I54" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J54" t="n">
         <v>3.65</v>
@@ -7735,16 +7735,16 @@
         <v>2.58</v>
       </c>
       <c r="V54" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W54" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X54" t="n">
         <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z54" t="n">
         <v>20</v>
@@ -7780,13 +7780,13 @@
         <v>40</v>
       </c>
       <c r="AK54" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL54" t="n">
         <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN54" t="n">
         <v>18</v>
@@ -7840,10 +7840,10 @@
         <v>3.15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N55" t="n">
         <v>2.92</v>
@@ -7870,13 +7870,13 @@
         <v>1.88</v>
       </c>
       <c r="V55" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W55" t="n">
         <v>1.53</v>
       </c>
       <c r="X55" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -7921,7 +7921,7 @@
         <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN55" t="n">
         <v>44</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I56" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J56" t="n">
         <v>3.4</v>
@@ -7981,49 +7981,49 @@
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R56" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U56" t="n">
         <v>2.08</v>
       </c>
       <c r="V56" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W56" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X56" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y56" t="n">
         <v>11.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="n">
         <v>50</v>
       </c>
       <c r="AB56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC56" t="n">
         <v>7.6</v>
@@ -8047,19 +8047,19 @@
         <v>48</v>
       </c>
       <c r="AJ56" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK56" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL56" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM56" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN56" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO56" t="n">
         <v>34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
         <v>2.78</v>
@@ -697,7 +697,7 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -709,7 +709,7 @@
         <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -718,7 +718,7 @@
         <v>1.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -811,7 +811,7 @@
         <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -841,16 +841,16 @@
         <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
         <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
@@ -886,7 +886,7 @@
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>30</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
         <v>1.56</v>
@@ -955,7 +955,7 @@
         <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -967,22 +967,22 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
         <v>1.11</v>
@@ -1015,13 +1015,13 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>16.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>40</v>
@@ -1075,7 +1075,7 @@
         <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H5" t="n">
         <v>1.09</v>
@@ -1096,22 +1096,22 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
         <v>2.44</v>
@@ -1120,7 +1120,7 @@
         <v>1.55</v>
       </c>
       <c r="V5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1381,19 +1381,19 @@
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.04</v>
       </c>
-      <c r="U7" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>1.43</v>
       </c>
       <c r="G10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H10" t="n">
         <v>7.8</v>
@@ -1786,10 +1786,10 @@
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
         <v>1.89</v>
@@ -1891,10 +1891,10 @@
         <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>970</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>4.6</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
@@ -1930,7 +1930,7 @@
         <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="W11" t="n">
         <v>1.23</v>
@@ -2023,7 +2023,7 @@
         <v>11.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I12" t="n">
         <v>1.52</v>
@@ -2032,7 +2032,7 @@
         <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AL12" t="n">
         <v>210</v>
@@ -2182,7 +2182,7 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
@@ -2296,22 +2296,22 @@
         <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
         <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2320,19 +2320,19 @@
         <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T14" t="n">
         <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
         <v>1.15</v>
@@ -2344,7 +2344,7 @@
         <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="n">
         <v>65</v>
@@ -2374,7 +2374,7 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
         <v>14</v>
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2452,7 +2452,7 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q15" t="n">
         <v>1.91</v>
@@ -2566,13 +2566,13 @@
         <v>1.92</v>
       </c>
       <c r="I16" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="J16" t="n">
         <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2605,7 +2605,7 @@
         <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W16" t="n">
         <v>1.3</v>
@@ -2731,7 +2731,7 @@
         <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T17" t="n">
         <v>1.55</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
         <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
         <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2869,16 +2869,16 @@
         <v>2.54</v>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2887,7 +2887,7 @@
         <v>14.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
         <v>29</v>
@@ -2896,7 +2896,7 @@
         <v>18.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
@@ -2986,7 +2986,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
@@ -3001,13 +3001,13 @@
         <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.6</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
         <v>2</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
@@ -3121,13 +3121,13 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q20" t="n">
         <v>2.08</v>
@@ -3145,10 +3145,10 @@
         <v>1.96</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3157,7 +3157,7 @@
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
         <v>34</v>
@@ -3169,7 +3169,7 @@
         <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
         <v>30</v>
@@ -3181,10 +3181,10 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
         <v>100</v>
@@ -3235,13 +3235,13 @@
         <v>1.63</v>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="J21" t="n">
         <v>3.15</v>
@@ -3268,7 +3268,7 @@
         <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
         <v>3.55</v>
@@ -3283,7 +3283,7 @@
         <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3370,22 +3370,22 @@
         <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H22" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="I22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3397,10 +3397,10 @@
         <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
         <v>1.22</v>
@@ -3409,19 +3409,19 @@
         <v>3.55</v>
       </c>
       <c r="T22" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
         <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
         <v>10.5</v>
@@ -3436,7 +3436,7 @@
         <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
@@ -3535,7 +3535,7 @@
         <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
@@ -3667,10 +3667,10 @@
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
@@ -3781,7 +3781,7 @@
         <v>1.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -3796,16 +3796,16 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3820,7 +3820,7 @@
         <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W25" t="n">
         <v>1.22</v>
@@ -3931,7 +3931,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>2.56</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
@@ -3940,7 +3940,7 @@
         <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
         <v>1.2</v>
@@ -3952,7 +3952,7 @@
         <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>1.31</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G27" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
         <v>1.32</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G28" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
@@ -4201,34 +4201,34 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
         <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
         <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="G29" t="n">
         <v>1.63</v>
@@ -4327,7 +4327,7 @@
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.39</v>
@@ -4351,7 +4351,7 @@
         <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
         <v>2.02</v>
@@ -4360,7 +4360,7 @@
         <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
         <v>2.58</v>
@@ -4378,13 +4378,13 @@
         <v>300</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
         <v>150</v>
@@ -4405,7 +4405,7 @@
         <v>15.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>42</v>
@@ -4417,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
@@ -4450,16 +4450,16 @@
         <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.45</v>
@@ -4468,43 +4468,43 @@
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.94</v>
       </c>
-      <c r="U30" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W30" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>23</v>
@@ -4540,16 +4540,16 @@
         <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM30" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN30" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>55</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G31" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>2.82</v>
       </c>
       <c r="I31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.15</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
@@ -4609,13 +4609,13 @@
         <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
         <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
         <v>1.25</v>
@@ -4624,16 +4624,16 @@
         <v>4.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
         <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4720,10 +4720,10 @@
         <v>2.9</v>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I32" t="n">
         <v>2.98</v>
@@ -4744,13 +4744,13 @@
         <v>2.52</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P32" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
@@ -4759,7 +4759,7 @@
         <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
         <v>1.74</v>
@@ -4948,7 +4948,7 @@
         <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
         <v>190</v>
@@ -4993,7 +4993,7 @@
         <v>3.55</v>
       </c>
       <c r="H34" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I34" t="n">
         <v>2.26</v>
@@ -5026,19 +5026,19 @@
         <v>1.49</v>
       </c>
       <c r="S34" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U34" t="n">
         <v>2.36</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X34" t="n">
         <v>24</v>
@@ -5287,7 +5287,7 @@
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q36" t="n">
         <v>1.56</v>
@@ -5296,7 +5296,7 @@
         <v>1.59</v>
       </c>
       <c r="S36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T36" t="n">
         <v>1.6</v>
@@ -5356,7 +5356,7 @@
         <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN36" t="n">
         <v>9</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G37" t="n">
         <v>2.54</v>
@@ -5401,7 +5401,7 @@
         <v>2.68</v>
       </c>
       <c r="I37" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -5425,7 +5425,7 @@
         <v>2.86</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R37" t="n">
         <v>1.76</v>
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="G39" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -5698,22 +5698,22 @@
         <v>1.48</v>
       </c>
       <c r="R39" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S39" t="n">
-        <v>1.55</v>
+        <v>2.12</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U39" t="n">
         <v>2.38</v>
       </c>
       <c r="V39" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5968,13 +5968,13 @@
         <v>1.37</v>
       </c>
       <c r="R41" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S41" t="n">
         <v>1.92</v>
       </c>
       <c r="T41" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U41" t="n">
         <v>2.14</v>
@@ -5986,7 +5986,7 @@
         <v>3.6</v>
       </c>
       <c r="X41" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y41" t="n">
         <v>60</v>
@@ -6001,7 +6001,7 @@
         <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="n">
         <v>44</v>
@@ -6019,13 +6019,13 @@
         <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
         <v>15</v>
       </c>
       <c r="AK41" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AL41" t="n">
         <v>34</v>
@@ -6034,7 +6034,7 @@
         <v>110</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO41" t="n">
         <v>120</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G42" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J42" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
         <v>4.6</v>
@@ -6118,7 +6118,7 @@
         <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="X42" t="n">
         <v>28</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="G43" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H43" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="I43" t="n">
         <v>3.6</v>
@@ -6217,7 +6217,7 @@
         <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L43" t="n">
         <v>1.3</v>
@@ -6232,7 +6232,7 @@
         <v>1.05</v>
       </c>
       <c r="P43" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q43" t="n">
         <v>1.88</v>
@@ -6250,10 +6250,10 @@
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W43" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G44" t="n">
         <v>2.84</v>
@@ -6370,7 +6370,7 @@
         <v>2.04</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="R44" t="n">
         <v>1.41</v>
@@ -6385,7 +6385,7 @@
         <v>2.26</v>
       </c>
       <c r="V44" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W44" t="n">
         <v>1.54</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G45" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J45" t="n">
         <v>2.94</v>
@@ -6490,28 +6490,28 @@
         <v>3.75</v>
       </c>
       <c r="L45" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="O45" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="P45" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="R45" t="n">
         <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="T45" t="n">
         <v>1.04</v>
@@ -6523,7 +6523,7 @@
         <v>1.17</v>
       </c>
       <c r="W45" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X45" t="n">
         <v>970</v>
@@ -6607,61 +6607,61 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="H46" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="J46" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K46" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V46" t="n">
         <v>1.41</v>
       </c>
-      <c r="M46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W46" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
         <v>1000</v>
@@ -6673,10 +6673,10 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6778,10 +6778,10 @@
         <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S47" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="T47" t="n">
         <v>1.04</v>
@@ -6877,31 +6877,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I48" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J48" t="n">
         <v>3.65</v>
       </c>
       <c r="K48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L48" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -6910,10 +6910,10 @@
         <v>2.22</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R48" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S48" t="n">
         <v>2.88</v>
@@ -6925,40 +6925,40 @@
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="W48" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X48" t="n">
         <v>17.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD48" t="n">
         <v>13</v>
       </c>
       <c r="AE48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
         <v>15</v>
@@ -6970,7 +6970,7 @@
         <v>36</v>
       </c>
       <c r="AK48" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL48" t="n">
         <v>34</v>
@@ -6979,7 +6979,7 @@
         <v>70</v>
       </c>
       <c r="AN48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO48" t="n">
         <v>22</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G49" t="n">
         <v>1.89</v>
@@ -7036,7 +7036,7 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O49" t="n">
         <v>1.34</v>
@@ -7147,58 +7147,58 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G50" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I50" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K50" t="n">
         <v>950</v>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P50" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="R50" t="n">
         <v>1.41</v>
       </c>
       <c r="S50" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T50" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U50" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V50" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="G51" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I51" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>1.09</v>
       </c>
       <c r="K51" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,34 +7306,34 @@
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O51" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P51" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="R51" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="S51" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="T51" t="n">
         <v>1.5</v>
       </c>
       <c r="U51" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="V51" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W51" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7342,7 +7342,7 @@
         <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
@@ -7372,10 +7372,10 @@
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AK51" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AL51" t="n">
         <v>1000</v>
@@ -7384,7 +7384,7 @@
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G52" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H52" t="n">
         <v>1.09</v>
@@ -7429,7 +7429,7 @@
         <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="K52" t="n">
         <v>950</v>
@@ -7558,7 +7558,7 @@
         <v>4.8</v>
       </c>
       <c r="H53" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="I53" t="n">
         <v>2.52</v>
@@ -7567,7 +7567,7 @@
         <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L53" t="n">
         <v>1.36</v>
@@ -7576,7 +7576,7 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
@@ -7600,10 +7600,10 @@
         <v>1.04</v>
       </c>
       <c r="V53" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W53" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H54" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="I54" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="J54" t="n">
         <v>3.65</v>
@@ -7723,7 +7723,7 @@
         <v>1.74</v>
       </c>
       <c r="R54" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S54" t="n">
         <v>2.82</v>
@@ -7735,10 +7735,10 @@
         <v>2.58</v>
       </c>
       <c r="V54" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W54" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="X54" t="n">
         <v>18</v>
@@ -7753,7 +7753,7 @@
         <v>42</v>
       </c>
       <c r="AB54" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC54" t="n">
         <v>8.4</v>
@@ -7765,7 +7765,7 @@
         <v>27</v>
       </c>
       <c r="AF54" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG54" t="n">
         <v>12</v>
@@ -7780,7 +7780,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL54" t="n">
         <v>34</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G55" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H55" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I55" t="n">
         <v>2.98</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.05</v>
       </c>
       <c r="J55" t="n">
         <v>3.1</v>
@@ -7843,7 +7843,7 @@
         <v>1.56</v>
       </c>
       <c r="M55" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N55" t="n">
         <v>2.92</v>
@@ -7855,7 +7855,7 @@
         <v>1.61</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R55" t="n">
         <v>1.22</v>
@@ -7870,13 +7870,13 @@
         <v>1.88</v>
       </c>
       <c r="V55" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W55" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -7891,7 +7891,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC55" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD55" t="n">
         <v>13.5</v>
@@ -7903,7 +7903,7 @@
         <v>16</v>
       </c>
       <c r="AG55" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH55" t="n">
         <v>22</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G56" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H56" t="n">
         <v>2.84</v>
       </c>
       <c r="I56" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J56" t="n">
         <v>3.4</v>
       </c>
       <c r="K56" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L56" t="n">
         <v>1.44</v>
@@ -7981,7 +7981,7 @@
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O56" t="n">
         <v>1.35</v>
@@ -7999,10 +7999,10 @@
         <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U56" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V56" t="n">
         <v>1.51</v>
@@ -8143,7 +8143,7 @@
         <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>2.78</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -712,7 +712,7 @@
         <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
@@ -721,7 +721,7 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>14.5</v>
@@ -748,7 +748,7 @@
         <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -814,13 +814,13 @@
         <v>2.34</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -832,7 +832,7 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>1.66</v>
@@ -841,22 +841,22 @@
         <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
         <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>14.5</v>
@@ -868,7 +868,7 @@
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -940,61 +940,61 @@
         <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
         <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
         <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
         <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>13.5</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1078,10 +1078,10 @@
         <v>1.24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
         <v>5.4</v>
@@ -1096,7 +1096,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1105,25 +1105,25 @@
         <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
         <v>2.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
         <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H7" t="n">
         <v>5.3</v>
@@ -1378,16 +1378,16 @@
         <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
         <v>1.06</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
         <v>3.3</v>
@@ -1630,28 +1630,28 @@
         <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
         <v>1.54</v>
@@ -1663,61 +1663,61 @@
         <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL9" t="n">
         <v>36</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>30</v>
-      </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
         <v>1.52</v>
       </c>
       <c r="H10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -1777,7 +1777,7 @@
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
         <v>1.71</v>
@@ -1786,13 +1786,13 @@
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
@@ -1801,58 +1801,58 @@
         <v>2.96</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA10" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
         <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
         <v>5.4</v>
@@ -1891,13 +1891,13 @@
         <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.38</v>
@@ -1906,31 +1906,31 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.52</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
         <v>1.23</v>
@@ -2017,61 +2017,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
         <v>7</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>1.98</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2182,16 +2182,16 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="T13" t="n">
         <v>1.04</v>
@@ -2200,7 +2200,7 @@
         <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W13" t="n">
         <v>1.3</v>
@@ -2290,10 +2290,10 @@
         <v>1.51</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
         <v>7.4</v>
@@ -2311,7 +2311,7 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2329,7 +2329,7 @@
         <v>2.52</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
@@ -2338,7 +2338,7 @@
         <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X14" t="n">
         <v>24</v>
@@ -2350,7 +2350,7 @@
         <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
@@ -2425,10 +2425,10 @@
         <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I15" t="n">
         <v>2.34</v>
@@ -2437,7 +2437,7 @@
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2446,25 +2446,25 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.18</v>
@@ -2473,61 +2473,61 @@
         <v>1.74</v>
       </c>
       <c r="W15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AO15" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>1.92</v>
       </c>
       <c r="I16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="J16" t="n">
         <v>3.9</v>
@@ -2587,7 +2587,7 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q16" t="n">
         <v>1.69</v>
@@ -2599,13 +2599,13 @@
         <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W16" t="n">
         <v>1.3</v>
@@ -2614,55 +2614,55 @@
         <v>25</v>
       </c>
       <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
         <v>100</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN16" t="n">
         <v>48</v>
       </c>
-      <c r="AM16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>40</v>
-      </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2722,7 +2722,7 @@
         <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
         <v>1.54</v>
@@ -2731,7 +2731,7 @@
         <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="T17" t="n">
         <v>1.55</v>
@@ -2740,10 +2740,10 @@
         <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2770,7 +2770,7 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG17" t="n">
         <v>13.5</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
         <v>2.24</v>
@@ -2839,7 +2839,7 @@
         <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -2851,25 +2851,25 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="n">
         <v>2.66</v>
@@ -2971,13 +2971,13 @@
         <v>1.94</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2989,22 +2989,22 @@
         <v>5.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
         <v>2.44</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>2.26</v>
@@ -3121,16 +3121,16 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
         <v>1.28</v>
@@ -3151,46 +3151,46 @@
         <v>1.29</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
         <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG20" t="n">
         <v>970</v>
       </c>
-      <c r="AD20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>20</v>
-      </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
         <v>80</v>
@@ -3199,10 +3199,10 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>1.63</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
@@ -3283,7 +3283,7 @@
         <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3376,46 +3376,46 @@
         <v>2.44</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
         <v>1.39</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>8.800000000000001</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
         <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X23" t="n">
         <v>970</v>
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
@@ -3670,10 +3670,10 @@
         <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
         <v>3.55</v>
@@ -3775,19 +3775,19 @@
         <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H25" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I25" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3796,13 +3796,13 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
         <v>2.24</v>
@@ -3814,16 +3814,16 @@
         <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V25" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X25" t="n">
         <v>970</v>
@@ -3931,16 +3931,16 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
         <v>1.2</v>
@@ -4042,109 +4042,109 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G27" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6</v>
       </c>
       <c r="L27" t="n">
         <v>1.32</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>1.05</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W27" t="n">
         <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,61 +4177,61 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="I28" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>2.16</v>
+        <v>2.62</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
         <v>1000</v>
@@ -4243,10 +4243,10 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4255,10 +4255,10 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4321,7 +4321,7 @@
         <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4336,19 +4336,19 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
         <v>1.94</v>
       </c>
       <c r="R29" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
         <v>3.35</v>
@@ -4360,19 +4360,19 @@
         <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W29" t="n">
         <v>2.58</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="n">
         <v>300</v>
@@ -4381,16 +4381,16 @@
         <v>9</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE29" t="n">
         <v>150</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -4402,13 +4402,13 @@
         <v>140</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
         <v>190</v>
@@ -4417,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -4447,106 +4447,106 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H30" t="n">
         <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J30" t="n">
         <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="U30" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y30" t="n">
         <v>13</v>
       </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
       <c r="Z30" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA30" t="n">
         <v>65</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AE30" t="n">
         <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
         <v>30</v>
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H31" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
         <v>3.05</v>
@@ -4612,19 +4612,19 @@
         <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q31" t="n">
         <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
         <v>1.96</v>
@@ -4633,61 +4633,61 @@
         <v>1.47</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA31" t="n">
         <v>65</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF31" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL31" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO31" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -4720,16 +4720,16 @@
         <v>2.9</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I32" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>3.3</v>
@@ -4738,10 +4738,10 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O32" t="n">
         <v>1.55</v>
@@ -4756,19 +4756,19 @@
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="T32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V32" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
         <v>9</v>
@@ -4822,7 +4822,7 @@
         <v>65</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -4855,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
@@ -4864,7 +4864,7 @@
         <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
@@ -4873,16 +4873,16 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O33" t="n">
         <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q33" t="n">
         <v>2.28</v>
@@ -4891,70 +4891,70 @@
         <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.98</v>
       </c>
       <c r="U33" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA33" t="n">
         <v>140</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
         <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4990,10 +4990,10 @@
         <v>3.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I34" t="n">
         <v>2.26</v>
@@ -5029,7 +5029,7 @@
         <v>2.8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U34" t="n">
         <v>2.36</v>
@@ -5038,31 +5038,31 @@
         <v>1.79</v>
       </c>
       <c r="W34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X34" t="n">
         <v>24</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AC34" t="n">
         <v>9.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>28</v>
@@ -5074,25 +5074,25 @@
         <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="n">
         <v>44</v>
       </c>
       <c r="AM34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -5113,109 +5113,109 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="G35" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>1.09</v>
       </c>
       <c r="I35" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="K35" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>4.9</v>
+        <v>2.78</v>
       </c>
       <c r="O35" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="P35" t="n">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="R35" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="S35" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="T35" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="U35" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5224,10 +5224,10 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G36" t="n">
         <v>1.81</v>
@@ -5269,7 +5269,7 @@
         <v>5.2</v>
       </c>
       <c r="J36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
         <v>4.7</v>
@@ -5281,7 +5281,7 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.19</v>
@@ -5290,31 +5290,31 @@
         <v>2.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S36" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="T36" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V36" t="n">
         <v>1.24</v>
       </c>
       <c r="W36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z36" t="n">
         <v>50</v>
@@ -5335,7 +5335,7 @@
         <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -5344,7 +5344,7 @@
         <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -5359,7 +5359,7 @@
         <v>85</v>
       </c>
       <c r="AN36" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5425,13 +5425,13 @@
         <v>2.86</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="R37" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S37" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="T37" t="n">
         <v>1.45</v>
@@ -5446,58 +5446,58 @@
         <v>1.64</v>
       </c>
       <c r="X37" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA37" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AB37" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE37" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG37" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM37" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="38">
@@ -5527,58 +5527,58 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J38" t="n">
         <v>4.9</v>
       </c>
       <c r="K38" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>2.84</v>
+        <v>7.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R38" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S38" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="T38" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="U38" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="V38" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5590,13 +5590,13 @@
         <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5605,22 +5605,22 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G39" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
         <v>4.6</v>
@@ -5677,7 +5677,7 @@
         <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L39" t="n">
         <v>1.27</v>
@@ -5686,88 +5686,88 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>2.32</v>
+        <v>5.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R39" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="S39" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="T39" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="U39" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="V39" t="n">
         <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="G40" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="J40" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.21</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.12</v>
-      </c>
       <c r="P40" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="S40" t="n">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="U40" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="V40" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="W40" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>1.3</v>
       </c>
       <c r="G41" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H41" t="n">
         <v>7.6</v>
@@ -5944,19 +5944,19 @@
         <v>12.5</v>
       </c>
       <c r="J41" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K41" t="n">
         <v>7.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O41" t="n">
         <v>1.12</v>
@@ -5965,10 +5965,10 @@
         <v>3.15</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="R41" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S41" t="n">
         <v>1.92</v>
@@ -5977,7 +5977,7 @@
         <v>1.7</v>
       </c>
       <c r="U41" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V41" t="n">
         <v>1.1</v>
@@ -5989,13 +5989,13 @@
         <v>48</v>
       </c>
       <c r="Y41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z41" t="n">
         <v>120</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB41" t="n">
         <v>970</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
         <v>3.95</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K42" t="n">
         <v>4.6</v>
@@ -6097,7 +6097,7 @@
         <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q42" t="n">
         <v>1.52</v>
@@ -6106,13 +6106,13 @@
         <v>1.62</v>
       </c>
       <c r="S42" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T42" t="n">
         <v>1.52</v>
       </c>
       <c r="U42" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V42" t="n">
         <v>1.35</v>
@@ -6121,13 +6121,13 @@
         <v>1.84</v>
       </c>
       <c r="X42" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y42" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z42" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="n">
         <v>75</v>
@@ -6142,7 +6142,7 @@
         <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF42" t="n">
         <v>970</v>
@@ -6154,16 +6154,16 @@
         <v>970</v>
       </c>
       <c r="AI42" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ42" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK42" t="n">
         <v>970</v>
       </c>
       <c r="AL42" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM42" t="n">
         <v>70</v>
@@ -6172,7 +6172,7 @@
         <v>970</v>
       </c>
       <c r="AO42" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -6244,7 +6244,7 @@
         <v>2.84</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="U43" t="n">
         <v>1.04</v>
@@ -6340,7 +6340,7 @@
         <v>2.6</v>
       </c>
       <c r="G44" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H44" t="n">
         <v>2.7</v>
@@ -6370,7 +6370,7 @@
         <v>2.04</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
         <v>1.41</v>
@@ -6382,67 +6382,67 @@
         <v>1.66</v>
       </c>
       <c r="U44" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V44" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W44" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
       </c>
       <c r="Y44" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z44" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA44" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AB44" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC44" t="n">
         <v>8.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF44" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG44" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ44" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AK44" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL44" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="n">
         <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -6463,85 +6463,85 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.78</v>
+        <v>2.54</v>
       </c>
       <c r="G45" t="n">
-        <v>2.26</v>
+        <v>2.92</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="J45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N45" t="n">
         <v>2.94</v>
       </c>
-      <c r="K45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.54</v>
-      </c>
       <c r="O45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W45" t="n">
         <v>1.52</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.79</v>
-      </c>
       <c r="X45" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC45" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD45" t="n">
         <v>1000</v>
@@ -6550,31 +6550,31 @@
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6598,85 +6598,85 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="G46" t="n">
-        <v>2.92</v>
+        <v>2.22</v>
       </c>
       <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
         <v>2.94</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>3.75</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N46" t="n">
         <v>2.7</v>
       </c>
-      <c r="K46" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.54</v>
-      </c>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P46" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="R46" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>3.45</v>
+        <v>2.84</v>
       </c>
       <c r="T46" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="W46" t="n">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6685,31 +6685,31 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6745,13 +6745,13 @@
         <v>1.45</v>
       </c>
       <c r="G47" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H47" t="n">
         <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J47" t="n">
         <v>4.1</v>
@@ -6766,7 +6766,7 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="O47" t="n">
         <v>1.21</v>
@@ -6778,22 +6778,22 @@
         <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S47" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T47" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U47" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
         <v>1.13</v>
       </c>
       <c r="W47" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X47" t="n">
         <v>29</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H48" t="n">
         <v>3.05</v>
@@ -6892,7 +6892,7 @@
         <v>3.65</v>
       </c>
       <c r="K48" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L48" t="n">
         <v>1.33</v>
@@ -6910,7 +6910,7 @@
         <v>2.22</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R48" t="n">
         <v>1.5</v>
@@ -6925,7 +6925,7 @@
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W48" t="n">
         <v>1.66</v>
@@ -7015,13 +7015,13 @@
         <v>1.73</v>
       </c>
       <c r="G49" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H49" t="n">
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J49" t="n">
         <v>3.5</v>
@@ -7036,7 +7036,7 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="n">
         <v>1.34</v>
@@ -7060,7 +7060,7 @@
         <v>1.9</v>
       </c>
       <c r="V49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W49" t="n">
         <v>2.12</v>
@@ -7069,52 +7069,52 @@
         <v>16</v>
       </c>
       <c r="Y49" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Z49" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA49" t="n">
         <v>180</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE49" t="n">
         <v>100</v>
       </c>
       <c r="AF49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG49" t="n">
         <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI49" t="n">
         <v>100</v>
       </c>
       <c r="AJ49" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK49" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL49" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM49" t="n">
         <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AO49" t="n">
         <v>130</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H50" t="n">
         <v>4.3</v>
       </c>
       <c r="I50" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K50" t="n">
         <v>6.2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>950</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7174,31 +7174,31 @@
         <v>3.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="R50" t="n">
         <v>1.41</v>
       </c>
       <c r="S50" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T50" t="n">
         <v>1.71</v>
       </c>
       <c r="U50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V50" t="n">
         <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="G51" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H51" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.09</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,49 +7306,49 @@
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P51" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R51" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="S51" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="T51" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U51" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="V51" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W51" t="n">
         <v>2.06</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z51" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC51" t="n">
         <v>13.5</v>
@@ -7357,37 +7357,37 @@
         <v>22</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ51" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,43 +7552,43 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="I53" t="n">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K53" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L53" t="n">
         <v>1.36</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="O53" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P53" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R53" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S53" t="n">
         <v>2.74</v>
@@ -7600,10 +7600,10 @@
         <v>1.04</v>
       </c>
       <c r="V53" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="W53" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G54" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H54" t="n">
         <v>2.74</v>
       </c>
       <c r="I54" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J54" t="n">
         <v>3.65</v>
@@ -7723,7 +7723,7 @@
         <v>1.74</v>
       </c>
       <c r="R54" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S54" t="n">
         <v>2.82</v>
@@ -7738,13 +7738,13 @@
         <v>1.56</v>
       </c>
       <c r="W54" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X54" t="n">
         <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z54" t="n">
         <v>20</v>
@@ -7753,13 +7753,13 @@
         <v>42</v>
       </c>
       <c r="AB54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC54" t="n">
         <v>8.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE54" t="n">
         <v>27</v>
@@ -7825,13 +7825,13 @@
         <v>2.88</v>
       </c>
       <c r="G55" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I55" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>3.1</v>
@@ -7843,10 +7843,10 @@
         <v>1.56</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N55" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O55" t="n">
         <v>1.5</v>
@@ -7867,7 +7867,7 @@
         <v>2.06</v>
       </c>
       <c r="U55" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V55" t="n">
         <v>1.5</v>
@@ -7876,7 +7876,7 @@
         <v>1.52</v>
       </c>
       <c r="X55" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -7960,13 +7960,13 @@
         <v>2.72</v>
       </c>
       <c r="G56" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H56" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I56" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J56" t="n">
         <v>3.4</v>
@@ -7987,16 +7987,16 @@
         <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q56" t="n">
         <v>2.04</v>
       </c>
       <c r="R56" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S56" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T56" t="n">
         <v>1.78</v>
@@ -8020,7 +8020,7 @@
         <v>20</v>
       </c>
       <c r="AA56" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB56" t="n">
         <v>10.5</v>
@@ -8032,171 +8032,306 @@
         <v>13.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF56" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG56" t="n">
         <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ56" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK56" t="n">
         <v>34</v>
       </c>
       <c r="AL56" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM56" t="n">
         <v>130</v>
       </c>
       <c r="AN56" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO56" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K57" t="n">
+        <v>950</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Deportivo Cuenca</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Delfin</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F58" t="n">
         <v>1.04</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G58" t="n">
         <v>1.51</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H58" t="n">
         <v>1.04</v>
       </c>
-      <c r="I57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="I58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J58" t="n">
         <v>4.4</v>
       </c>
-      <c r="K57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="K58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L58" t="n">
         <v>1.01</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M58" t="n">
         <v>1.01</v>
       </c>
-      <c r="N57" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="N58" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O58" t="n">
         <v>1.3</v>
       </c>
-      <c r="P57" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q57" t="n">
+      <c r="P58" t="n">
         <v>1.76</v>
       </c>
-      <c r="R57" t="n">
+      <c r="Q58" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R58" t="n">
         <v>1.18</v>
       </c>
-      <c r="S57" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T57" t="n">
+      <c r="S58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T58" t="n">
         <v>1.01</v>
       </c>
-      <c r="U57" t="n">
+      <c r="U58" t="n">
         <v>1.01</v>
       </c>
-      <c r="V57" t="n">
+      <c r="V58" t="n">
         <v>1.01</v>
       </c>
-      <c r="W57" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO57" t="n">
+      <c r="W58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,10 +703,10 @@
         <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.63</v>
@@ -823,7 +823,7 @@
         <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>5.1</v>
@@ -832,22 +832,22 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
         <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
         <v>1.75</v>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H4" t="n">
         <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.26</v>
@@ -979,16 +979,16 @@
         <v>2.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1081,13 +1081,13 @@
         <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1096,34 +1096,34 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
         <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>8.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.04</v>
       </c>
-      <c r="G6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.03</v>
-      </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1348,16 +1348,16 @@
         <v>1.54</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1369,7 +1369,7 @@
         <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
         <v>2.16</v>
@@ -1387,10 +1387,10 @@
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
         <v>2.8</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WSC Hertha Wels</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="G8" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.3</v>
@@ -1501,94 +1501,94 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.12</v>
+        <v>2.9</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>970</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rapid Vienna (Am)</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bregenz</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>1.98</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.52</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X10" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.92</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>2.76</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.199999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>12.5</v>
+        <v>2.46</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.47</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>18</v>
       </c>
-      <c r="Y12" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,67 +2143,67 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>WSC Hertha Wels</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.98</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.58</v>
+        <v>6.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="O13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.21</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.64</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.51</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1.52</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>1.92</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>2.36</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.04</v>
       </c>
-      <c r="N14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>2.9</v>
+        <v>1.23</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
         <v>2.34</v>
@@ -2452,7 +2452,7 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" t="n">
         <v>1.92</v>
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
         <v>17</v>
@@ -2506,7 +2506,7 @@
         <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>46</v>
@@ -2602,7 +2602,7 @@
         <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
         <v>2.02</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.01</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.54</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.66</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>27</v>
-      </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="I19" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="W20" t="n">
         <v>1.32</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
         <v>15</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>3.55</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>1.97</v>
       </c>
       <c r="I21" t="n">
-        <v>7.8</v>
+        <v>2.26</v>
       </c>
       <c r="J21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
         <v>3.15</v>
       </c>
-      <c r="K21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.44</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -3358,73 +3358,73 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>1.63</v>
       </c>
       <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.55</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.95</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>2.42</v>
       </c>
       <c r="I23" t="n">
-        <v>6.6</v>
+        <v>2.72</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.38</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X23" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3628,67 +3628,67 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.98</v>
+        <v>1.77</v>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>2.12</v>
       </c>
       <c r="H24" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.76</v>
+        <v>6.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
         <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.32</v>
+        <v>1.89</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3763,103 +3763,103 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
         <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="W25" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="X25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,55 +3898,55 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.82</v>
+        <v>1.93</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>2.34</v>
       </c>
       <c r="J26" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.58</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
         <v>1.04</v>
@@ -3955,64 +3955,64 @@
         <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="X26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,118 +4033,118 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>2.92</v>
       </c>
       <c r="H27" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S27" t="n">
         <v>3.55</v>
       </c>
-      <c r="K27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="T27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.32</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,118 +4168,118 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="H28" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="G29" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H29" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W29" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>1.62</v>
       </c>
       <c r="G30" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>7.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>1.64</v>
+        <v>2.58</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AE30" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AN30" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="G31" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U31" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG31" t="n">
         <v>12</v>
       </c>
-      <c r="AC31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15</v>
-      </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI31" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AK31" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="G32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I32" t="n">
         <v>3.1</v>
       </c>
-      <c r="H32" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.92</v>
-      </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="U32" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="W32" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC32" t="n">
         <v>9</v>
       </c>
-      <c r="Y32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA32" t="n">
+      <c r="AD32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>55</v>
       </c>
-      <c r="AB32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>60</v>
-      </c>
       <c r="AK32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO32" t="n">
         <v>50</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="G33" t="n">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>2.92</v>
       </c>
       <c r="J33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P33" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="W33" t="n">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF33" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AL33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN33" t="n">
         <v>60</v>
       </c>
-      <c r="AM33" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>27</v>
-      </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.4</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.26</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="V34" t="n">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="X34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="n">
         <v>24</v>
       </c>
-      <c r="Y34" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN34" t="n">
         <v>26</v>
       </c>
-      <c r="AF34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>36</v>
-      </c>
       <c r="AO34" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="G35" t="n">
-        <v>1.63</v>
+        <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>1.09</v>
+        <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>2.26</v>
       </c>
       <c r="J35" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>2.78</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="P35" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.92</v>
+        <v>2.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="U35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.11</v>
+        <v>1.79</v>
       </c>
       <c r="W35" t="n">
-        <v>2.58</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G36" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K36" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S36" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U36" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W36" t="n">
         <v>2.32</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X36" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y36" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA36" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE36" t="n">
         <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S37" t="n">
         <v>2.32</v>
       </c>
-      <c r="G37" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="T37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.24</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.51</v>
-      </c>
       <c r="W37" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="X37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Y37" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI37" t="n">
         <v>55</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AJ37" t="n">
         <v>23</v>
       </c>
-      <c r="AC37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>42</v>
-      </c>
       <c r="AK37" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO37" t="n">
         <v>55</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="G38" t="n">
-        <v>1.61</v>
+        <v>2.54</v>
       </c>
       <c r="H38" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="I38" t="n">
-        <v>7.2</v>
+        <v>2.96</v>
       </c>
       <c r="J38" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P38" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R38" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="T38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.51</v>
       </c>
-      <c r="U38" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.16</v>
-      </c>
       <c r="W38" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA38" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AB38" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO38" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5653,55 +5653,55 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="P39" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="R39" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="S39" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="T39" t="n">
         <v>1.52</v>
@@ -5710,64 +5710,64 @@
         <v>2.52</v>
       </c>
       <c r="V39" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="X39" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AB39" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG39" t="n">
         <v>13.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="G40" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K40" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="O40" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="S40" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="T40" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="U40" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="W40" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y40" t="n">
         <v>28</v>
       </c>
       <c r="Z40" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE40" t="n">
         <v>55</v>
       </c>
-      <c r="AA40" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF40" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK40" t="n">
         <v>22</v>
       </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>20</v>
-      </c>
       <c r="AL40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO40" t="n">
         <v>36</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="G41" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="H41" t="n">
-        <v>7.6</v>
+        <v>1.09</v>
       </c>
       <c r="I41" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="K41" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>7.2</v>
+        <v>2.78</v>
       </c>
       <c r="O41" t="n">
         <v>1.12</v>
       </c>
       <c r="P41" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="Q41" t="n">
         <v>1.33</v>
       </c>
       <c r="R41" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="S41" t="n">
         <v>1.92</v>
       </c>
       <c r="T41" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="U41" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="V41" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W41" t="n">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="X41" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,126 +6053,126 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="G42" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>7.6</v>
       </c>
       <c r="I42" t="n">
-        <v>3.95</v>
+        <v>12.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="K42" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="S42" t="n">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="T42" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="U42" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="V42" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="W42" t="n">
-        <v>1.84</v>
+        <v>3.6</v>
       </c>
       <c r="X42" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Y42" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="Z42" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AA42" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AB42" t="n">
         <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AE42" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AG42" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH42" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK42" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN42" t="n">
-        <v>970</v>
+        <v>4.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="G43" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="H43" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -6232,7 +6232,7 @@
         <v>1.05</v>
       </c>
       <c r="P43" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q43" t="n">
         <v>1.88</v>
@@ -6244,16 +6244,16 @@
         <v>2.84</v>
       </c>
       <c r="T43" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="U43" t="n">
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,123 +6323,123 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="G44" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="H44" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="I44" t="n">
-        <v>2.94</v>
+        <v>3.95</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K44" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="R44" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="T44" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="U44" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="V44" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="W44" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Y44" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Z44" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AA44" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB44" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD44" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF44" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ44" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AK44" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN44" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AO44" t="n">
         <v>28</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G45" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="H45" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I45" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>2.94</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="P45" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q45" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.86</v>
-      </c>
       <c r="U45" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="V45" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="W45" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="X45" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB45" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -6598,85 +6598,85 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="G46" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O46" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="P46" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="R46" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V46" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="W46" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="X46" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6685,31 +6685,31 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,73 +6733,73 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="G47" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="H47" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="K47" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="O47" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="P47" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.54</v>
+        <v>2.44</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W47" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="X47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6808,37 +6808,37 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="G48" t="n">
-        <v>2.52</v>
+        <v>1.69</v>
       </c>
       <c r="H48" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>4.6</v>
+        <v>2.22</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P48" t="n">
         <v>2.22</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
-        <v>2.88</v>
+        <v>2.34</v>
       </c>
       <c r="T48" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="V48" t="n">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>1.66</v>
+        <v>2.42</v>
       </c>
       <c r="X48" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="G49" t="n">
-        <v>1.88</v>
+        <v>2.52</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="I49" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K49" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L49" t="n">
         <v>1.33</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="R49" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="T49" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="U49" t="n">
-        <v>1.9</v>
+        <v>2.46</v>
       </c>
       <c r="V49" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="W49" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="X49" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN49" t="n">
         <v>16</v>
       </c>
-      <c r="Y49" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AO49" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,121 +7138,121 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="G50" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H50" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K50" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P50" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="S50" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="U50" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V50" t="n">
         <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -7273,121 +7273,121 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="G51" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H51" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.5</v>
       </c>
-      <c r="I51" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>2.68</v>
+        <v>1.99</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="R51" t="n">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="S51" t="n">
-        <v>2.16</v>
+        <v>2.62</v>
       </c>
       <c r="T51" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="U51" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="V51" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X51" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC51" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI51" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7408,121 +7408,121 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="G52" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P52" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -7543,127 +7543,127 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.1</v>
+        <v>1.26</v>
       </c>
       <c r="G53" t="n">
-        <v>6.2</v>
+        <v>1.41</v>
       </c>
       <c r="H53" t="n">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="I53" t="n">
-        <v>1.95</v>
+        <v>1000</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="K53" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L53" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="R53" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.68</v>
+        <v>3.6</v>
       </c>
       <c r="G54" t="n">
-        <v>2.72</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>2.74</v>
+        <v>1.81</v>
       </c>
       <c r="I54" t="n">
-        <v>2.78</v>
+        <v>2.12</v>
       </c>
       <c r="J54" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L54" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4.8</v>
+        <v>2.66</v>
       </c>
       <c r="O54" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="P54" t="n">
-        <v>2.28</v>
+        <v>1.64</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="R54" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="S54" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="T54" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="U54" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="W54" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="X54" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H55" t="n">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="J55" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="L55" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="M55" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="P55" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T55" t="n">
         <v>1.61</v>
       </c>
-      <c r="Q55" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T55" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U55" t="n">
-        <v>1.87</v>
+        <v>2.52</v>
       </c>
       <c r="V55" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W55" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X55" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="Y55" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Z55" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC55" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AD55" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AF55" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM55" t="n">
         <v>65</v>
       </c>
-      <c r="AJ55" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>160</v>
-      </c>
       <c r="AN55" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,132 +7943,132 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="G56" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="H56" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="I56" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N56" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="O56" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="P56" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="R56" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="S56" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U56" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="V56" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W56" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="X56" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y56" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB56" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD56" t="n">
         <v>13.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF56" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI56" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ56" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK56" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AM56" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN56" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AO56" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,260 +8078,395 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.24</v>
+        <v>2.72</v>
       </c>
       <c r="G57" t="n">
-        <v>1.92</v>
+        <v>2.82</v>
       </c>
       <c r="H57" t="n">
-        <v>4.4</v>
+        <v>2.82</v>
       </c>
       <c r="I57" t="n">
-        <v>5.4</v>
+        <v>2.92</v>
       </c>
       <c r="J57" t="n">
-        <v>1.24</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="O57" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Deportivo Cuenca</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Delfin</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F59" t="n">
         <v>1.04</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G59" t="n">
         <v>1.51</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H59" t="n">
         <v>1.04</v>
       </c>
-      <c r="I58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J58" t="n">
+      <c r="I59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J59" t="n">
         <v>4.4</v>
       </c>
-      <c r="K58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="K59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L59" t="n">
         <v>1.01</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M59" t="n">
         <v>1.01</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P59" t="n">
         <v>1.76</v>
       </c>
-      <c r="O58" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q58" t="n">
+      <c r="Q59" t="n">
         <v>1.77</v>
       </c>
-      <c r="R58" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S58" t="n">
+      <c r="R59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S59" t="n">
         <v>2.84</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V59" t="n">
         <v>1.01</v>
       </c>
-      <c r="U58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W58" t="n">
+      <c r="W59" t="n">
         <v>2.8</v>
       </c>
-      <c r="X58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO58" t="n">
+      <c r="X59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO59" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -670,7 +670,7 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
         <v>2.78</v>
@@ -697,13 +697,13 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
         <v>2.8</v>
@@ -721,7 +721,7 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>14.5</v>
@@ -766,13 +766,13 @@
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         <v>2.34</v>
       </c>
       <c r="J3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.27</v>
@@ -826,37 +826,37 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
@@ -898,16 +898,16 @@
         <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -967,16 +967,16 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
         <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
         <v>1.82</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="G5" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1096,34 +1096,34 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
         <v>1.54</v>
@@ -1354,10 +1354,10 @@
         <v>16.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,13 +1372,13 @@
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
         <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
         <v>2.2</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -1501,34 +1501,34 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
         <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1543,10 +1543,10 @@
         <v>210</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
         <v>26</v>
@@ -1555,10 +1555,10 @@
         <v>95</v>
       </c>
       <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1567,19 +1567,19 @@
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK8" t="n">
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
         <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO8" t="n">
         <v>90</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I9" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1642,16 +1642,16 @@
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G10" t="n">
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
         <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
         <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W10" t="n">
         <v>1.09</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1909,10 +1909,10 @@
         <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -1921,19 +1921,19 @@
         <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="X11" t="n">
         <v>20</v>
@@ -1978,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
         <v>150</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
         <v>2.46</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
         <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
@@ -2047,13 +2047,13 @@
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>2.44</v>
@@ -2062,7 +2062,7 @@
         <v>1.54</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V12" t="n">
         <v>1.44</v>
@@ -2101,7 +2101,7 @@
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
@@ -2173,37 +2173,37 @@
         <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O13" t="n">
         <v>1.04</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
         <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2320,7 +2320,7 @@
         <v>1.54</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
         <v>1.22</v>
@@ -2332,7 +2332,7 @@
         <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
         <v>1.73</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.34</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2455,10 +2455,10 @@
         <v>1.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S15" t="n">
         <v>3.35</v>
@@ -2467,34 +2467,34 @@
         <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA15" t="n">
         <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>30</v>
@@ -2503,13 +2503,13 @@
         <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
         <v>80</v>
@@ -2524,10 +2524,10 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -2560,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I16" t="n">
         <v>1.98</v>
@@ -2599,7 +2599,7 @@
         <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
         <v>2.34</v>
@@ -2608,7 +2608,7 @@
         <v>2.02</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X16" t="n">
         <v>25</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,10 +2857,10 @@
         <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R18" t="n">
         <v>1.61</v>
@@ -2869,19 +2869,19 @@
         <v>2.34</v>
       </c>
       <c r="T18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="W18" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2893,25 +2893,25 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G19" t="n">
         <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -2989,16 +2989,16 @@
         <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
         <v>2.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
         <v>2.56</v>
@@ -3007,19 +3007,19 @@
         <v>1.57</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
         <v>17</v>
@@ -3046,16 +3046,16 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
@@ -3064,7 +3064,7 @@
         <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>11.5</v>
@@ -3109,10 +3109,10 @@
         <v>1.99</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.29</v>
@@ -3124,37 +3124,37 @@
         <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
         <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
         <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
         <v>15</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
         <v>2.26</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -3262,10 +3262,10 @@
         <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
         <v>1.28</v>
@@ -3274,25 +3274,25 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
         <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
         <v>34</v>
@@ -3301,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3379,10 +3379,10 @@
         <v>7.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3397,7 +3397,7 @@
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
         <v>2.04</v>
@@ -3412,7 +3412,7 @@
         <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
         <v>1.16</v>
@@ -3520,25 +3520,25 @@
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
         <v>3.95</v>
@@ -3547,7 +3547,7 @@
         <v>1.9</v>
       </c>
       <c r="U23" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
         <v>1.58</v>
@@ -3571,10 +3571,10 @@
         <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G24" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
         <v>6.6</v>
@@ -3679,16 +3679,16 @@
         <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W24" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3781,7 +3781,7 @@
         <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
@@ -3802,7 +3802,7 @@
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
         <v>1.95</v>
@@ -3820,7 +3820,7 @@
         <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W25" t="n">
         <v>1.32</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G26" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="I26" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
@@ -3937,28 +3937,28 @@
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T26" t="n">
         <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V26" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W26" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3982,7 +3982,7 @@
         <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
         <v>1000</v>
@@ -4045,55 +4045,55 @@
         <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
         <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
         <v>3.55</v>
       </c>
       <c r="T27" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
         <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
         <v>1.86</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
@@ -4207,25 +4207,25 @@
         <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
         <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
         <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
         <v>1.01</v>
@@ -4252,7 +4252,7 @@
         <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>13</v>
@@ -4261,7 +4261,7 @@
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G29" t="n">
         <v>1.61</v>
       </c>
       <c r="H29" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K29" t="n">
         <v>4.4</v>
@@ -4333,16 +4333,16 @@
         <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
         <v>2.1</v>
@@ -4354,13 +4354,13 @@
         <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="V29" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W29" t="n">
         <v>2.62</v>
@@ -4378,7 +4378,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC29" t="n">
         <v>1000</v>
@@ -4453,7 +4453,7 @@
         <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I30" t="n">
         <v>7.6</v>
@@ -4465,7 +4465,7 @@
         <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4507,10 +4507,10 @@
         <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB30" t="n">
         <v>8</v>
@@ -4528,19 +4528,19 @@
         <v>10.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
         <v>15.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>42</v>
@@ -4549,7 +4549,7 @@
         <v>190</v>
       </c>
       <c r="AN30" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>210</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G31" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
         <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.45</v>
@@ -4612,7 +4612,7 @@
         <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q31" t="n">
         <v>2.14</v>
@@ -4621,7 +4621,7 @@
         <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
         <v>1.87</v>
@@ -4633,16 +4633,16 @@
         <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
         <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
         <v>60</v>
@@ -4651,7 +4651,7 @@
         <v>9.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
         <v>14.5</v>
@@ -4660,31 +4660,31 @@
         <v>42</v>
       </c>
       <c r="AF31" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
         <v>44</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H32" t="n">
         <v>2.86</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.84</v>
       </c>
       <c r="I32" t="n">
         <v>3.1</v>
@@ -4744,7 +4744,7 @@
         <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
         <v>1.7</v>
@@ -4753,22 +4753,22 @@
         <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V32" t="n">
         <v>1.47</v>
       </c>
       <c r="W32" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -4780,19 +4780,19 @@
         <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB32" t="n">
         <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
         <v>16.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -4804,13 +4804,13 @@
         <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="n">
         <v>55</v>
@@ -4819,7 +4819,7 @@
         <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
         <v>50</v>
@@ -4867,7 +4867,7 @@
         <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -5002,7 +5002,7 @@
         <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,28 +5011,28 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O34" t="n">
         <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
         <v>1.28</v>
@@ -5059,7 +5059,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5068,7 +5068,7 @@
         <v>14.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH34" t="n">
         <v>24</v>
@@ -5083,13 +5083,13 @@
         <v>32</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>190</v>
       </c>
       <c r="AN34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G35" t="n">
         <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I35" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -5149,49 +5149,49 @@
         <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q35" t="n">
         <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S35" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T35" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="U35" t="n">
         <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA35" t="n">
         <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
         <v>13.5</v>
@@ -5224,7 +5224,7 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO35" t="n">
         <v>13.5</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G36" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H36" t="n">
         <v>4.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J36" t="n">
         <v>4.1</v>
@@ -5290,7 +5290,7 @@
         <v>2.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
         <v>1.55</v>
@@ -5305,16 +5305,16 @@
         <v>2.24</v>
       </c>
       <c r="V36" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W36" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X36" t="n">
         <v>24</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
         <v>55</v>
@@ -5332,16 +5332,16 @@
         <v>22</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5350,7 +5350,7 @@
         <v>18.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="n">
         <v>36</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G37" t="n">
         <v>1.82</v>
@@ -5437,7 +5437,7 @@
         <v>1.63</v>
       </c>
       <c r="U37" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V37" t="n">
         <v>1.24</v>
@@ -5446,58 +5446,58 @@
         <v>2.2</v>
       </c>
       <c r="X37" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y37" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z37" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA37" t="n">
         <v>120</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI37" t="n">
         <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO37" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G38" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H38" t="n">
         <v>2.68</v>
@@ -5632,7 +5632,7 @@
         <v>13</v>
       </c>
       <c r="AO38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -5665,7 +5665,7 @@
         <v>1.52</v>
       </c>
       <c r="G39" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>5.4</v>
@@ -5680,7 +5680,7 @@
         <v>5.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
@@ -5707,7 +5707,7 @@
         <v>1.52</v>
       </c>
       <c r="U39" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V39" t="n">
         <v>1.16</v>
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
@@ -5821,7 +5821,7 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.17</v>
@@ -5833,31 +5833,31 @@
         <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S40" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="T40" t="n">
         <v>1.52</v>
       </c>
       <c r="U40" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V40" t="n">
         <v>1.27</v>
       </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA40" t="n">
         <v>95</v>
@@ -5869,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="AD40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE40" t="n">
         <v>55</v>
@@ -5896,13 +5896,13 @@
         <v>32</v>
       </c>
       <c r="AM40" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO40" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -5938,7 +5938,7 @@
         <v>1.63</v>
       </c>
       <c r="H41" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I41" t="n">
         <v>10</v>
@@ -5950,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -5974,16 +5974,16 @@
         <v>1.92</v>
       </c>
       <c r="T41" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U41" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V41" t="n">
         <v>1.11</v>
       </c>
       <c r="W41" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6085,7 +6085,7 @@
         <v>7.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M42" t="n">
         <v>1.02</v>
@@ -6097,7 +6097,7 @@
         <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q42" t="n">
         <v>1.33</v>
@@ -6106,7 +6106,7 @@
         <v>1.89</v>
       </c>
       <c r="S42" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="T42" t="n">
         <v>1.7</v>
@@ -6124,7 +6124,7 @@
         <v>48</v>
       </c>
       <c r="Y42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z42" t="n">
         <v>120</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G43" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H43" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J43" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.25</v>
       </c>
       <c r="K43" t="n">
         <v>3.8</v>
@@ -6226,13 +6226,13 @@
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O43" t="n">
         <v>1.05</v>
       </c>
       <c r="P43" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q43" t="n">
         <v>1.88</v>
@@ -6244,16 +6244,16 @@
         <v>2.84</v>
       </c>
       <c r="T43" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="n">
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W43" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G44" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H44" t="n">
         <v>3.35</v>
@@ -6385,19 +6385,19 @@
         <v>2.52</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W44" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X44" t="n">
         <v>32</v>
       </c>
       <c r="Y44" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z44" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA44" t="n">
         <v>75</v>
@@ -6406,13 +6406,13 @@
         <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AD44" t="n">
         <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="n">
         <v>970</v>
@@ -6424,7 +6424,7 @@
         <v>970</v>
       </c>
       <c r="AI44" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="n">
         <v>30</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G45" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H45" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I45" t="n">
         <v>2.96</v>
@@ -6511,10 +6511,10 @@
         <v>1.41</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T45" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U45" t="n">
         <v>2.28</v>
@@ -6523,10 +6523,10 @@
         <v>1.51</v>
       </c>
       <c r="W45" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X45" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y45" t="n">
         <v>16</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G46" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="H46" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
         <v>1.42</v>
@@ -6631,16 +6631,16 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="O46" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R46" t="n">
         <v>1.25</v>
@@ -6652,16 +6652,16 @@
         <v>1.86</v>
       </c>
       <c r="U46" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V46" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W46" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
         <v>1000</v>
@@ -6673,7 +6673,7 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
         <v>1000</v>
@@ -6685,7 +6685,7 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
         <v>1000</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="G47" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H47" t="n">
         <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J47" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K47" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="L47" t="n">
         <v>1.48</v>
@@ -6766,22 +6766,22 @@
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="O47" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="R47" t="n">
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>2.84</v>
+        <v>1.05</v>
       </c>
       <c r="T47" t="n">
         <v>1.04</v>
@@ -6790,10 +6790,10 @@
         <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W47" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6919,10 +6919,10 @@
         <v>2.34</v>
       </c>
       <c r="T48" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="U48" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V48" t="n">
         <v>1.13</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G49" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H49" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="I49" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J49" t="n">
         <v>3.65</v>
@@ -7051,19 +7051,19 @@
         <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T49" t="n">
         <v>1.63</v>
       </c>
       <c r="U49" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V49" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W49" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="X49" t="n">
         <v>17.5</v>
@@ -7072,13 +7072,13 @@
         <v>15</v>
       </c>
       <c r="Z49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB49" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC49" t="n">
         <v>8.4</v>
@@ -7087,13 +7087,13 @@
         <v>13</v>
       </c>
       <c r="AE49" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
         <v>15</v>
@@ -7111,13 +7111,13 @@
         <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G50" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I50" t="n">
         <v>6.2</v>
@@ -7162,7 +7162,7 @@
         <v>3.5</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -7171,7 +7171,7 @@
         <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O50" t="n">
         <v>1.34</v>
@@ -7198,7 +7198,7 @@
         <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="X50" t="n">
         <v>16</v>
@@ -7225,7 +7225,7 @@
         <v>100</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG50" t="n">
         <v>10.5</v>
@@ -7237,7 +7237,7 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK50" t="n">
         <v>25</v>
@@ -7249,7 +7249,7 @@
         <v>160</v>
       </c>
       <c r="AN50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO50" t="n">
         <v>130</v>
@@ -7282,25 +7282,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G51" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="H51" t="n">
         <v>4.3</v>
       </c>
       <c r="I51" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -7321,7 +7321,7 @@
         <v>1.41</v>
       </c>
       <c r="S51" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T51" t="n">
         <v>1.71</v>
@@ -7330,10 +7330,10 @@
         <v>2.06</v>
       </c>
       <c r="V51" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W51" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J52" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
         <v>4.9</v>
@@ -7438,7 +7438,7 @@
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
         <v>6</v>
@@ -7447,7 +7447,7 @@
         <v>1.16</v>
       </c>
       <c r="P52" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="Q52" t="n">
         <v>1.47</v>
@@ -7462,16 +7462,16 @@
         <v>1.52</v>
       </c>
       <c r="U52" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V52" t="n">
         <v>1.29</v>
       </c>
       <c r="W52" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X52" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y52" t="n">
         <v>27</v>
@@ -7690,7 +7690,7 @@
         <v>3.6</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H54" t="n">
         <v>1.81</v>
@@ -7702,7 +7702,7 @@
         <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="L54" t="n">
         <v>1.36</v>
@@ -7711,7 +7711,7 @@
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O54" t="n">
         <v>1.06</v>
@@ -7822,19 +7822,19 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G55" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H55" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I55" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K55" t="n">
         <v>3.75</v>
@@ -7861,19 +7861,19 @@
         <v>1.51</v>
       </c>
       <c r="S55" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T55" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U55" t="n">
         <v>2.52</v>
       </c>
       <c r="V55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W55" t="n">
         <v>1.58</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.55</v>
       </c>
       <c r="X55" t="n">
         <v>18</v>
@@ -7882,10 +7882,10 @@
         <v>14</v>
       </c>
       <c r="Z55" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="n">
         <v>14</v>
@@ -7897,10 +7897,10 @@
         <v>12.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF55" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG55" t="n">
         <v>12.5</v>
@@ -7915,7 +7915,7 @@
         <v>44</v>
       </c>
       <c r="AK55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL55" t="n">
         <v>36</v>
@@ -7924,7 +7924,7 @@
         <v>65</v>
       </c>
       <c r="AN55" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO55" t="n">
         <v>18</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G56" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H56" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J56" t="n">
         <v>3.1</v>
@@ -8002,13 +8002,13 @@
         <v>2.06</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V56" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W56" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X56" t="n">
         <v>9.199999999999999</v>
@@ -8119,22 +8119,22 @@
         <v>3.55</v>
       </c>
       <c r="O57" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R57" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S57" t="n">
         <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U57" t="n">
         <v>2.12</v>
@@ -8143,10 +8143,10 @@
         <v>1.52</v>
       </c>
       <c r="W57" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X57" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y57" t="n">
         <v>11.5</v>
@@ -8155,7 +8155,7 @@
         <v>20</v>
       </c>
       <c r="AA57" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB57" t="n">
         <v>11</v>
@@ -8167,7 +8167,7 @@
         <v>13</v>
       </c>
       <c r="AE57" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF57" t="n">
         <v>21</v>
@@ -8386,7 +8386,7 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -8395,10 +8395,10 @@
         <v>1.76</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R59" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S59" t="n">
         <v>2.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,13 +676,13 @@
         <v>2.78</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
@@ -721,7 +721,7 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>14.5</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
         <v>19.5</v>
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>38</v>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
         <v>3.2</v>
@@ -826,28 +826,28 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
         <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V3" t="n">
         <v>1.74</v>
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -880,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -904,10 +904,10 @@
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G4" t="n">
         <v>1.56</v>
@@ -949,7 +949,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>5.2</v>
@@ -967,10 +967,10 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>1.5</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13.5</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="H5" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="K5" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="U5" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="V5" t="n">
         <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chindia Targoviste</t>
+          <t>Karpaty</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.32</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>1.37</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Chindia Targoviste</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>9.6</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>1.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1390,10 +1390,10 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="G8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.52</v>
       </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.04</v>
       </c>
-      <c r="N8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="W8" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.98</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>1.99</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.52</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.08</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.66</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>2.96</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,76 +1738,76 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="I10" t="n">
-        <v>1.45</v>
+        <v>2.48</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>2.44</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.67</v>
       </c>
-      <c r="V10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1840,13 +1840,13 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.47</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1.41</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
         <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>3.15</v>
       </c>
       <c r="W11" t="n">
-        <v>2.78</v>
+        <v>1.09</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM11" t="n">
         <v>280</v>
       </c>
-      <c r="AB11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
       <c r="AN11" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WSC Hertha Wels</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>1.54</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,67 +2278,67 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>WSC Hertha Wels</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>1.74</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
-        <v>1.92</v>
+        <v>4.8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="P14" t="n">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>1.23</v>
+        <v>2.12</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2368,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.24</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.76</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="G16" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.98</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.3</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z16" t="n">
         <v>14</v>
       </c>
-      <c r="Z16" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AA16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>23</v>
       </c>
       <c r="AF16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
         <v>40</v>
       </c>
-      <c r="AG16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.01</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.55</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,25 +2953,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.9</v>
@@ -2980,100 +2980,100 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U19" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
       <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
         <v>20</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.62</v>
       </c>
-      <c r="T20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.44</v>
-      </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>3.8</v>
       </c>
       <c r="G21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.3</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.32</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.3</v>
-      </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.64</v>
+        <v>3.8</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="I22" t="n">
-        <v>7.8</v>
+        <v>2.28</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
         <v>3.55</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.16</v>
+        <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -3493,73 +3493,73 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.72</v>
+        <v>7.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.9</v>
+        <v>2.46</v>
       </c>
       <c r="O23" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
         <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3628,73 +3628,73 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.79</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="I24" t="n">
-        <v>6.6</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3703,13 +3703,13 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3763,67 +3763,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>1.79</v>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="H25" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.76</v>
+        <v>6.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
         <v>3.55</v>
       </c>
       <c r="T25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="V25" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3898,67 +3898,67 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.7</v>
       </c>
-      <c r="G26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>2.78</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.74</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="W26" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4033,67 +4033,67 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="G27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4168,118 +4168,118 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.72</v>
+        <v>2.34</v>
       </c>
       <c r="G28" t="n">
-        <v>1.86</v>
+        <v>2.82</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>2.98</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.55</v>
       </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,118 +4303,118 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="G29" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="H29" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="U29" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H30" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.41</v>
@@ -4471,88 +4471,88 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="O30" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.44</v>
+        <v>1.57</v>
       </c>
       <c r="G31" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="H31" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="I31" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S31" t="n">
         <v>3.45</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>1.64</v>
+        <v>2.58</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL31" t="n">
         <v>42</v>
       </c>
-      <c r="AF31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>48</v>
-      </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
-        <v>44</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32">
@@ -4708,73 +4708,73 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="H32" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
         <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
         <v>21</v>
@@ -4783,46 +4783,46 @@
         <v>60</v>
       </c>
       <c r="AB32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG32" t="n">
         <v>12</v>
       </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI32" t="n">
         <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AK32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AO32" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="G33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.1</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="U33" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="V33" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
         <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>46</v>
       </c>
-      <c r="AF33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>60</v>
-      </c>
       <c r="AK33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO33" t="n">
         <v>50</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>2.92</v>
       </c>
       <c r="G34" t="n">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P34" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="W34" t="n">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF34" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.45</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>3.55</v>
+        <v>2.14</v>
       </c>
       <c r="H35" t="n">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S35" t="n">
         <v>4.5</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.84</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.81</v>
+        <v>1.28</v>
       </c>
       <c r="W35" t="n">
-        <v>1.39</v>
+        <v>1.87</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE35" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AK35" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AN35" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="G36" t="n">
-        <v>1.76</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>4.8</v>
+        <v>2.18</v>
       </c>
       <c r="I36" t="n">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="J36" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="W36" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD36" t="n">
         <v>12</v>
       </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>22</v>
-      </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF36" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="G37" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I37" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J37" t="n">
         <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S37" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U37" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="V37" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y37" t="n">
         <v>24</v>
       </c>
       <c r="Z37" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE37" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK37" t="n">
         <v>19.5</v>
       </c>
-      <c r="AK37" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
         <v>8</v>
       </c>
       <c r="AO37" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.34</v>
+        <v>1.7</v>
       </c>
       <c r="G38" t="n">
-        <v>2.56</v>
+        <v>1.81</v>
       </c>
       <c r="H38" t="n">
-        <v>2.68</v>
+        <v>4.6</v>
       </c>
       <c r="I38" t="n">
-        <v>2.96</v>
+        <v>5.2</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="S38" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="T38" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="U38" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="X38" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z38" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA38" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE38" t="n">
         <v>55</v>
       </c>
-      <c r="AB38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC38" t="n">
+      <c r="AF38" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>26</v>
-      </c>
       <c r="AG38" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK38" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI38" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>27</v>
-      </c>
       <c r="AL38" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AO38" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>2.54</v>
       </c>
       <c r="H39" t="n">
-        <v>5.4</v>
+        <v>2.68</v>
       </c>
       <c r="I39" t="n">
-        <v>7.2</v>
+        <v>2.96</v>
       </c>
       <c r="J39" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="K39" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.2</v>
@@ -5686,88 +5686,88 @@
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R39" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="S39" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="T39" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="U39" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="V39" t="n">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="W39" t="n">
-        <v>2.62</v>
+        <v>1.64</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH39" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>22</v>
-      </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN39" t="n">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="G40" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="I40" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="P40" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="T40" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U40" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V40" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="W40" t="n">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="X40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG40" t="n">
         <v>13.5</v>
       </c>
       <c r="AH40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK40" t="n">
         <v>18</v>
       </c>
-      <c r="AI40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>22</v>
-      </c>
       <c r="AL40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>9.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="AO40" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="G41" t="n">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="J41" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>2.78</v>
+        <v>5.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S41" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="T41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U41" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="V41" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="W41" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="G42" t="n">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="H42" t="n">
-        <v>7.6</v>
+        <v>1.04</v>
       </c>
       <c r="I42" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="K42" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
         <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>7.2</v>
+        <v>2.82</v>
       </c>
       <c r="O42" t="n">
         <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="Q42" t="n">
         <v>1.33</v>
       </c>
       <c r="R42" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="S42" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T42" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="U42" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="V42" t="n">
         <v>1.1</v>
       </c>
       <c r="W42" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="X42" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,126 +6188,126 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.44</v>
+        <v>1.3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.25</v>
+        <v>1.36</v>
       </c>
       <c r="H43" t="n">
-        <v>2.46</v>
+        <v>7.6</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="K43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W43" t="n">
         <v>3.8</v>
       </c>
-      <c r="L43" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="I44" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.8</v>
+        <v>2.92</v>
       </c>
       <c r="O44" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="P44" t="n">
-        <v>2.52</v>
+        <v>1.94</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="R44" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="S44" t="n">
-        <v>2.18</v>
+        <v>2.9</v>
       </c>
       <c r="T44" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U44" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="W44" t="n">
-        <v>1.86</v>
+        <v>1.41</v>
       </c>
       <c r="X44" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,123 +6458,123 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="G45" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="H45" t="n">
-        <v>2.74</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="R45" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="T45" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="V45" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="W45" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="X45" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="n">
         <v>970</v>
       </c>
-      <c r="Y45" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>15</v>
-      </c>
       <c r="AC45" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE45" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH45" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI45" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AK45" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL45" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM45" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AO45" t="n">
         <v>28</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G46" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="H46" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I46" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L46" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="P46" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="S46" t="n">
-        <v>4.1</v>
+        <v>2.84</v>
       </c>
       <c r="T46" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="U46" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="V46" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="W46" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -6733,67 +6733,67 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="G47" t="n">
-        <v>2.14</v>
+        <v>2.84</v>
       </c>
       <c r="H47" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="K47" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>2.32</v>
+        <v>2.92</v>
       </c>
       <c r="O47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R47" t="n">
         <v>1.25</v>
       </c>
-      <c r="P47" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S47" t="n">
-        <v>1.05</v>
+        <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U47" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V47" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="W47" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,67 +6868,67 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="G48" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="H48" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="I48" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J48" t="n">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="O48" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>2.22</v>
+        <v>1.46</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.54</v>
+        <v>2.36</v>
       </c>
       <c r="R48" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.34</v>
+        <v>1.05</v>
       </c>
       <c r="T48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U48" t="n">
         <v>1.04</v>
       </c>
-      <c r="U48" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W48" t="n">
-        <v>2.42</v>
+        <v>1.89</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,127 +7003,127 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.54</v>
+        <v>1.45</v>
       </c>
       <c r="G49" t="n">
-        <v>2.58</v>
+        <v>1.69</v>
       </c>
       <c r="H49" t="n">
-        <v>2.96</v>
+        <v>5.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.98</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>4.6</v>
+        <v>2.22</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P49" t="n">
         <v>2.22</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S49" t="n">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="T49" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="W49" t="n">
-        <v>1.63</v>
+        <v>2.42</v>
       </c>
       <c r="X49" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q50" t="n">
         <v>1.76</v>
       </c>
-      <c r="G50" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R50" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="S50" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="T50" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="U50" t="n">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="V50" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="W50" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="X50" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z50" t="n">
         <v>21</v>
       </c>
-      <c r="Z50" t="n">
-        <v>55</v>
-      </c>
       <c r="AA50" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD50" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="AF50" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AK50" t="n">
         <v>25</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AN50" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,121 +7273,121 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="G51" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="I51" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K51" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="R51" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="S51" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="T51" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="U51" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V51" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -7408,121 +7408,121 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="O52" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P52" t="n">
-        <v>2.68</v>
+        <v>1.99</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="R52" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="S52" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="T52" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="U52" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="V52" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X52" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7543,121 +7543,121 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="G53" t="n">
-        <v>1.41</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>1.09</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J53" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="K53" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -7678,127 +7678,127 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.6</v>
+        <v>1.26</v>
       </c>
       <c r="G54" t="n">
-        <v>5.9</v>
+        <v>1.41</v>
       </c>
       <c r="H54" t="n">
-        <v>1.81</v>
+        <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="K54" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="L54" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="R54" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G55" t="n">
-        <v>2.72</v>
+        <v>5.6</v>
       </c>
       <c r="H55" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="I55" t="n">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="L55" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T55" t="n">
         <v>1.05</v>
       </c>
-      <c r="N55" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.62</v>
-      </c>
       <c r="U55" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="W55" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="X55" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG55" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH55" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,127 +7948,127 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="G56" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="I56" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K56" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="M56" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="P56" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W56" t="n">
         <v>1.61</v>
       </c>
-      <c r="Q56" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X56" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC56" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AF56" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI56" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AL56" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AN56" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AO56" t="n">
-        <v>48</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="G57" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H57" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="J57" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="P57" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="R57" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="S57" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="U57" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="V57" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="W57" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X57" t="n">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="Y57" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA57" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO57" t="n">
         <v>48</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,260 +8213,395 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.79</v>
+        <v>2.76</v>
       </c>
       <c r="G58" t="n">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="H58" t="n">
-        <v>4.4</v>
+        <v>2.84</v>
       </c>
       <c r="I58" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="J58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S58" t="n">
         <v>3.85</v>
       </c>
-      <c r="K58" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN58" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>2025-12-05</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Deportivo Cuenca</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Delfin</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F60" t="n">
         <v>1.04</v>
       </c>
-      <c r="G59" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H59" t="n">
+      <c r="G60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.04</v>
       </c>
-      <c r="I59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="I60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L60" t="n">
         <v>1.01</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M60" t="n">
         <v>1.01</v>
       </c>
-      <c r="N59" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O59" t="n">
+      <c r="N60" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O60" t="n">
         <v>1.3</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P60" t="n">
         <v>1.76</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q60" t="n">
         <v>1.75</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R60" t="n">
         <v>1.21</v>
       </c>
-      <c r="S59" t="n">
+      <c r="S60" t="n">
         <v>2.84</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T60" t="n">
         <v>1.04</v>
       </c>
-      <c r="U59" t="n">
+      <c r="U60" t="n">
         <v>1.04</v>
       </c>
-      <c r="V59" t="n">
+      <c r="V60" t="n">
         <v>1.01</v>
       </c>
-      <c r="W59" t="n">
+      <c r="W60" t="n">
         <v>2.8</v>
       </c>
-      <c r="X59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO59" t="n">
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
         <v>2.64</v>
@@ -679,10 +679,10 @@
         <v>2.82</v>
       </c>
       <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -691,22 +691,22 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
         <v>1.64</v>
@@ -715,16 +715,16 @@
         <v>2.48</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
@@ -733,7 +733,7 @@
         <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -817,37 +817,37 @@
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
         <v>1.74</v>
@@ -856,25 +856,25 @@
         <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -889,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>55</v>
@@ -898,16 +898,16 @@
         <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4">
@@ -958,7 +958,7 @@
         <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>4.6</v>
@@ -997,13 +997,13 @@
         <v>32</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13.5</v>
@@ -1012,13 +1012,13 @@
         <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>27</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
         <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="K5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
         <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1240,79 +1240,79 @@
         <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
         <v>1.02</v>
@@ -1390,7 +1390,7 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
         <v>1.02</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>5.5</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.26</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
         <v>1.52</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1618,10 +1618,10 @@
         <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
         <v>4.9</v>
@@ -1642,7 +1642,7 @@
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.61</v>
@@ -1654,13 +1654,13 @@
         <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
         <v>2.96</v>
@@ -1672,19 +1672,19 @@
         <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
         <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>95</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>85</v>
@@ -1714,7 +1714,7 @@
         <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO9" t="n">
         <v>90</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1768,7 +1768,7 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>2.44</v>
@@ -1780,7 +1780,7 @@
         <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
         <v>1.47</v>
@@ -1789,10 +1789,10 @@
         <v>2.48</v>
       </c>
       <c r="T10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.46</v>
       </c>
       <c r="V10" t="n">
         <v>1.67</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -1918,7 +1918,7 @@
         <v>1.92</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
         <v>3.5</v>
@@ -1927,7 +1927,7 @@
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V11" t="n">
         <v>3.15</v>
@@ -1936,28 +1936,28 @@
         <v>1.09</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
@@ -1966,7 +1966,7 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2041,25 +2041,25 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.58</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
         <v>2.56</v>
@@ -2068,7 +2068,7 @@
         <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X12" t="n">
         <v>28</v>
@@ -2104,7 +2104,7 @@
         <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
         <v>38</v>
@@ -2116,7 +2116,7 @@
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>15</v>
@@ -2155,19 +2155,19 @@
         <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J13" t="n">
         <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2179,16 +2179,16 @@
         <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
         <v>2.86</v>
@@ -2197,22 +2197,22 @@
         <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AA13" t="n">
         <v>280</v>
@@ -2221,10 +2221,10 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="n">
         <v>130</v>
@@ -2233,13 +2233,13 @@
         <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2248,7 +2248,7 @@
         <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
@@ -2257,7 +2257,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2299,7 @@
         <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
@@ -2311,16 +2311,16 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O14" t="n">
         <v>1.04</v>
       </c>
       <c r="P14" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R14" t="n">
         <v>1.3</v>
@@ -2329,10 +2329,10 @@
         <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
         <v>1.21</v>
@@ -2368,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2452,10 +2452,10 @@
         <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.22</v>
@@ -2467,13 +2467,13 @@
         <v>2.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,16 +2560,16 @@
         <v>3.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
@@ -2596,19 +2596,19 @@
         <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
         <v>14.5</v>
@@ -2644,22 +2644,22 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
         <v>70</v>
       </c>
       <c r="AK16" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J17" t="n">
         <v>3.9</v>
@@ -2716,28 +2716,28 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
         <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
         <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
         <v>2.02</v>
@@ -2770,7 +2770,7 @@
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
@@ -2782,22 +2782,22 @@
         <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
         <v>1.01</v>
@@ -2971,10 +2971,10 @@
         <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -2986,25 +2986,25 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q19" t="n">
         <v>1.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>2.36</v>
       </c>
       <c r="T19" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
         <v>2.52</v>
@@ -3016,13 +3016,13 @@
         <v>1.86</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3037,16 +3037,16 @@
         <v>18.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3055,19 +3055,19 @@
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.35</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I20" t="n">
         <v>2.24</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -3121,52 +3121,52 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S20" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="V20" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
         <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
@@ -3184,7 +3184,7 @@
         <v>14.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>60</v>
@@ -3193,7 +3193,7 @@
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>60</v>
@@ -3202,7 +3202,7 @@
         <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G21" t="n">
         <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I21" t="n">
         <v>1.99</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
         <v>4.3</v>
@@ -3280,7 +3280,7 @@
         <v>2.44</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W21" t="n">
         <v>1.32</v>
@@ -3292,13 +3292,13 @@
         <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA21" t="n">
         <v>28</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC21" t="n">
         <v>9.800000000000001</v>
@@ -3307,7 +3307,7 @@
         <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G22" t="n">
         <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I22" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3385,7 +3385,7 @@
         <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3394,13 +3394,13 @@
         <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P22" t="n">
         <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
         <v>1.29</v>
@@ -3412,16 +3412,16 @@
         <v>1.84</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
         <v>10.5</v>
@@ -3430,7 +3430,7 @@
         <v>15.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
         <v>16</v>
@@ -3439,40 +3439,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>240</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>380</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO22" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3511,13 +3511,13 @@
         <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.39</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
@@ -3535,19 +3535,19 @@
         <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
         <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V23" t="n">
         <v>1.16</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3643,13 +3643,13 @@
         <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I24" t="n">
         <v>2.72</v>
       </c>
       <c r="J24" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
@@ -3679,7 +3679,7 @@
         <v>3.95</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U24" t="n">
         <v>1.9</v>
@@ -3697,10 +3697,10 @@
         <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB24" t="n">
         <v>12.5</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3775,19 +3775,19 @@
         <v>1.79</v>
       </c>
       <c r="G25" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.38</v>
@@ -3796,19 +3796,19 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
         <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
         <v>3.55</v>
@@ -3820,61 +3820,61 @@
         <v>1.71</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G26" t="n">
         <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="I26" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="J26" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K26" t="n">
         <v>3.7</v>
@@ -3931,31 +3931,31 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O26" t="n">
         <v>1.37</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
         <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="W26" t="n">
         <v>1.32</v>
@@ -3976,7 +3976,7 @@
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -4045,16 +4045,16 @@
         <v>3.65</v>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>2.28</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
@@ -4075,7 +4075,7 @@
         <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
@@ -4084,16 +4084,16 @@
         <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V27" t="n">
         <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4111,25 +4111,25 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ27" t="n">
         <v>1000</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H28" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>3.6</v>
@@ -4201,88 +4201,88 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
         <v>1.36</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -4315,7 +4315,7 @@
         <v>1.72</v>
       </c>
       <c r="G29" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H29" t="n">
         <v>5.1</v>
@@ -4357,7 +4357,7 @@
         <v>1.88</v>
       </c>
       <c r="U29" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V29" t="n">
         <v>1.01</v>
@@ -4366,7 +4366,7 @@
         <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>22</v>
@@ -4387,13 +4387,13 @@
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>26</v>
@@ -4405,7 +4405,7 @@
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>48</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G30" t="n">
         <v>1.61</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.41</v>
@@ -4477,7 +4477,7 @@
         <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="Q30" t="n">
         <v>2.12</v>
@@ -4495,7 +4495,7 @@
         <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
         <v>2.62</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4525,10 +4525,10 @@
         <v>170</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4537,10 +4537,10 @@
         <v>160</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>240</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>1.57</v>
       </c>
       <c r="G31" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H31" t="n">
         <v>6.8</v>
@@ -4606,7 +4606,7 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
@@ -4630,10 +4630,10 @@
         <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W31" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X31" t="n">
         <v>17.5</v>
@@ -4642,7 +4642,7 @@
         <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AA31" t="n">
         <v>290</v>
@@ -4651,10 +4651,10 @@
         <v>8</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="n">
         <v>150</v>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="n">
         <v>130</v>
@@ -4675,13 +4675,13 @@
         <v>15.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AM31" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
         <v>10</v>
@@ -4720,22 +4720,22 @@
         <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
         <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
@@ -4750,13 +4750,13 @@
         <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
         <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T32" t="n">
         <v>1.87</v>
@@ -4768,10 +4768,10 @@
         <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
@@ -4807,19 +4807,19 @@
         <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AK32" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AM32" t="n">
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AO32" t="n">
         <v>46</v>
@@ -4858,16 +4858,16 @@
         <v>2.86</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I33" t="n">
         <v>3.15</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
         <v>1.47</v>
@@ -4885,19 +4885,19 @@
         <v>1.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R33" t="n">
         <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V33" t="n">
         <v>1.46</v>
@@ -4906,16 +4906,16 @@
         <v>1.53</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
         <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="AB33" t="n">
         <v>11.5</v>
@@ -4927,7 +4927,7 @@
         <v>16.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
@@ -4939,25 +4939,25 @@
         <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ33" t="n">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="AK33" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="I34" t="n">
         <v>2.9</v>
       </c>
       <c r="J34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5017,10 +5017,10 @@
         <v>1.55</v>
       </c>
       <c r="P34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
@@ -5035,10 +5035,10 @@
         <v>1.77</v>
       </c>
       <c r="V34" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
         <v>9</v>
@@ -5047,7 +5047,7 @@
         <v>8.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA34" t="n">
         <v>55</v>
@@ -5062,7 +5062,7 @@
         <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="AF34" t="n">
         <v>19.5</v>
@@ -5074,22 +5074,22 @@
         <v>25</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AK34" t="n">
         <v>50</v>
       </c>
       <c r="AL34" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AM34" t="n">
         <v>230</v>
       </c>
       <c r="AN34" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO34" t="n">
         <v>55</v>
@@ -5131,13 +5131,13 @@
         <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5152,7 +5152,7 @@
         <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q35" t="n">
         <v>2.32</v>
@@ -5170,7 +5170,7 @@
         <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W35" t="n">
         <v>1.87</v>
@@ -5188,19 +5188,19 @@
         <v>140</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC35" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
@@ -5218,10 +5218,10 @@
         <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM35" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
         <v>27</v>
@@ -5263,25 +5263,25 @@
         <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5296,22 +5296,22 @@
         <v>1.49</v>
       </c>
       <c r="S36" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T36" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U36" t="n">
         <v>2.38</v>
       </c>
       <c r="V36" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
         <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
@@ -5335,13 +5335,13 @@
         <v>23</v>
       </c>
       <c r="AF36" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AG36" t="n">
         <v>15.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI36" t="n">
         <v>34</v>
@@ -5350,16 +5350,16 @@
         <v>65</v>
       </c>
       <c r="AK36" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AL36" t="n">
         <v>44</v>
       </c>
       <c r="AM36" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AO36" t="n">
         <v>13.5</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G37" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
         <v>4.8</v>
       </c>
       <c r="I37" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J37" t="n">
         <v>4.2</v>
@@ -5416,34 +5416,34 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="R37" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S37" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="T37" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V37" t="n">
         <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X37" t="n">
         <v>24</v>
@@ -5452,7 +5452,7 @@
         <v>24</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>140</v>
@@ -5467,7 +5467,7 @@
         <v>22</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
         <v>12.5</v>
@@ -5485,16 +5485,16 @@
         <v>18.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5557,13 +5557,13 @@
         <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S38" t="n">
         <v>2.36</v>
@@ -5572,7 +5572,7 @@
         <v>1.63</v>
       </c>
       <c r="U38" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V38" t="n">
         <v>1.24</v>
@@ -5581,13 +5581,13 @@
         <v>2.22</v>
       </c>
       <c r="X38" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Y38" t="n">
         <v>24</v>
       </c>
       <c r="Z38" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AA38" t="n">
         <v>120</v>
@@ -5602,7 +5602,7 @@
         <v>21</v>
       </c>
       <c r="AE38" t="n">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="n">
         <v>13.5</v>
@@ -5614,7 +5614,7 @@
         <v>18</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AJ38" t="n">
         <v>19.5</v>
@@ -5623,16 +5623,16 @@
         <v>17.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AM38" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO38" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
@@ -5680,7 +5680,7 @@
         <v>4.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
@@ -5695,7 +5695,7 @@
         <v>2.86</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R39" t="n">
         <v>1.76</v>
@@ -5704,10 +5704,10 @@
         <v>2.06</v>
       </c>
       <c r="T39" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U39" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V39" t="n">
         <v>1.51</v>
@@ -5716,7 +5716,7 @@
         <v>1.64</v>
       </c>
       <c r="X39" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -5725,7 +5725,7 @@
         <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB39" t="n">
         <v>23</v>
@@ -5755,13 +5755,13 @@
         <v>42</v>
       </c>
       <c r="AK39" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="n">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
         <v>13</v>
@@ -5797,61 +5797,61 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G40" t="n">
         <v>1.61</v>
       </c>
       <c r="H40" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I40" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K40" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P40" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T40" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="U40" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="V40" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W40" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="Y40" t="n">
         <v>1000</v>
@@ -5863,10 +5863,10 @@
         <v>140</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD40" t="n">
         <v>28</v>
@@ -5875,25 +5875,25 @@
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK40" t="n">
         <v>18</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G41" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K41" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.27</v>
@@ -5956,13 +5956,13 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O41" t="n">
         <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q41" t="n">
         <v>1.54</v>
@@ -5974,49 +5974,49 @@
         <v>2.18</v>
       </c>
       <c r="T41" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U41" t="n">
         <v>2.54</v>
       </c>
       <c r="V41" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X41" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Y41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z41" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AA41" t="n">
         <v>95</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE41" t="n">
         <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
         <v>55</v>
@@ -6025,19 +6025,19 @@
         <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM41" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
         <v>9.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G42" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
         <v>4.7</v>
@@ -6100,7 +6100,7 @@
         <v>2.82</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R42" t="n">
         <v>1.78</v>
@@ -6109,16 +6109,16 @@
         <v>1.96</v>
       </c>
       <c r="T42" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="U42" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="V42" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W42" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G43" t="n">
         <v>1.36</v>
       </c>
       <c r="H43" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
         <v>6.2</v>
       </c>
       <c r="K43" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
         <v>1.18</v>
@@ -6235,13 +6235,13 @@
         <v>3.15</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R43" t="n">
         <v>1.88</v>
       </c>
       <c r="S43" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T43" t="n">
         <v>1.71</v>
@@ -6253,13 +6253,13 @@
         <v>1.1</v>
       </c>
       <c r="W43" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="X43" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="Y43" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="Z43" t="n">
         <v>120</v>
@@ -6271,37 +6271,37 @@
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AD43" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AE43" t="n">
         <v>140</v>
       </c>
       <c r="AF43" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG43" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AK43" t="n">
         <v>16.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AM43" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN43" t="n">
         <v>4.4</v>
@@ -6343,7 +6343,7 @@
         <v>3.3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I44" t="n">
         <v>3.3</v>
@@ -6361,16 +6361,16 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="O44" t="n">
         <v>1.05</v>
       </c>
       <c r="P44" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="R44" t="n">
         <v>1.3</v>
@@ -6388,7 +6388,7 @@
         <v>1.44</v>
       </c>
       <c r="W44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6484,7 +6484,7 @@
         <v>3.95</v>
       </c>
       <c r="J45" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K45" t="n">
         <v>4.2</v>
@@ -6496,28 +6496,28 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S45" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="T45" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U45" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
         <v>1.35</v>
@@ -6526,58 +6526,58 @@
         <v>1.89</v>
       </c>
       <c r="X45" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="Y45" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="Z45" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AA45" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB45" t="n">
         <v>970</v>
       </c>
       <c r="AC45" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AD45" t="n">
         <v>970</v>
       </c>
       <c r="AE45" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AF45" t="n">
         <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AH45" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AJ45" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AK45" t="n">
         <v>970</v>
       </c>
       <c r="AL45" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO45" t="n">
-        <v>28</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G46" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H46" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="I46" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
         <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
         <v>1.36</v>
@@ -6637,10 +6637,10 @@
         <v>1.26</v>
       </c>
       <c r="P46" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
         <v>1.46</v>
@@ -6655,7 +6655,7 @@
         <v>2.36</v>
       </c>
       <c r="V46" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W46" t="n">
         <v>1.58</v>
@@ -6670,10 +6670,10 @@
         <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC46" t="n">
         <v>8.800000000000001</v>
@@ -6682,7 +6682,7 @@
         <v>15.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="n">
         <v>23</v>
@@ -6694,10 +6694,10 @@
         <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AK46" t="n">
         <v>32</v>
@@ -6706,7 +6706,7 @@
         <v>42</v>
       </c>
       <c r="AM46" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
         <v>26</v>
@@ -6742,40 +6742,40 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="G47" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J47" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P47" t="n">
         <v>1.64</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R47" t="n">
         <v>1.25</v>
@@ -6784,16 +6784,16 @@
         <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V47" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W47" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6808,10 +6808,10 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G48" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H48" t="n">
         <v>4.4</v>
@@ -6889,28 +6889,28 @@
         <v>7.8</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L48" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="P48" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
         <v>1.18</v>
@@ -6925,10 +6925,10 @@
         <v>1.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W48" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G49" t="n">
         <v>1.69</v>
@@ -7036,28 +7036,28 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>1.21</v>
       </c>
       <c r="P49" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R49" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S49" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T49" t="n">
         <v>1.04</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V49" t="n">
         <v>1.13</v>
@@ -7114,7 +7114,7 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G50" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H50" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I50" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J50" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K50" t="n">
         <v>3.8</v>
@@ -7168,16 +7168,16 @@
         <v>1.34</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q50" t="n">
         <v>1.76</v>
@@ -7189,22 +7189,22 @@
         <v>2.9</v>
       </c>
       <c r="T50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W50" t="n">
         <v>1.63</v>
       </c>
-      <c r="U50" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X50" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z50" t="n">
         <v>21</v>
@@ -7222,7 +7222,7 @@
         <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF50" t="n">
         <v>18</v>
@@ -7234,7 +7234,7 @@
         <v>15.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ50" t="n">
         <v>38</v>
@@ -7243,13 +7243,13 @@
         <v>25</v>
       </c>
       <c r="AL50" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM50" t="n">
         <v>70</v>
       </c>
       <c r="AN50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO50" t="n">
         <v>21</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H51" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I51" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
         <v>3.65</v>
@@ -7315,25 +7315,25 @@
         <v>1.81</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
         <v>1.31</v>
       </c>
       <c r="S51" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T51" t="n">
         <v>1.92</v>
       </c>
       <c r="U51" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V51" t="n">
         <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X51" t="n">
         <v>16</v>
@@ -7357,7 +7357,7 @@
         <v>26</v>
       </c>
       <c r="AE51" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF51" t="n">
         <v>11</v>
@@ -7369,7 +7369,7 @@
         <v>26</v>
       </c>
       <c r="AI51" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AJ51" t="n">
         <v>23</v>
@@ -7381,13 +7381,13 @@
         <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
         <v>16</v>
       </c>
       <c r="AO51" t="n">
-        <v>130</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52">
@@ -7417,46 +7417,46 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G52" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="H52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K52" t="n">
         <v>4.6</v>
       </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L52" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P52" t="n">
         <v>1.99</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R52" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S52" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T52" t="n">
         <v>1.72</v>
@@ -7465,10 +7465,10 @@
         <v>2.06</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W52" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7486,7 +7486,7 @@
         <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7498,7 +7498,7 @@
         <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH52" t="n">
         <v>1000</v>
@@ -7519,7 +7519,7 @@
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="G53" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J53" t="n">
         <v>4.1</v>
       </c>
       <c r="K53" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,43 +7576,43 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O53" t="n">
         <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R53" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S53" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="T53" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U53" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V53" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W53" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X53" t="n">
         <v>32</v>
       </c>
       <c r="Y53" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z53" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
@@ -7621,43 +7621,43 @@
         <v>18</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE53" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AF53" t="n">
         <v>18.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AJ53" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK53" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN53" t="n">
         <v>8.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -7720,7 +7720,7 @@
         <v>2.16</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,28 +7822,28 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G55" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="J55" t="n">
         <v>3.45</v>
       </c>
       <c r="K55" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M55" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
         <v>2.9</v>
@@ -7852,16 +7852,16 @@
         <v>1.2</v>
       </c>
       <c r="P55" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R55" t="n">
         <v>1.23</v>
       </c>
       <c r="S55" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T55" t="n">
         <v>1.05</v>
@@ -7870,10 +7870,10 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="W55" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="G56" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="H56" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I56" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.85</v>
       </c>
       <c r="L56" t="n">
         <v>1.34</v>
@@ -7984,7 +7984,7 @@
         <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P56" t="n">
         <v>2.28</v>
@@ -7993,10 +7993,10 @@
         <v>1.74</v>
       </c>
       <c r="R56" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S56" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T56" t="n">
         <v>1.62</v>
@@ -8005,52 +8005,52 @@
         <v>2.52</v>
       </c>
       <c r="V56" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W56" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X56" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA56" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC56" t="n">
         <v>8.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE56" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF56" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG56" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH56" t="n">
         <v>15</v>
       </c>
       <c r="AI56" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ56" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK56" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL56" t="n">
         <v>34</v>
@@ -8059,10 +8059,10 @@
         <v>70</v>
       </c>
       <c r="AN56" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -8095,13 +8095,13 @@
         <v>2.82</v>
       </c>
       <c r="G57" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H57" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I57" t="n">
         <v>3</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.05</v>
       </c>
       <c r="J57" t="n">
         <v>3.15</v>
@@ -8119,13 +8119,13 @@
         <v>2.88</v>
       </c>
       <c r="O57" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P57" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R57" t="n">
         <v>1.22</v>
@@ -8137,19 +8137,19 @@
         <v>2.06</v>
       </c>
       <c r="U57" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V57" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W57" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X57" t="n">
         <v>9.4</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z57" t="n">
         <v>17.5</v>
@@ -8173,7 +8173,7 @@
         <v>16</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
         <v>22</v>
@@ -8191,7 +8191,7 @@
         <v>65</v>
       </c>
       <c r="AM57" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN57" t="n">
         <v>44</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G58" t="n">
         <v>2.82</v>
@@ -8236,13 +8236,13 @@
         <v>2.84</v>
       </c>
       <c r="I58" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J58" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L58" t="n">
         <v>1.44</v>
@@ -8251,70 +8251,70 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O58" t="n">
         <v>1.35</v>
       </c>
       <c r="P58" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R58" t="n">
         <v>1.32</v>
       </c>
       <c r="S58" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T58" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U58" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V58" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W58" t="n">
         <v>1.54</v>
       </c>
       <c r="X58" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AB58" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC58" t="n">
         <v>7.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE58" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF58" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG58" t="n">
         <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ58" t="n">
         <v>46</v>
@@ -8323,7 +8323,7 @@
         <v>32</v>
       </c>
       <c r="AL58" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM58" t="n">
         <v>110</v>
@@ -8332,7 +8332,7 @@
         <v>29</v>
       </c>
       <c r="AO58" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="G59" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="H59" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="I59" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8386,16 +8386,16 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1.95</v>
+        <v>3.7</v>
       </c>
       <c r="O59" t="n">
         <v>1.24</v>
       </c>
       <c r="P59" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H60" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I60" t="n">
         <v>1000</v>
       </c>
       <c r="J60" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="K60" t="n">
         <v>1000</v>
@@ -8524,10 +8524,10 @@
         <v>2.62</v>
       </c>
       <c r="O60" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P60" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q60" t="n">
         <v>1.75</v>
@@ -8545,7 +8545,7 @@
         <v>1.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W60" t="n">
         <v>2.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
         <v>2.78</v>
@@ -706,13 +706,13 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
         <v>1.54</v>
@@ -736,7 +736,7 @@
         <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
@@ -766,13 +766,13 @@
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
         <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -835,7 +835,7 @@
         <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
         <v>1.6</v>
@@ -850,7 +850,7 @@
         <v>2.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
@@ -859,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -874,22 +874,22 @@
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>55</v>
@@ -955,7 +955,7 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -976,16 +976,16 @@
         <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
         <v>2.78</v>
@@ -994,34 +994,34 @@
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>16.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="I5" t="n">
         <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K5" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L5" t="n">
         <v>1.26</v>
@@ -1111,22 +1111,22 @@
         <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V5" t="n">
         <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1264,16 +1264,16 @@
         <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>42</v>
@@ -1306,7 +1306,7 @@
         <v>170</v>
       </c>
       <c r="AM6" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>55</v>
@@ -1363,19 +1363,19 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
         <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
@@ -1480,10 +1480,10 @@
         <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
         <v>16.5</v>
@@ -1492,13 +1492,13 @@
         <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>1.1</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J9" t="n">
         <v>4.9</v>
@@ -1642,37 +1642,37 @@
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
         <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
         <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="n">
         <v>220</v>
@@ -1684,10 +1684,10 @@
         <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
@@ -1711,13 +1711,13 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1792,10 +1792,10 @@
         <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1885,10 +1885,10 @@
         <v>8.6</v>
       </c>
       <c r="G11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I11" t="n">
         <v>1.45</v>
@@ -1924,7 +1924,7 @@
         <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
         <v>1.68</v>
@@ -1966,7 +1966,7 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
         <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
         <v>3.25</v>
@@ -2035,7 +2035,7 @@
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2065,7 +2065,7 @@
         <v>2.56</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W12" t="n">
         <v>1.69</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
         <v>7.2</v>
@@ -2164,7 +2164,7 @@
         <v>8.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -2185,7 +2185,7 @@
         <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2194,7 +2194,7 @@
         <v>2.86</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
         <v>1.94</v>
@@ -2203,19 +2203,19 @@
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z13" t="n">
         <v>200</v>
       </c>
       <c r="AA13" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
         <v>1.88</v>
@@ -2296,7 +2296,7 @@
         <v>4.8</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2308,19 +2308,19 @@
         <v>1.31</v>
       </c>
       <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.03</v>
       </c>
-      <c r="N14" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.04</v>
-      </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
         <v>1.3</v>
@@ -2332,10 +2332,10 @@
         <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
         <v>2.12</v>
@@ -2368,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2425,10 +2425,10 @@
         <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I15" t="n">
         <v>2.42</v>
@@ -2443,7 +2443,7 @@
         <v>1.38</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>1.1</v>
@@ -2455,19 +2455,19 @@
         <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>2.24</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.71</v>
@@ -2563,13 +2563,13 @@
         <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
@@ -2596,16 +2596,16 @@
         <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
         <v>1.36</v>
@@ -2659,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I17" t="n">
         <v>1.98</v>
@@ -2722,7 +2722,7 @@
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
         <v>1.69</v>
@@ -2743,37 +2743,37 @@
         <v>2.02</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -2797,7 +2797,7 @@
         <v>240</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.24</v>
       </c>
       <c r="J20" t="n">
         <v>3.95</v>
@@ -3115,58 +3115,58 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
@@ -3178,16 +3178,16 @@
         <v>27</v>
       </c>
       <c r="AG20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>14</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
@@ -3196,13 +3196,13 @@
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="I21" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
         <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3259,46 +3259,46 @@
         <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T21" t="n">
         <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="W21" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>9.800000000000001</v>
@@ -3313,10 +3313,10 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22">
@@ -3505,7 +3505,7 @@
         <v>1.74</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
         <v>4.7</v>
@@ -3514,7 +3514,7 @@
         <v>7.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>4.8</v>
@@ -3538,22 +3538,22 @@
         <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
         <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
         <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I24" t="n">
         <v>2.72</v>
@@ -3670,13 +3670,13 @@
         <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
         <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
         <v>1.92</v>
@@ -3715,7 +3715,7 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG24" t="n">
         <v>34</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.38</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3805,25 +3805,25 @@
         <v>1.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="X25" t="n">
         <v>970</v>
@@ -3910,7 +3910,7 @@
         <v>3.05</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H26" t="n">
         <v>2.12</v>
@@ -3949,16 +3949,16 @@
         <v>3.3</v>
       </c>
       <c r="T26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.05</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>1.64</v>
       </c>
       <c r="W26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4045,7 +4045,7 @@
         <v>3.65</v>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -4084,16 +4084,16 @@
         <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V27" t="n">
         <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G28" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
         <v>3.95</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
         <v>3.6</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
@@ -4210,7 +4210,7 @@
         <v>1.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="R28" t="n">
         <v>1.22</v>
@@ -4219,16 +4219,16 @@
         <v>3.65</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="U28" t="n">
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4321,13 +4321,13 @@
         <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.32</v>
@@ -4345,7 +4345,7 @@
         <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R29" t="n">
         <v>1.33</v>
@@ -4384,10 +4384,10 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="G30" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4477,7 +4477,7 @@
         <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="Q30" t="n">
         <v>2.12</v>
@@ -4495,10 +4495,10 @@
         <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
@@ -4525,7 +4525,7 @@
         <v>170</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>20</v>
@@ -4546,7 +4546,7 @@
         <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
         <v>46</v>
@@ -4588,7 +4588,7 @@
         <v>1.62</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I31" t="n">
         <v>7.8</v>
@@ -4600,7 +4600,7 @@
         <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4630,7 +4630,7 @@
         <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
         <v>2.6</v>
@@ -4642,7 +4642,7 @@
         <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AA31" t="n">
         <v>290</v>
@@ -4675,7 +4675,7 @@
         <v>15.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>170</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G32" t="n">
         <v>2.58</v>
@@ -4726,7 +4726,7 @@
         <v>3.15</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
@@ -4765,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
         <v>1.63</v>
@@ -4789,7 +4789,7 @@
         <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE32" t="n">
         <v>42</v>
@@ -4807,10 +4807,10 @@
         <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
         <v>170</v>
@@ -4822,7 +4822,7 @@
         <v>55</v>
       </c>
       <c r="AO32" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G33" t="n">
         <v>2.86</v>
       </c>
       <c r="H33" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
         <v>3.15</v>
@@ -4894,16 +4894,16 @@
         <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V33" t="n">
         <v>1.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
         <v>11.5</v>
@@ -4915,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
         <v>11.5</v>
@@ -4924,7 +4924,7 @@
         <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE33" t="n">
         <v>120</v>
@@ -4939,16 +4939,16 @@
         <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AJ33" t="n">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AK33" t="n">
         <v>120</v>
       </c>
       <c r="AL33" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I34" t="n">
         <v>2.9</v>
@@ -5038,7 +5038,7 @@
         <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
         <v>9</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="G35" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.25</v>
@@ -5143,46 +5143,46 @@
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U35" t="n">
         <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="X35" t="n">
         <v>11</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AA35" t="n">
         <v>140</v>
@@ -5191,40 +5191,40 @@
         <v>7.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL35" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I36" t="n">
         <v>2.24</v>
       </c>
       <c r="J36" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
         <v>1.32</v>
@@ -5281,13 +5281,13 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q36" t="n">
         <v>1.75</v>
@@ -5296,10 +5296,10 @@
         <v>1.49</v>
       </c>
       <c r="S36" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U36" t="n">
         <v>2.38</v>
@@ -5311,58 +5311,58 @@
         <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
       </c>
       <c r="Z36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB36" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>17</v>
-      </c>
       <c r="AC36" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF36" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AG36" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="n">
         <v>95</v>
       </c>
       <c r="AL36" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AO36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -5395,10 +5395,10 @@
         <v>1.66</v>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
         <v>5.6</v>
@@ -5422,7 +5422,7 @@
         <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q37" t="n">
         <v>1.58</v>
@@ -5434,7 +5434,7 @@
         <v>2.42</v>
       </c>
       <c r="T37" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
         <v>2.28</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G38" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I38" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
         <v>4.2</v>
@@ -5551,40 +5551,40 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="R38" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S38" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="U38" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="V38" t="n">
         <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="X38" t="n">
         <v>46</v>
       </c>
       <c r="Y38" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z38" t="n">
         <v>190</v>
@@ -5593,10 +5593,10 @@
         <v>120</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
         <v>21</v>
@@ -5605,31 +5605,31 @@
         <v>330</v>
       </c>
       <c r="AF38" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
         <v>260</v>
       </c>
       <c r="AJ38" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK38" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AM38" t="n">
         <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO38" t="n">
         <v>290</v>
@@ -5692,19 +5692,19 @@
         <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S39" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U39" t="n">
         <v>2.86</v>
@@ -5752,7 +5752,7 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AK39" t="n">
         <v>40</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="G40" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K40" t="n">
         <v>5.6</v>
@@ -5827,28 +5827,28 @@
         <v>1.14</v>
       </c>
       <c r="P40" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
         <v>1.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S40" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T40" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U40" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X40" t="n">
         <v>170</v>
@@ -5863,19 +5863,19 @@
         <v>140</v>
       </c>
       <c r="AB40" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AG40" t="n">
         <v>11.5</v>
@@ -5887,19 +5887,19 @@
         <v>160</v>
       </c>
       <c r="AJ40" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AK40" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="G41" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="H41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K41" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.27</v>
@@ -5962,7 +5962,7 @@
         <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q41" t="n">
         <v>1.54</v>
@@ -5971,22 +5971,22 @@
         <v>1.65</v>
       </c>
       <c r="S41" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="T41" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V41" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W41" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="X41" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
         <v>27</v>
@@ -5995,46 +5995,46 @@
         <v>110</v>
       </c>
       <c r="AA41" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AB41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF41" t="n">
         <v>15</v>
       </c>
-      <c r="AC41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF41" t="n">
+      <c r="AG41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>15</v>
-      </c>
       <c r="AI41" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ41" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK41" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL41" t="n">
         <v>27</v>
       </c>
       <c r="AM41" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN41" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AO41" t="n">
         <v>65</v>
@@ -6073,7 +6073,7 @@
         <v>1.66</v>
       </c>
       <c r="H42" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
         <v>9</v>
@@ -6091,34 +6091,34 @@
         <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>2.82</v>
+        <v>5.4</v>
       </c>
       <c r="O42" t="n">
         <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="R42" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T42" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U42" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="V42" t="n">
         <v>1.13</v>
       </c>
       <c r="W42" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6211,7 +6211,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="J43" t="n">
         <v>6.2</v>
@@ -6232,19 +6232,19 @@
         <v>1.12</v>
       </c>
       <c r="P43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q43" t="n">
         <v>1.33</v>
       </c>
       <c r="R43" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S43" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
         <v>2.12</v>
@@ -6295,7 +6295,7 @@
         <v>24</v>
       </c>
       <c r="AK43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL43" t="n">
         <v>75</v>
@@ -6304,7 +6304,7 @@
         <v>330</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO43" t="n">
         <v>120</v>
@@ -6346,10 +6346,10 @@
         <v>2.46</v>
       </c>
       <c r="I44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
         <v>3.8</v>
@@ -6385,7 +6385,7 @@
         <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W44" t="n">
         <v>1.44</v>
@@ -6475,13 +6475,13 @@
         <v>1.99</v>
       </c>
       <c r="G45" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="J45" t="n">
         <v>3.85</v>
@@ -6502,7 +6502,7 @@
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q45" t="n">
         <v>1.17</v>
@@ -6514,16 +6514,16 @@
         <v>2.12</v>
       </c>
       <c r="T45" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U45" t="n">
         <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="X45" t="n">
         <v>90</v>
@@ -6610,7 +6610,7 @@
         <v>2.54</v>
       </c>
       <c r="G46" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
         <v>2.78</v>
@@ -6625,34 +6625,34 @@
         <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R46" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T46" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U46" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V46" t="n">
         <v>1.5</v>
@@ -6670,19 +6670,19 @@
         <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AB46" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="n">
         <v>23</v>
@@ -6697,22 +6697,22 @@
         <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="n">
         <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AM46" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN46" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -6745,19 +6745,19 @@
         <v>2.74</v>
       </c>
       <c r="G47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I47" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J47" t="n">
         <v>2.74</v>
       </c>
       <c r="K47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L47" t="n">
         <v>1.43</v>
@@ -6766,25 +6766,25 @@
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P47" t="n">
         <v>1.64</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U47" t="n">
         <v>1.96</v>
@@ -6808,7 +6808,7 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
         <v>14</v>
@@ -6877,37 +6877,37 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G48" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H48" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I48" t="n">
         <v>7.8</v>
       </c>
       <c r="J48" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O48" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q48" t="n">
         <v>2.4</v>
@@ -6925,10 +6925,10 @@
         <v>1.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W48" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7015,7 +7015,7 @@
         <v>1.47</v>
       </c>
       <c r="G49" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H49" t="n">
         <v>5.3</v>
@@ -7042,13 +7042,13 @@
         <v>1.21</v>
       </c>
       <c r="P49" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S49" t="n">
         <v>2.38</v>
@@ -7063,7 +7063,7 @@
         <v>1.13</v>
       </c>
       <c r="W49" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G50" t="n">
         <v>2.56</v>
       </c>
-      <c r="G50" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H50" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I50" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J50" t="n">
         <v>3.7</v>
       </c>
       <c r="K50" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L50" t="n">
         <v>1.34</v>
@@ -7177,16 +7177,16 @@
         <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q50" t="n">
         <v>1.76</v>
       </c>
       <c r="R50" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S50" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T50" t="n">
         <v>1.64</v>
@@ -7195,10 +7195,10 @@
         <v>2.46</v>
       </c>
       <c r="V50" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W50" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X50" t="n">
         <v>18</v>
@@ -7237,7 +7237,7 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK50" t="n">
         <v>25</v>
@@ -7285,16 +7285,16 @@
         <v>1.75</v>
       </c>
       <c r="G51" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H51" t="n">
         <v>5.2</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J51" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K51" t="n">
         <v>4</v>
@@ -7327,13 +7327,13 @@
         <v>1.92</v>
       </c>
       <c r="U51" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V51" t="n">
         <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X51" t="n">
         <v>16</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G53" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J53" t="n">
         <v>4.1</v>
@@ -7594,13 +7594,13 @@
         <v>2.14</v>
       </c>
       <c r="T53" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U53" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V53" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W53" t="n">
         <v>2</v>
@@ -7690,19 +7690,19 @@
         <v>1.26</v>
       </c>
       <c r="G54" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="I54" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="J54" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K54" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G55" t="n">
         <v>4.7</v>
@@ -7831,13 +7831,13 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="J55" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L55" t="n">
         <v>1.37</v>
@@ -7870,7 +7870,7 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="W55" t="n">
         <v>1.27</v>
@@ -7891,7 +7891,7 @@
         <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD55" t="n">
         <v>1000</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G56" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H56" t="n">
         <v>2.88</v>
       </c>
       <c r="I56" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -7981,40 +7981,40 @@
         <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
       </c>
       <c r="P56" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R56" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T56" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U56" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V56" t="n">
         <v>1.52</v>
       </c>
       <c r="W56" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X56" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z56" t="n">
         <v>22</v>
@@ -8050,7 +8050,7 @@
         <v>36</v>
       </c>
       <c r="AK56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL56" t="n">
         <v>34</v>
@@ -8095,7 +8095,7 @@
         <v>2.82</v>
       </c>
       <c r="G57" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H57" t="n">
         <v>2.98</v>
@@ -8113,13 +8113,13 @@
         <v>1.56</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N57" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P57" t="n">
         <v>1.63</v>
@@ -8134,19 +8134,19 @@
         <v>5.1</v>
       </c>
       <c r="T57" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U57" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V57" t="n">
         <v>1.5</v>
       </c>
       <c r="W57" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X57" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y57" t="n">
         <v>9.199999999999999</v>
@@ -8158,7 +8158,7 @@
         <v>50</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8227,13 +8227,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H58" t="n">
         <v>2.82</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.84</v>
       </c>
       <c r="I58" t="n">
         <v>2.86</v>
@@ -8251,34 +8251,34 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P58" t="n">
         <v>1.87</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R58" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S58" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T58" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U58" t="n">
         <v>2.14</v>
       </c>
       <c r="V58" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W58" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X58" t="n">
         <v>13</v>
@@ -8290,10 +8290,10 @@
         <v>17.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AB58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="n">
         <v>7.4</v>
@@ -8317,19 +8317,19 @@
         <v>46</v>
       </c>
       <c r="AJ58" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="n">
         <v>32</v>
       </c>
       <c r="AL58" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM58" t="n">
         <v>110</v>
       </c>
       <c r="AN58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO58" t="n">
         <v>29</v>
@@ -8362,40 +8362,40 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="G59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q59" t="n">
         <v>1.72</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K59" t="n">
-        <v>7</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.63</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G60" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="H60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J60" t="n">
         <v>1.09</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.4</v>
       </c>
       <c r="K60" t="n">
         <v>1000</v>
@@ -8521,22 +8521,22 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="O60" t="n">
         <v>1.26</v>
       </c>
       <c r="P60" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="R60" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S60" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T60" t="n">
         <v>1.04</v>
@@ -8545,10 +8545,10 @@
         <v>1.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W60" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.62</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.66</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,7 +700,7 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
         <v>1.5</v>
@@ -712,25 +712,25 @@
         <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
         <v>13.5</v>
@@ -745,13 +745,13 @@
         <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
         <v>36</v>
@@ -760,19 +760,19 @@
         <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -805,25 +805,25 @@
         <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>5.3</v>
@@ -835,22 +835,22 @@
         <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
         <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
@@ -904,7 +904,7 @@
         <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>12.5</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
         <v>1.56</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -955,61 +955,61 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
         <v>2.78</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="n">
         <v>80</v>
       </c>
-      <c r="Z4" t="n">
-        <v>75</v>
-      </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,16 +1021,16 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>38</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="K5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="L5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.26</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.03</v>
-      </c>
       <c r="W5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,67 +1207,67 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="G6" t="n">
         <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="I6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.3</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.47</v>
       </c>
-      <c r="W6" t="n">
-        <v>1.48</v>
-      </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
@@ -1276,22 +1276,22 @@
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>95</v>
       </c>
       <c r="AF6" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>260</v>
@@ -1300,19 +1300,19 @@
         <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>44</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>44</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
       </c>
       <c r="K7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.75</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.37</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
         <v>1.49</v>
       </c>
       <c r="H8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.7</v>
       </c>
-      <c r="I8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1525,7 +1525,7 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,10 +1567,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
         <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1636,31 +1636,31 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
         <v>3</v>
@@ -1669,13 +1669,13 @@
         <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
@@ -1684,19 +1684,19 @@
         <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
         <v>85</v>
@@ -1708,16 +1708,16 @@
         <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
@@ -1765,28 +1765,28 @@
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.46</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
         <v>1.63</v>
@@ -1795,10 +1795,10 @@
         <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="I11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="J11" t="n">
         <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V11" t="n">
         <v>3.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
@@ -1942,10 +1942,10 @@
         <v>7.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -1957,7 +1957,7 @@
         <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
@@ -1975,19 +1975,19 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AL11" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AM11" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>5.2</v>
@@ -2047,16 +2047,16 @@
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="T12" t="n">
         <v>1.6</v>
@@ -2068,7 +2068,7 @@
         <v>1.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
         <v>28</v>
@@ -2092,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2152,49 +2152,49 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U13" t="n">
         <v>1.94</v>
@@ -2203,7 +2203,7 @@
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2224,7 +2224,7 @@
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
         <v>130</v>
@@ -2257,7 +2257,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="I15" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
         <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
         <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I16" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2575,19 +2575,19 @@
         <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>1.94</v>
@@ -2596,7 +2596,7 @@
         <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.78</v>
@@ -2605,10 +2605,10 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
         <v>14.5</v>
@@ -2617,13 +2617,13 @@
         <v>10.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="n">
         <v>14</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
@@ -2632,10 +2632,10 @@
         <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2647,13 +2647,13 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
         <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>90</v>
@@ -2662,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="I17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
@@ -2716,13 +2716,13 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
         <v>1.69</v>
@@ -2731,25 +2731,25 @@
         <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T17" t="n">
         <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
         <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
         <v>16</v>
@@ -2758,13 +2758,13 @@
         <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -2776,28 +2776,28 @@
         <v>19.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
         <v>200</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T19" t="n">
         <v>1.59</v>
       </c>
       <c r="U19" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X19" t="n">
         <v>90</v>
@@ -3031,13 +3031,13 @@
         <v>17.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AD19" t="n">
         <v>18.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3046,7 +3046,7 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3058,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>260</v>
@@ -3097,88 +3097,88 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V20" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>14</v>
@@ -3187,22 +3187,22 @@
         <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
         <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I21" t="n">
         <v>2.08</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -3265,79 +3265,79 @@
         <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S21" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U21" t="n">
         <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
         <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
         <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G22" t="n">
         <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
         <v>2.24</v>
@@ -3385,34 +3385,34 @@
         <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
         <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
         <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
         <v>1.8</v>
@@ -3421,7 +3421,7 @@
         <v>1.31</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
         <v>10.5</v>
@@ -3439,7 +3439,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
         <v>90</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="H23" t="n">
         <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G24" t="n">
         <v>3.6</v>
@@ -3646,46 +3646,46 @@
         <v>2.48</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W24" t="n">
         <v>1.39</v>
@@ -3712,7 +3712,7 @@
         <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF24" t="n">
         <v>48</v>
@@ -3772,61 +3772,61 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
         <v>970</v>
@@ -3907,58 +3907,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="J26" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
         <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.37</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="T26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
         <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I27" t="n">
         <v>2.28</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>2.78</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
         <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V27" t="n">
         <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="H28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
       </c>
       <c r="K28" t="n">
         <v>3.6</v>
       </c>
       <c r="L28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.39</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P28" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T28" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="U28" t="n">
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W28" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4312,31 +4312,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I29" t="n">
         <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
         <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.32</v>
@@ -4345,13 +4345,13 @@
         <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
         <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
         <v>1.88</v>
@@ -4366,7 +4366,7 @@
         <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
         <v>22</v>
@@ -4378,7 +4378,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
         <v>10.5</v>
@@ -4390,7 +4390,7 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -4402,19 +4402,19 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4450,7 +4450,7 @@
         <v>1.59</v>
       </c>
       <c r="G30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
         <v>6.8</v>
@@ -4459,46 +4459,46 @@
         <v>7.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K30" t="n">
         <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
         <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="V30" t="n">
         <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
@@ -4549,7 +4549,7 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H31" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K31" t="n">
         <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
         <v>2.02</v>
@@ -4630,13 +4630,13 @@
         <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W31" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -4648,7 +4648,7 @@
         <v>290</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC31" t="n">
         <v>9.800000000000001</v>
@@ -4672,19 +4672,19 @@
         <v>130</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO31" t="n">
         <v>210</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H32" t="n">
         <v>3.15</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
@@ -4735,19 +4735,19 @@
         <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q32" t="n">
         <v>2.18</v>
@@ -4756,7 +4756,7 @@
         <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
         <v>1.87</v>
@@ -4765,10 +4765,10 @@
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -4777,31 +4777,31 @@
         <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
         <v>60</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC32" t="n">
         <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="n">
         <v>60</v>
@@ -4810,7 +4810,7 @@
         <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AL32" t="n">
         <v>170</v>
@@ -4819,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
         <v>80</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G33" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H33" t="n">
         <v>2.88</v>
@@ -4870,13 +4870,13 @@
         <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O33" t="n">
         <v>1.41</v>
@@ -4885,22 +4885,22 @@
         <v>1.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S33" t="n">
         <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="n">
         <v>1.96</v>
       </c>
       <c r="V33" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W33" t="n">
         <v>1.54</v>
@@ -4987,64 +4987,64 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>2.82</v>
       </c>
       <c r="I34" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="P34" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
         <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y34" t="n">
         <v>9</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z34" t="n">
         <v>18</v>
@@ -5053,13 +5053,13 @@
         <v>55</v>
       </c>
       <c r="AB34" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE34" t="n">
         <v>240</v>
@@ -5068,31 +5068,31 @@
         <v>19.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
         <v>400</v>
       </c>
       <c r="AJ34" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="AK34" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="n">
         <v>400</v>
       </c>
       <c r="AM34" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="n">
         <v>110</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -5122,31 +5122,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G35" t="n">
         <v>2.02</v>
       </c>
       <c r="H35" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -5155,13 +5155,13 @@
         <v>1.67</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R35" t="n">
         <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T35" t="n">
         <v>2.02</v>
@@ -5170,7 +5170,7 @@
         <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
         <v>1.98</v>
@@ -5197,10 +5197,10 @@
         <v>20</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
@@ -5212,7 +5212,7 @@
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK35" t="n">
         <v>70</v>
@@ -5260,10 +5260,10 @@
         <v>3.35</v>
       </c>
       <c r="G36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
         <v>2.24</v>
@@ -5275,34 +5275,34 @@
         <v>3.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q36" t="n">
         <v>1.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T36" t="n">
         <v>1.67</v>
       </c>
       <c r="U36" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V36" t="n">
         <v>1.8</v>
@@ -5335,7 +5335,7 @@
         <v>22</v>
       </c>
       <c r="AF36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
         <v>14.5</v>
@@ -5350,16 +5350,16 @@
         <v>60</v>
       </c>
       <c r="AK36" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO36" t="n">
         <v>14</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G37" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
         <v>5</v>
@@ -5404,13 +5404,13 @@
         <v>5.6</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K37" t="n">
         <v>4.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -5425,13 +5425,13 @@
         <v>2.46</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R37" t="n">
         <v>1.59</v>
       </c>
       <c r="S37" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T37" t="n">
         <v>1.7</v>
@@ -5440,7 +5440,7 @@
         <v>2.28</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
         <v>2.32</v>
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G38" t="n">
         <v>1.79</v>
       </c>
       <c r="H38" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I38" t="n">
         <v>5.1</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K38" t="n">
         <v>4.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5557,19 +5557,19 @@
         <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R38" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U38" t="n">
         <v>2.52</v>
@@ -5578,7 +5578,7 @@
         <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="X38" t="n">
         <v>46</v>
@@ -5596,7 +5596,7 @@
         <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD38" t="n">
         <v>21</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G39" t="n">
         <v>2.54</v>
       </c>
       <c r="H39" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I39" t="n">
         <v>2.96</v>
@@ -5680,7 +5680,7 @@
         <v>4.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
@@ -5692,16 +5692,16 @@
         <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="R39" t="n">
         <v>1.77</v>
       </c>
       <c r="S39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T39" t="n">
         <v>1.5</v>
@@ -5713,7 +5713,7 @@
         <v>1.51</v>
       </c>
       <c r="W39" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X39" t="n">
         <v>90</v>
@@ -5725,7 +5725,7 @@
         <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB39" t="n">
         <v>23</v>
@@ -5797,25 +5797,25 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="H40" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="J40" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K40" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
@@ -5830,25 +5830,25 @@
         <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R40" t="n">
         <v>1.85</v>
       </c>
       <c r="S40" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T40" t="n">
         <v>1.58</v>
       </c>
       <c r="U40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W40" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="X40" t="n">
         <v>170</v>
@@ -5860,7 +5860,7 @@
         <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
         <v>34</v>
@@ -5875,7 +5875,7 @@
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AG40" t="n">
         <v>11.5</v>
@@ -5884,7 +5884,7 @@
         <v>29</v>
       </c>
       <c r="AI40" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
         <v>50</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,25 +5932,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G41" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H41" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I41" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K41" t="n">
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
@@ -5962,16 +5962,16 @@
         <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R41" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="T41" t="n">
         <v>1.58</v>
@@ -5980,7 +5980,7 @@
         <v>2.52</v>
       </c>
       <c r="V41" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
         <v>2.12</v>
@@ -6025,7 +6025,7 @@
         <v>22</v>
       </c>
       <c r="AK41" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL41" t="n">
         <v>27</v>
@@ -6034,7 +6034,7 @@
         <v>260</v>
       </c>
       <c r="AN41" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO41" t="n">
         <v>65</v>
@@ -6067,58 +6067,58 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G42" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="J42" t="n">
         <v>4.7</v>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
         <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P42" t="n">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="S42" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="T42" t="n">
         <v>1.6</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V42" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W42" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6205,43 +6205,43 @@
         <v>1.31</v>
       </c>
       <c r="G43" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H43" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J43" t="n">
         <v>6.2</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O43" t="n">
         <v>1.12</v>
       </c>
       <c r="P43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="R43" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S43" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
         <v>1.72</v>
@@ -6250,10 +6250,10 @@
         <v>2.12</v>
       </c>
       <c r="V43" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W43" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X43" t="n">
         <v>120</v>
@@ -6292,7 +6292,7 @@
         <v>400</v>
       </c>
       <c r="AJ43" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AK43" t="n">
         <v>16</v>
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="H44" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="I44" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L44" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>2.8</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="R44" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="S44" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="T44" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="W44" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G45" t="n">
         <v>2.04</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6502,19 +6502,19 @@
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="R45" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S45" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="T45" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U45" t="n">
         <v>1.04</v>
@@ -6574,7 +6574,7 @@
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AO45" t="n">
         <v>220</v>
@@ -6607,55 +6607,55 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H46" t="n">
         <v>2.78</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
         <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S46" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T46" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U46" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="V46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W46" t="n">
         <v>1.58</v>
@@ -6682,10 +6682,10 @@
         <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AF46" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG46" t="n">
         <v>15</v>
@@ -6706,7 +6706,7 @@
         <v>150</v>
       </c>
       <c r="AM46" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
         <v>55</v>
@@ -6733,67 +6733,67 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="H47" t="n">
-        <v>2.84</v>
+        <v>5.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.3</v>
+        <v>7.8</v>
       </c>
       <c r="J47" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="K47" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L47" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="O47" t="n">
         <v>1.46</v>
       </c>
       <c r="P47" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R47" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="U47" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="W47" t="n">
-        <v>1.47</v>
+        <v>2.08</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6808,10 +6808,10 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
@@ -6868,67 +6868,67 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.77</v>
+        <v>2.74</v>
       </c>
       <c r="G48" t="n">
-        <v>1.93</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>4.8</v>
+        <v>2.88</v>
       </c>
       <c r="I48" t="n">
-        <v>7.8</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.25</v>
       </c>
-      <c r="K48" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>2.34</v>
+        <v>2.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="P48" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S48" t="n">
-        <v>1.05</v>
+        <v>4.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="U48" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V48" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="W48" t="n">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -6943,10 +6943,10 @@
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD48" t="n">
         <v>1000</v>
@@ -7012,58 +7012,58 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G49" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H49" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="I49" t="n">
-        <v>9.199999999999999</v>
+        <v>65</v>
       </c>
       <c r="J49" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K49" t="n">
         <v>5.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="O49" t="n">
         <v>1.21</v>
       </c>
       <c r="P49" t="n">
-        <v>1.54</v>
+        <v>2.32</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="R49" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="T49" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U49" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V49" t="n">
         <v>1.13</v>
       </c>
       <c r="W49" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G50" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H50" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I50" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J50" t="n">
         <v>3.7</v>
@@ -7165,7 +7165,7 @@
         <v>3.75</v>
       </c>
       <c r="L50" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -7177,28 +7177,28 @@
         <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T50" t="n">
         <v>1.64</v>
       </c>
       <c r="U50" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V50" t="n">
         <v>1.51</v>
       </c>
       <c r="W50" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X50" t="n">
         <v>18</v>
@@ -7222,7 +7222,7 @@
         <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF50" t="n">
         <v>18</v>
@@ -7231,7 +7231,7 @@
         <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI50" t="n">
         <v>36</v>
@@ -7246,7 +7246,7 @@
         <v>32</v>
       </c>
       <c r="AM50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN50" t="n">
         <v>17</v>
@@ -7282,58 +7282,58 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H51" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
         <v>3.7</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L51" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R51" t="n">
         <v>1.31</v>
       </c>
       <c r="S51" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V51" t="n">
         <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X51" t="n">
         <v>16</v>
@@ -7345,7 +7345,7 @@
         <v>55</v>
       </c>
       <c r="AA51" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB51" t="n">
         <v>9.4</v>
@@ -7357,13 +7357,13 @@
         <v>26</v>
       </c>
       <c r="AE51" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="AF51" t="n">
         <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH51" t="n">
         <v>26</v>
@@ -7417,61 +7417,61 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="G52" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I52" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J52" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="n">
         <v>1.28</v>
       </c>
-      <c r="M52" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.24</v>
-      </c>
       <c r="P52" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="R52" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S52" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="T52" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U52" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V52" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W52" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y52" t="n">
         <v>1000</v>
@@ -7498,7 +7498,7 @@
         <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
         <v>1000</v>
@@ -7555,10 +7555,10 @@
         <v>1.9</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I53" t="n">
         <v>4.1</v>
@@ -7570,7 +7570,7 @@
         <v>4.7</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -7582,16 +7582,16 @@
         <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q53" t="n">
         <v>1.48</v>
       </c>
       <c r="R53" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S53" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T53" t="n">
         <v>1.52</v>
@@ -7603,7 +7603,7 @@
         <v>1.33</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X53" t="n">
         <v>32</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G54" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="H54" t="n">
         <v>8.6</v>
       </c>
       <c r="I54" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="J54" t="n">
         <v>5.4</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,43 +7822,43 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G55" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J55" t="n">
         <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L55" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R55" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S55" t="n">
         <v>2.88</v>
@@ -7870,10 +7870,10 @@
         <v>1.04</v>
       </c>
       <c r="V55" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W55" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G56" t="n">
         <v>2.56</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H56" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I56" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -7981,40 +7981,40 @@
         <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P56" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S56" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W56" t="n">
         <v>1.64</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.63</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z56" t="n">
         <v>22</v>
@@ -8056,7 +8056,7 @@
         <v>34</v>
       </c>
       <c r="AM56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN56" t="n">
         <v>16.5</v>
@@ -8110,13 +8110,13 @@
         <v>3.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M57" t="n">
         <v>1.12</v>
       </c>
       <c r="N57" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O57" t="n">
         <v>1.52</v>
@@ -8131,13 +8131,13 @@
         <v>1.22</v>
       </c>
       <c r="S57" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T57" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U57" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V57" t="n">
         <v>1.5</v>
@@ -8149,7 +8149,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
         <v>17.5</v>
@@ -8227,13 +8227,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H58" t="n">
         <v>2.8</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.82</v>
       </c>
       <c r="I58" t="n">
         <v>2.86</v>
@@ -8257,13 +8257,13 @@
         <v>1.34</v>
       </c>
       <c r="P58" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R58" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S58" t="n">
         <v>3.75</v>
@@ -8272,16 +8272,16 @@
         <v>1.78</v>
       </c>
       <c r="U58" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V58" t="n">
         <v>1.53</v>
       </c>
       <c r="W58" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X58" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y58" t="n">
         <v>11.5</v>
@@ -8290,7 +8290,7 @@
         <v>17.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB58" t="n">
         <v>11</v>
@@ -8311,13 +8311,13 @@
         <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
         <v>46</v>
       </c>
       <c r="AJ58" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK58" t="n">
         <v>32</v>
@@ -8326,13 +8326,13 @@
         <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN58" t="n">
         <v>28</v>
       </c>
       <c r="AO58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G59" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H59" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J59" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K59" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.25</v>
@@ -8497,46 +8497,46 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="G60" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="H60" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="I60" t="n">
         <v>1000</v>
       </c>
       <c r="J60" t="n">
-        <v>1.09</v>
+        <v>4.5</v>
       </c>
       <c r="K60" t="n">
         <v>1000</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="O60" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="R60" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S60" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="T60" t="n">
         <v>1.04</v>
@@ -8545,10 +8545,10 @@
         <v>1.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W60" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
         <v>13.5</v>
@@ -745,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -757,10 +757,10 @@
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -769,7 +769,7 @@
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -808,10 +808,10 @@
         <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J3" t="n">
         <v>3.85</v>
@@ -820,46 +820,46 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
         <v>1.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -868,10 +868,10 @@
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -886,10 +886,10 @@
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
         <v>55</v>
@@ -898,16 +898,16 @@
         <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
         <v>5.2</v>
@@ -979,16 +979,16 @@
         <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -1006,10 +1006,10 @@
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1024,22 +1024,22 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K5" t="n">
         <v>7.8</v>
@@ -1108,13 +1108,13 @@
         <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1165,7 +1165,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1210,19 +1210,19 @@
         <v>2.84</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
@@ -1249,22 +1249,22 @@
         <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
         <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
         <v>970</v>
@@ -1273,7 +1273,7 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1291,7 +1291,7 @@
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>260</v>
@@ -1354,10 +1354,10 @@
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1372,7 +1372,7 @@
         <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.04</v>
@@ -1390,7 +1390,7 @@
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.71</v>
@@ -1483,16 +1483,16 @@
         <v>1.49</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1501,28 +1501,28 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.46</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,10 +1567,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
         <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>2.14</v>
@@ -1759,46 +1759,46 @@
         <v>2.32</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
         <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.44</v>
       </c>
       <c r="I11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="n">
         <v>4.6</v>
@@ -1927,7 +1927,7 @@
         <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
         <v>3.15</v>
@@ -1942,7 +1942,7 @@
         <v>7.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AA11" t="n">
         <v>22</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
         <v>2.98</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
@@ -2065,7 +2065,7 @@
         <v>2.56</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
         <v>1.71</v>
@@ -2197,13 +2197,13 @@
         <v>1.91</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2218,19 +2218,19 @@
         <v>270</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="n">
         <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2242,10 +2242,10 @@
         <v>290</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
         <v>95</v>
@@ -2257,7 +2257,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -2305,28 +2305,28 @@
         <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.33</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T14" t="n">
         <v>1.85</v>
@@ -2341,7 +2341,7 @@
         <v>2.14</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2467,7 +2467,7 @@
         <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.86</v>
@@ -2560,13 +2560,13 @@
         <v>3.5</v>
       </c>
       <c r="G16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
         <v>1.38</v>
@@ -2605,10 +2605,10 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X16" t="n">
         <v>14.5</v>
@@ -2620,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2644,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
         <v>65</v>
@@ -2662,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="n">
         <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2710,7 +2710,7 @@
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2722,7 +2722,7 @@
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
         <v>1.69</v>
@@ -2740,7 +2740,7 @@
         <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W17" t="n">
         <v>1.29</v>
@@ -2749,16 +2749,16 @@
         <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
@@ -2767,16 +2767,16 @@
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>28</v>
@@ -2794,10 +2794,10 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="18">
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I20" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3115,55 +3115,55 @@
         <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
         <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
         <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
         <v>9.4</v>
@@ -3175,7 +3175,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -3187,22 +3187,22 @@
         <v>26</v>
       </c>
       <c r="AJ20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
         <v>60</v>
       </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>55</v>
-      </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G21" t="n">
         <v>3.85</v>
@@ -3295,7 +3295,7 @@
         <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
         <v>36</v>
@@ -3334,7 +3334,7 @@
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
@@ -3379,10 +3379,10 @@
         <v>2.24</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.49</v>
@@ -3391,25 +3391,25 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
         <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
         <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
         <v>1.96</v>
@@ -3421,13 +3421,13 @@
         <v>1.31</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
         <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AA22" t="n">
         <v>120</v>
@@ -3514,7 +3514,7 @@
         <v>7.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
         <v>4.5</v>
@@ -3523,7 +3523,7 @@
         <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
         <v>3.1</v>
@@ -3808,7 +3808,7 @@
         <v>2.22</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
         <v>4.1</v>
@@ -3934,7 +3934,7 @@
         <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P26" t="n">
         <v>1.76</v>
@@ -3946,7 +3946,7 @@
         <v>1.28</v>
       </c>
       <c r="S26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
         <v>1.72</v>
@@ -4051,10 +4051,10 @@
         <v>2.04</v>
       </c>
       <c r="I27" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
         <v>3.55</v>
@@ -4066,7 +4066,7 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="O27" t="n">
         <v>1.48</v>
@@ -4081,7 +4081,7 @@
         <v>1.2</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="T27" t="n">
         <v>1.94</v>
@@ -4090,7 +4090,7 @@
         <v>1.65</v>
       </c>
       <c r="V27" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W27" t="n">
         <v>1.27</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -4180,16 +4180,16 @@
         <v>2.3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>3.6</v>
@@ -4204,19 +4204,19 @@
         <v>3.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
         <v>1.73</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T28" t="n">
         <v>1.05</v>
@@ -4225,10 +4225,10 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4315,13 +4315,13 @@
         <v>1.74</v>
       </c>
       <c r="G29" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
         <v>3.75</v>
@@ -4330,46 +4330,46 @@
         <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R29" t="n">
         <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z29" t="n">
         <v>55</v>
@@ -4378,10 +4378,10 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
         <v>23</v>
@@ -4396,7 +4396,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4408,13 +4408,13 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4492,7 +4492,7 @@
         <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="V30" t="n">
         <v>1.14</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="G31" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I31" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="J31" t="n">
         <v>4.1</v>
@@ -4600,7 +4600,7 @@
         <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4609,43 +4609,43 @@
         <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
         <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
         <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="AA31" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB31" t="n">
         <v>7.8</v>
@@ -4657,37 +4657,37 @@
         <v>75</v>
       </c>
       <c r="AE31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>130</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -4717,82 +4717,82 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G32" t="n">
         <v>2.56</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W32" t="n">
         <v>1.64</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
         <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
         <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AF32" t="n">
         <v>15</v>
@@ -4801,25 +4801,25 @@
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
         <v>80</v>
@@ -4867,10 +4867,10 @@
         <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
@@ -4879,22 +4879,22 @@
         <v>3.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P33" t="n">
         <v>1.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R33" t="n">
         <v>1.26</v>
       </c>
       <c r="S33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
         <v>1.96</v>
@@ -4915,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="AB33" t="n">
         <v>11.5</v>
@@ -4930,7 +4930,7 @@
         <v>120</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG33" t="n">
         <v>13.5</v>
@@ -4939,16 +4939,16 @@
         <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ33" t="n">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="AK33" t="n">
         <v>120</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="I34" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>3.2</v>
@@ -5011,64 +5011,64 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" t="n">
         <v>2.56</v>
       </c>
       <c r="R34" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S34" t="n">
         <v>5.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.52</v>
       </c>
-      <c r="W34" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X34" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC34" t="n">
         <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
         <v>240</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
         <v>22</v>
@@ -5080,7 +5080,7 @@
         <v>210</v>
       </c>
       <c r="AK34" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="n">
         <v>400</v>
@@ -5089,7 +5089,7 @@
         <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AO34" t="n">
         <v>90</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
@@ -5149,19 +5149,19 @@
         <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
         <v>1.67</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R35" t="n">
         <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T35" t="n">
         <v>2.02</v>
@@ -5170,16 +5170,16 @@
         <v>1.81</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X35" t="n">
         <v>11</v>
       </c>
       <c r="Y35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z35" t="n">
         <v>100</v>
@@ -5194,13 +5194,13 @@
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
@@ -5212,7 +5212,7 @@
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK35" t="n">
         <v>70</v>
@@ -5224,7 +5224,7 @@
         <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,76 +5257,76 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="I36" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
         <v>3.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R36" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S36" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="T36" t="n">
         <v>1.67</v>
       </c>
       <c r="U36" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X36" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA36" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AB36" t="n">
         <v>16.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
         <v>11.5</v>
@@ -5335,34 +5335,34 @@
         <v>22</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI36" t="n">
         <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK36" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="37">
@@ -5395,10 +5395,10 @@
         <v>1.68</v>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I37" t="n">
         <v>5.6</v>
@@ -5422,13 +5422,13 @@
         <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R37" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
         <v>2.52</v>
@@ -5440,13 +5440,13 @@
         <v>2.28</v>
       </c>
       <c r="V37" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W37" t="n">
         <v>2.32</v>
       </c>
       <c r="X37" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y37" t="n">
         <v>24</v>
@@ -5476,7 +5476,7 @@
         <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5488,13 +5488,13 @@
         <v>17</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5530,7 +5530,7 @@
         <v>1.71</v>
       </c>
       <c r="G38" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H38" t="n">
         <v>4.6</v>
@@ -5548,25 +5548,25 @@
         <v>1.27</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O38" t="n">
         <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="S38" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T38" t="n">
         <v>1.57</v>
@@ -5578,7 +5578,7 @@
         <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X38" t="n">
         <v>46</v>
@@ -5629,7 +5629,7 @@
         <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO38" t="n">
         <v>290</v>
@@ -5686,19 +5686,19 @@
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O39" t="n">
         <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q39" t="n">
         <v>1.47</v>
       </c>
       <c r="R39" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S39" t="n">
         <v>2.2</v>
@@ -5707,7 +5707,7 @@
         <v>1.5</v>
       </c>
       <c r="U39" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="V39" t="n">
         <v>1.51</v>
@@ -5758,13 +5758,13 @@
         <v>40</v>
       </c>
       <c r="AL39" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO39" t="n">
         <v>16</v>
@@ -5797,61 +5797,61 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G40" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J40" t="n">
         <v>4.6</v>
       </c>
       <c r="K40" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R40" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T40" t="n">
         <v>1.58</v>
       </c>
       <c r="U40" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W40" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X40" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
         <v>1000</v>
@@ -5860,46 +5860,46 @@
         <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
         <v>29</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>5.9</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H41" t="n">
         <v>4.5</v>
@@ -5944,52 +5944,52 @@
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S41" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T41" t="n">
         <v>1.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="V41" t="n">
         <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="Z41" t="n">
         <v>110</v>
@@ -5998,7 +5998,7 @@
         <v>330</v>
       </c>
       <c r="AB41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC41" t="n">
         <v>10.5</v>
@@ -6016,7 +6016,7 @@
         <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI41" t="n">
         <v>130</v>
@@ -6025,19 +6025,19 @@
         <v>22</v>
       </c>
       <c r="AK41" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM41" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO41" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G42" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H42" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I42" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J42" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K42" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
         <v>1.25</v>
@@ -6106,7 +6106,7 @@
         <v>1.79</v>
       </c>
       <c r="S42" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T42" t="n">
         <v>1.6</v>
@@ -6115,10 +6115,10 @@
         <v>2.22</v>
       </c>
       <c r="V42" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W42" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G43" t="n">
         <v>1.35</v>
@@ -6241,7 +6241,7 @@
         <v>1.92</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T43" t="n">
         <v>1.72</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G44" t="n">
         <v>2.86</v>
@@ -6346,10 +6346,10 @@
         <v>2.68</v>
       </c>
       <c r="I44" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
         <v>3.75</v>
@@ -6385,7 +6385,7 @@
         <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W44" t="n">
         <v>1.54</v>
@@ -6496,13 +6496,13 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q45" t="n">
         <v>1.52</v>
@@ -6526,7 +6526,7 @@
         <v>1.96</v>
       </c>
       <c r="X45" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="Y45" t="n">
         <v>55</v>
@@ -6607,79 +6607,79 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="G46" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H46" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I46" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O46" t="n">
         <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R46" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U46" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="V46" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="W46" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X46" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y46" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AA46" t="n">
         <v>280</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC46" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD46" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
         <v>90</v>
@@ -6688,10 +6688,10 @@
         <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
         <v>150</v>
@@ -6700,7 +6700,7 @@
         <v>140</v>
       </c>
       <c r="AK46" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="n">
         <v>150</v>
@@ -6712,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G47" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H47" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I47" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="J47" t="n">
         <v>3.25</v>
@@ -6763,34 +6763,34 @@
         <v>1.55</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P47" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R47" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T47" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U47" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V47" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
         <v>2.08</v>
@@ -6808,10 +6808,10 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
@@ -6820,10 +6820,10 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH47" t="n">
         <v>1000</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J48" t="n">
         <v>2.74</v>
@@ -6895,13 +6895,13 @@
         <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M48" t="n">
         <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O48" t="n">
         <v>1.47</v>
@@ -6925,13 +6925,13 @@
         <v>1.96</v>
       </c>
       <c r="V48" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="W48" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
         <v>1000</v>
@@ -6943,7 +6943,7 @@
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
         <v>7</v>
@@ -7030,28 +7030,28 @@
         <v>5.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M49" t="n">
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O49" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P49" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R49" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T49" t="n">
         <v>1.65</v>
@@ -7189,7 +7189,7 @@
         <v>2.92</v>
       </c>
       <c r="T50" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U50" t="n">
         <v>2.48</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G51" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I51" t="n">
         <v>6</v>
@@ -7312,28 +7312,28 @@
         <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q51" t="n">
         <v>2.02</v>
       </c>
       <c r="R51" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U51" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V51" t="n">
         <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X51" t="n">
         <v>16</v>
@@ -7357,7 +7357,7 @@
         <v>26</v>
       </c>
       <c r="AE51" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF51" t="n">
         <v>11</v>
@@ -7372,7 +7372,7 @@
         <v>330</v>
       </c>
       <c r="AJ51" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK51" t="n">
         <v>25</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G52" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H52" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J52" t="n">
         <v>3.65</v>
@@ -7447,19 +7447,19 @@
         <v>1.28</v>
       </c>
       <c r="P52" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q52" t="n">
         <v>1.86</v>
       </c>
       <c r="R52" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S52" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U52" t="n">
         <v>2.08</v>
@@ -7591,7 +7591,7 @@
         <v>1.72</v>
       </c>
       <c r="S53" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="T53" t="n">
         <v>1.52</v>
@@ -7960,13 +7960,13 @@
         <v>2.54</v>
       </c>
       <c r="G56" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H56" t="n">
         <v>2.9</v>
       </c>
       <c r="I56" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -7999,16 +7999,16 @@
         <v>2.86</v>
       </c>
       <c r="T56" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U56" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V56" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W56" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -8020,7 +8020,7 @@
         <v>22</v>
       </c>
       <c r="AA56" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB56" t="n">
         <v>13.5</v>
@@ -8041,7 +8041,7 @@
         <v>11.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI56" t="n">
         <v>36</v>
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G57" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H57" t="n">
         <v>2.98</v>
@@ -8110,94 +8110,94 @@
         <v>3.2</v>
       </c>
       <c r="L57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O57" t="n">
         <v>1.57</v>
       </c>
-      <c r="M57" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.52</v>
-      </c>
       <c r="P57" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="R57" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S57" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="T57" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U57" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="V57" t="n">
         <v>1.5</v>
       </c>
       <c r="W57" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X57" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z57" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA57" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE57" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF57" t="n">
         <v>16</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI57" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ57" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK57" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL57" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM57" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN57" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO57" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -8230,10 +8230,10 @@
         <v>2.78</v>
       </c>
       <c r="G58" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H58" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I58" t="n">
         <v>2.86</v>
@@ -8251,28 +8251,28 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O58" t="n">
         <v>1.34</v>
       </c>
       <c r="P58" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R58" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S58" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T58" t="n">
         <v>1.78</v>
       </c>
       <c r="U58" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V58" t="n">
         <v>1.53</v>
@@ -8281,7 +8281,7 @@
         <v>1.54</v>
       </c>
       <c r="X58" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y58" t="n">
         <v>11.5</v>
@@ -8290,7 +8290,7 @@
         <v>17.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB58" t="n">
         <v>11</v>
@@ -8302,7 +8302,7 @@
         <v>12</v>
       </c>
       <c r="AE58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF58" t="n">
         <v>18.5</v>
@@ -8323,16 +8323,16 @@
         <v>32</v>
       </c>
       <c r="AL58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM58" t="n">
         <v>95</v>
       </c>
       <c r="AN58" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO58" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G59" t="n">
         <v>1.65</v>
       </c>
       <c r="H59" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I59" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J59" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K59" t="n">
         <v>4.8</v>
@@ -8386,16 +8386,16 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O59" t="n">
         <v>1.25</v>
       </c>
       <c r="P59" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="G60" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H60" t="n">
-        <v>1.8</v>
+        <v>3.15</v>
       </c>
       <c r="I60" t="n">
         <v>1000</v>
@@ -8521,22 +8521,22 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O60" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T60" t="n">
         <v>1.04</v>
@@ -8545,10 +8545,10 @@
         <v>1.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W60" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.76</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.68</v>
@@ -679,100 +679,100 @@
         <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="V2" t="n">
         <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
         <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="3">
@@ -817,31 +817,31 @@
         <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
@@ -850,25 +850,25 @@
         <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.6</v>
@@ -880,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -901,7 +901,7 @@
         <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
         <v>25</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G4" t="n">
         <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>4.6</v>
@@ -967,10 +967,10 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>1.52</v>
@@ -979,43 +979,43 @@
         <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
         <v>2.8</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1024,16 +1024,16 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>14.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
         <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
         <v>7.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V5" t="n">
         <v>1.04</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
@@ -1237,10 +1237,10 @@
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
@@ -1249,16 +1249,16 @@
         <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X6" t="n">
         <v>90</v>
@@ -1270,7 +1270,7 @@
         <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AB6" t="n">
         <v>22</v>
@@ -1285,7 +1285,7 @@
         <v>95</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>970</v>
@@ -1345,37 +1345,37 @@
         <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>1.29</v>
@@ -1393,7 +1393,7 @@
         <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1432,10 +1432,10 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>4.8</v>
@@ -1495,7 +1495,7 @@
         <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1504,10 +1504,10 @@
         <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.59</v>
@@ -1519,7 +1519,7 @@
         <v>2.48</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
@@ -1528,10 +1528,10 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1570,7 +1570,7 @@
         <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
         <v>4.8</v>
@@ -1636,19 +1636,19 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>2.66</v>
@@ -1663,7 +1663,7 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
@@ -1678,16 +1678,16 @@
         <v>200</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AF9" t="n">
         <v>10.5</v>
@@ -1696,28 +1696,28 @@
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
       </c>
       <c r="AM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>110</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1747,94 +1747,94 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
         <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1849,10 +1849,10 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G11" t="n">
         <v>11.5</v>
@@ -1891,46 +1891,46 @@
         <v>1.44</v>
       </c>
       <c r="I11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V11" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -1939,7 +1939,7 @@
         <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z11" t="n">
         <v>7.6</v>
@@ -1975,19 +1975,19 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AM11" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
         <v>3.15</v>
@@ -2047,7 +2047,7 @@
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
         <v>1.61</v>
@@ -2056,7 +2056,7 @@
         <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
         <v>1.6</v>
@@ -2065,16 +2065,16 @@
         <v>2.56</v>
       </c>
       <c r="V12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
         <v>30</v>
@@ -2083,46 +2083,46 @@
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I13" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>5.1</v>
@@ -2176,34 +2176,34 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2230,7 +2230,7 @@
         <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2242,10 +2242,10 @@
         <v>290</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
         <v>95</v>
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2359,16 +2359,16 @@
         <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
         <v>2.04</v>
@@ -2434,13 +2434,13 @@
         <v>2.18</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2464,40 +2464,40 @@
         <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="n">
         <v>1000</v>
@@ -2515,7 +2515,7 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2566,10 +2566,10 @@
         <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
@@ -2587,25 +2587,25 @@
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
         <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W16" t="n">
         <v>1.38</v>
@@ -2617,10 +2617,10 @@
         <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2638,19 +2638,19 @@
         <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
         <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
         <v>50</v>
@@ -2659,7 +2659,7 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
         <v>17.5</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
         <v>4.5</v>
@@ -2701,10 +2701,10 @@
         <v>1.89</v>
       </c>
       <c r="I17" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
@@ -2719,19 +2719,19 @@
         <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
         <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T17" t="n">
         <v>1.7</v>
@@ -2740,25 +2740,25 @@
         <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W17" t="n">
         <v>1.29</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
         <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
@@ -2767,7 +2767,7 @@
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
@@ -2776,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
         <v>28</v>
@@ -2785,19 +2785,19 @@
         <v>200</v>
       </c>
       <c r="AK17" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="n">
         <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN17" t="n">
         <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2965,19 +2965,19 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
         <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2986,7 +2986,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.18</v>
@@ -2995,13 +2995,13 @@
         <v>2.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
         <v>1.64</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.59</v>
@@ -3010,19 +3010,19 @@
         <v>2.58</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
         <v>90</v>
       </c>
       <c r="Y19" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="Z19" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3031,7 +3031,7 @@
         <v>17.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AD19" t="n">
         <v>18.5</v>
@@ -3043,19 +3043,19 @@
         <v>20</v>
       </c>
       <c r="AG19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH19" t="n">
         <v>26</v>
       </c>
-      <c r="AH19" t="n">
-        <v>25</v>
-      </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.65</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K20" t="n">
         <v>4</v>
       </c>
-      <c r="K20" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3127,25 +3127,25 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U20" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W20" t="n">
         <v>1.37</v>
@@ -3157,31 +3157,31 @@
         <v>14</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
         <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -3190,19 +3190,19 @@
         <v>65</v>
       </c>
       <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
         <v>36</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,73 +3232,73 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="n">
         <v>9.4</v>
@@ -3307,37 +3307,37 @@
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM21" t="n">
         <v>75</v>
       </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>70</v>
-      </c>
       <c r="AN21" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I22" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>1.49</v>
@@ -3409,16 +3409,16 @@
         <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
         <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W22" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X22" t="n">
         <v>23</v>
@@ -3451,7 +3451,7 @@
         <v>38</v>
       </c>
       <c r="AH22" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
         <v>300</v>
@@ -3469,7 +3469,7 @@
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
         <v>55</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
@@ -3529,34 +3529,34 @@
         <v>3.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3580,22 +3580,22 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
         <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -3661,37 +3661,37 @@
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
         <v>2.36</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U24" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
         <v>1.6</v>
       </c>
       <c r="W24" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>10.5</v>
@@ -3700,10 +3700,10 @@
         <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
         <v>8.6</v>
@@ -3712,13 +3712,13 @@
         <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
         <v>48</v>
       </c>
       <c r="AG24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3727,7 +3727,7 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
@@ -3772,64 +3772,64 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G25" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O25" t="n">
         <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="V25" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
         <v>120</v>
@@ -3838,43 +3838,43 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AC25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
         <v>42</v>
       </c>
-      <c r="AD25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>85</v>
-      </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="I26" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
         <v>1.46</v>
@@ -3931,34 +3931,34 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="T26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.72</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3970,13 +3970,13 @@
         <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
         <v>1.56</v>
@@ -4066,55 +4066,55 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O27" t="n">
         <v>1.48</v>
       </c>
       <c r="P27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
         <v>2.48</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
         <v>1.81</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="n">
         <v>140</v>
@@ -4123,7 +4123,7 @@
         <v>120</v>
       </c>
       <c r="AG27" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
         <v>110</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28">
@@ -4177,61 +4177,61 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
         <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
         <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
         <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X28" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y28" t="n">
         <v>970</v>
@@ -4243,10 +4243,10 @@
         <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD28" t="n">
         <v>970</v>
@@ -4261,7 +4261,7 @@
         <v>970</v>
       </c>
       <c r="AH28" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4279,10 +4279,10 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO28" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G29" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I29" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.75</v>
@@ -4336,13 +4336,13 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="Q29" t="n">
         <v>2.02</v>
@@ -4360,19 +4360,19 @@
         <v>1.92</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
         <v>21</v>
       </c>
       <c r="Z29" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
@@ -4384,7 +4384,7 @@
         <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4396,10 +4396,10 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ29" t="n">
         <v>19.5</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,52 +4447,52 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G30" t="n">
         <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
         <v>1.14</v>
@@ -4501,43 +4501,43 @@
         <v>2.58</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
       </c>
       <c r="AE30" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
         <v>170</v>
       </c>
-      <c r="AF30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>160</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="AK30" t="n">
         <v>70</v>
@@ -4549,7 +4549,7 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="G31" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="U31" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W31" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z31" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AA31" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="AB31" t="n">
         <v>7.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
@@ -4720,13 +4720,13 @@
         <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
@@ -4735,7 +4735,7 @@
         <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -4744,34 +4744,34 @@
         <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
         <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
         <v>1.64</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>10.5</v>
@@ -4783,7 +4783,7 @@
         <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
@@ -4792,22 +4792,22 @@
         <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG32" t="n">
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK32" t="n">
         <v>32</v>
@@ -4816,13 +4816,13 @@
         <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO32" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -4852,103 +4852,103 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="G33" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S33" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U33" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X33" t="n">
         <v>11.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA33" t="n">
         <v>340</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
         <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE33" t="n">
         <v>120</v>
       </c>
       <c r="AF33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG33" t="n">
         <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
         <v>300</v>
       </c>
       <c r="AJ33" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="AK33" t="n">
         <v>120</v>
       </c>
       <c r="AL33" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H34" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
         <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P34" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
         <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK34" t="n">
         <v>240</v>
       </c>
-      <c r="AF34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>130</v>
-      </c>
       <c r="AL34" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
         <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO34" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35">
@@ -5131,22 +5131,22 @@
         <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
@@ -5155,7 +5155,7 @@
         <v>1.67</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R35" t="n">
         <v>1.24</v>
@@ -5167,7 +5167,7 @@
         <v>2.02</v>
       </c>
       <c r="U35" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V35" t="n">
         <v>1.27</v>
@@ -5197,10 +5197,10 @@
         <v>19.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
@@ -5209,7 +5209,7 @@
         <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ35" t="n">
         <v>27</v>
@@ -5218,7 +5218,7 @@
         <v>70</v>
       </c>
       <c r="AL35" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
@@ -5257,64 +5257,64 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H36" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R36" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S36" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U36" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V36" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W36" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
         <v>15</v>
@@ -5323,7 +5323,7 @@
         <v>27</v>
       </c>
       <c r="AB36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC36" t="n">
         <v>8.6</v>
@@ -5341,28 +5341,28 @@
         <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AK36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN36" t="n">
         <v>40</v>
       </c>
-      <c r="AL36" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>34</v>
-      </c>
       <c r="AO36" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="37">
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G37" t="n">
         <v>1.74</v>
       </c>
       <c r="H37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
         <v>5.6</v>
@@ -5410,46 +5410,46 @@
         <v>4.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X37" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -5458,7 +5458,7 @@
         <v>140</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -5473,19 +5473,19 @@
         <v>12.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
         <v>18.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ37" t="n">
         <v>18.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL37" t="n">
         <v>75</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5533,13 +5533,13 @@
         <v>1.77</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J38" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
         <v>4.7</v>
@@ -5560,31 +5560,31 @@
         <v>2.78</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R38" t="n">
         <v>1.74</v>
       </c>
       <c r="S38" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T38" t="n">
         <v>1.57</v>
       </c>
       <c r="U38" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W38" t="n">
         <v>2.28</v>
       </c>
       <c r="X38" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z38" t="n">
         <v>190</v>
@@ -5593,10 +5593,10 @@
         <v>120</v>
       </c>
       <c r="AB38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
         <v>21</v>
@@ -5605,7 +5605,7 @@
         <v>330</v>
       </c>
       <c r="AF38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG38" t="n">
         <v>11.5</v>
@@ -5632,7 +5632,7 @@
         <v>6.8</v>
       </c>
       <c r="AO38" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G39" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I39" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="J39" t="n">
         <v>4.1</v>
@@ -5686,19 +5686,19 @@
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q39" t="n">
         <v>1.47</v>
       </c>
       <c r="R39" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S39" t="n">
         <v>2.2</v>
@@ -5707,10 +5707,10 @@
         <v>1.5</v>
       </c>
       <c r="U39" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="V39" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W39" t="n">
         <v>1.66</v>
@@ -5725,13 +5725,13 @@
         <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB39" t="n">
         <v>23</v>
       </c>
       <c r="AC39" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD39" t="n">
         <v>17</v>
@@ -5764,10 +5764,10 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J40" t="n">
         <v>4.6</v>
       </c>
       <c r="K40" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L40" t="n">
         <v>1.26</v>
@@ -5824,34 +5824,34 @@
         <v>6.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P40" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R40" t="n">
         <v>1.74</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T40" t="n">
         <v>1.58</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="V40" t="n">
         <v>1.23</v>
       </c>
       <c r="W40" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="Y40" t="n">
         <v>1000</v>
@@ -5860,46 +5860,46 @@
         <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>29</v>
+        <v>6.4</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,64 +5932,64 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G41" t="n">
         <v>1.91</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="R41" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="S41" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="T41" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U41" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="V41" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W41" t="n">
         <v>2.08</v>
       </c>
       <c r="X41" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Z41" t="n">
         <v>110</v>
@@ -5998,43 +5998,43 @@
         <v>330</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG41" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
         <v>16</v>
       </c>
       <c r="AI41" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
         <v>22</v>
       </c>
       <c r="AK41" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM41" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO41" t="n">
         <v>270</v>
@@ -6070,19 +6070,19 @@
         <v>1.54</v>
       </c>
       <c r="G42" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K42" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6</v>
       </c>
       <c r="L42" t="n">
         <v>1.25</v>
@@ -6091,10 +6091,10 @@
         <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P42" t="n">
         <v>2.96</v>
@@ -6103,22 +6103,22 @@
         <v>1.45</v>
       </c>
       <c r="R42" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="S42" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T42" t="n">
         <v>1.6</v>
       </c>
       <c r="U42" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="V42" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W42" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6130,7 +6130,7 @@
         <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB42" t="n">
         <v>1000</v>
@@ -6145,10 +6145,10 @@
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
         <v>1000</v>
@@ -6157,7 +6157,7 @@
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>29</v>
+        <v>5.3</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6205,55 +6205,55 @@
         <v>1.3</v>
       </c>
       <c r="G43" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H43" t="n">
         <v>10.5</v>
       </c>
       <c r="I43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J43" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K43" t="n">
         <v>6.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
         <v>1.12</v>
       </c>
       <c r="P43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S43" t="n">
         <v>1.92</v>
       </c>
-      <c r="S43" t="n">
-        <v>1.99</v>
-      </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="U43" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V43" t="n">
         <v>1.09</v>
       </c>
       <c r="W43" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X43" t="n">
         <v>120</v>
@@ -6262,10 +6262,10 @@
         <v>270</v>
       </c>
       <c r="Z43" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA43" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AB43" t="n">
         <v>970</v>
@@ -6280,7 +6280,7 @@
         <v>140</v>
       </c>
       <c r="AF43" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG43" t="n">
         <v>19</v>
@@ -6292,10 +6292,10 @@
         <v>400</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AK43" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AL43" t="n">
         <v>75</v>
@@ -6304,7 +6304,7 @@
         <v>330</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AO43" t="n">
         <v>120</v>
@@ -6343,7 +6343,7 @@
         <v>2.86</v>
       </c>
       <c r="H44" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
         <v>2.86</v>
@@ -6352,13 +6352,13 @@
         <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
         <v>1.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
         <v>3.85</v>
@@ -6367,7 +6367,7 @@
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q44" t="n">
         <v>1.92</v>
@@ -6379,19 +6379,19 @@
         <v>3.35</v>
       </c>
       <c r="T44" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="U44" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V44" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W44" t="n">
         <v>1.54</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y44" t="n">
         <v>1000</v>
@@ -6406,7 +6406,7 @@
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G45" t="n">
         <v>2.04</v>
@@ -6481,46 +6481,46 @@
         <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="n">
         <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R45" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T45" t="n">
         <v>1.56</v>
       </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W45" t="n">
         <v>1.96</v>
@@ -6553,7 +6553,7 @@
         <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>34</v>
@@ -6574,10 +6574,10 @@
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AO45" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46">
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G46" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
         <v>3.5</v>
@@ -6640,31 +6640,31 @@
         <v>2.26</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S46" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T46" t="n">
         <v>1.59</v>
       </c>
       <c r="U46" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V46" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W46" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X46" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Z46" t="n">
         <v>60</v>
@@ -6676,7 +6676,7 @@
         <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
@@ -6697,7 +6697,7 @@
         <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="AK46" t="n">
         <v>75</v>
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G47" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="H47" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I47" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K47" t="n">
         <v>3.65</v>
@@ -6763,37 +6763,37 @@
         <v>1.55</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O47" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R47" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S47" t="n">
         <v>4.7</v>
       </c>
       <c r="T47" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U47" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W47" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6802,7 +6802,7 @@
         <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="K48" t="n">
         <v>3.25</v>
@@ -6901,16 +6901,16 @@
         <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O48" t="n">
         <v>1.47</v>
       </c>
       <c r="P48" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R48" t="n">
         <v>1.23</v>
@@ -6919,19 +6919,19 @@
         <v>4.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U48" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V48" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="Y48" t="n">
         <v>1000</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G49" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="H49" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K49" t="n">
         <v>5.2</v>
@@ -7039,34 +7039,34 @@
         <v>4.7</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P49" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S49" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T49" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="U49" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W49" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y49" t="n">
         <v>1000</v>
@@ -7078,10 +7078,10 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD49" t="n">
         <v>1000</v>
@@ -7090,31 +7090,31 @@
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>29</v>
+        <v>6.8</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G50" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="I50" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="J50" t="n">
         <v>3.7</v>
@@ -7189,34 +7189,34 @@
         <v>2.92</v>
       </c>
       <c r="T50" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U50" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="V50" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W50" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X50" t="n">
         <v>18</v>
       </c>
       <c r="Y50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z50" t="n">
         <v>21</v>
       </c>
       <c r="AA50" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB50" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD50" t="n">
         <v>13</v>
@@ -7237,7 +7237,7 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK50" t="n">
         <v>25</v>
@@ -7246,13 +7246,13 @@
         <v>32</v>
       </c>
       <c r="AM50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN50" t="n">
         <v>17</v>
       </c>
       <c r="AO50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -7282,64 +7282,64 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G51" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H51" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P51" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S51" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T51" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U51" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V51" t="n">
         <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X51" t="n">
         <v>16</v>
       </c>
       <c r="Y51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="n">
         <v>55</v>
@@ -7351,7 +7351,7 @@
         <v>9.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
         <v>26</v>
@@ -7360,7 +7360,7 @@
         <v>420</v>
       </c>
       <c r="AF51" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG51" t="n">
         <v>10</v>
@@ -7375,7 +7375,7 @@
         <v>19.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL51" t="n">
         <v>50</v>
@@ -7384,7 +7384,7 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO51" t="n">
         <v>530</v>
@@ -7417,61 +7417,61 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="G52" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I52" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R52" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S52" t="n">
         <v>3.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U52" t="n">
         <v>2.08</v>
       </c>
       <c r="V52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="X52" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="n">
         <v>1000</v>
@@ -7519,7 +7519,7 @@
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G53" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
         <v>4.1</v>
@@ -7567,52 +7567,52 @@
         <v>4.1</v>
       </c>
       <c r="K53" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L53" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P53" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R53" t="n">
         <v>1.72</v>
       </c>
       <c r="S53" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="T53" t="n">
         <v>1.52</v>
       </c>
       <c r="U53" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V53" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W53" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y53" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
@@ -7621,13 +7621,13 @@
         <v>18</v>
       </c>
       <c r="AC53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AF53" t="n">
         <v>18.5</v>
@@ -7645,7 +7645,7 @@
         <v>24</v>
       </c>
       <c r="AK53" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL53" t="n">
         <v>27</v>
@@ -7657,7 +7657,7 @@
         <v>8.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G54" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H54" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
         <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K54" t="n">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="G55" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -7834,52 +7834,52 @@
         <v>2.1</v>
       </c>
       <c r="J55" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K55" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
         <v>1.44</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P55" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R55" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S55" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="T55" t="n">
-        <v>1.05</v>
+        <v>1.85</v>
       </c>
       <c r="U55" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V55" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W55" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z55" t="n">
         <v>1000</v>
@@ -7927,7 +7927,7 @@
         <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -7960,7 +7960,7 @@
         <v>2.54</v>
       </c>
       <c r="G56" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H56" t="n">
         <v>2.9</v>
@@ -7990,25 +7990,25 @@
         <v>2.28</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
         <v>1.51</v>
       </c>
       <c r="S56" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T56" t="n">
         <v>1.62</v>
       </c>
       <c r="U56" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V56" t="n">
         <v>1.52</v>
       </c>
       <c r="W56" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -8020,10 +8020,10 @@
         <v>22</v>
       </c>
       <c r="AA56" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC56" t="n">
         <v>8.4</v>
@@ -8062,7 +8062,7 @@
         <v>16.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="G57" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="H57" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.2</v>
       </c>
       <c r="L57" t="n">
         <v>1.61</v>
@@ -8119,7 +8119,7 @@
         <v>2.7</v>
       </c>
       <c r="O57" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P57" t="n">
         <v>1.56</v>
@@ -8137,67 +8137,67 @@
         <v>2.16</v>
       </c>
       <c r="U57" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V57" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W57" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X57" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z57" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
         <v>24</v>
       </c>
       <c r="AI57" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AK57" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL57" t="n">
         <v>70</v>
       </c>
       <c r="AM57" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN57" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO57" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -8227,64 +8227,64 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G58" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I58" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.4</v>
       </c>
-      <c r="K58" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L58" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="Q58" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U58" t="n">
         <v>2.04</v>
       </c>
-      <c r="R58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2.16</v>
-      </c>
       <c r="V58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W58" t="n">
         <v>1.53</v>
       </c>
-      <c r="W58" t="n">
-        <v>1.54</v>
-      </c>
       <c r="X58" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z58" t="n">
         <v>17.5</v>
@@ -8293,46 +8293,46 @@
         <v>44</v>
       </c>
       <c r="AB58" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD58" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF58" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG58" t="n">
         <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI58" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ58" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK58" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL58" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM58" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN58" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AO58" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="G59" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H59" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I59" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J59" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K59" t="n">
         <v>4.8</v>
@@ -8389,13 +8389,13 @@
         <v>4.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P59" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8500,19 +8500,19 @@
         <v>1.4</v>
       </c>
       <c r="G60" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="H60" t="n">
-        <v>3.15</v>
+        <v>9.4</v>
       </c>
       <c r="I60" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J60" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K60" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L60" t="n">
         <v>1.37</v>
@@ -8521,7 +8521,7 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
@@ -8539,16 +8539,16 @@
         <v>3.6</v>
       </c>
       <c r="T60" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="U60" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V60" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W60" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.7</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.68</v>
-      </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>1.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>1.27</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>4.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="n">
         <v>20</v>
       </c>
-      <c r="Y2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.5</v>
+        <v>230</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
         <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I3" t="n">
         <v>2.36</v>
       </c>
       <c r="J3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.35</v>
@@ -826,52 +826,52 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
         <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>15.5</v>
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>38</v>
@@ -904,10 +904,10 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
         <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="n">
         <v>280</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>29</v>
@@ -1024,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ4" t="n">
         <v>14.5</v>
@@ -1033,13 +1033,13 @@
         <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1099,31 +1099,31 @@
         <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="T5" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,22 +1138,22 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.800000000000001</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1207,73 +1207,73 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
         <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1285,7 +1285,7 @@
         <v>95</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
         <v>970</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
@@ -1381,19 +1381,19 @@
         <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
         <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="G8" t="n">
         <v>1.5</v>
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>4.8</v>
@@ -1495,7 +1495,7 @@
         <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1504,19 +1504,19 @@
         <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
         <v>1.59</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1525,16 +1525,16 @@
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,31 +1555,31 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
         <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1636,37 +1636,37 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
@@ -1675,7 +1675,7 @@
         <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
@@ -1684,10 +1684,10 @@
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
         <v>10.5</v>
@@ -1699,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
         <v>14.5</v>
@@ -1711,7 +1711,7 @@
         <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="AN9" t="n">
         <v>6.4</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.34</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.24</v>
@@ -1780,55 +1780,55 @@
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
         <v>15.5</v>
@@ -1843,16 +1843,16 @@
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>11.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I11" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="J11" t="n">
         <v>4.5</v>
@@ -1912,7 +1912,7 @@
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
         <v>2.06</v>
@@ -1921,73 +1921,73 @@
         <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U11" t="n">
         <v>1.64</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
         <v>7.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AL11" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AM11" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.61</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W12" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,91 +2152,91 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
         <v>2.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
         <v>200</v>
       </c>
       <c r="AA13" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>290</v>
@@ -2248,16 +2248,16 @@
         <v>16.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
         <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2359,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2368,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2434,16 +2434,16 @@
         <v>2.18</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
         <v>3.05</v>
@@ -2452,49 +2452,49 @@
         <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q15" t="n">
         <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
         <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W15" t="n">
         <v>1.29</v>
       </c>
       <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="n">
         <v>24</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>60</v>
       </c>
       <c r="AA15" t="n">
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>130</v>
@@ -2503,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2515,7 +2515,7 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G16" t="n">
         <v>3.5</v>
       </c>
-      <c r="G16" t="n">
-        <v>3.6</v>
-      </c>
       <c r="H16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J16" t="n">
         <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2587,10 +2587,10 @@
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
         <v>1.39</v>
@@ -2605,10 +2605,10 @@
         <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="W16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
         <v>14.5</v>
@@ -2617,10 +2617,10 @@
         <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="n">
         <v>14</v>
@@ -2635,7 +2635,7 @@
         <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>14.5</v>
@@ -2650,16 +2650,16 @@
         <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
         <v>17.5</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="I17" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.34</v>
@@ -2716,88 +2716,88 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
         <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
         <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA17" t="n">
         <v>20</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>22</v>
-      </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>200</v>
       </c>
       <c r="AK17" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2986,40 +2986,40 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
         <v>1.64</v>
       </c>
       <c r="S19" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T19" t="n">
         <v>1.59</v>
       </c>
       <c r="U19" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
         <v>90</v>
       </c>
       <c r="Y19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,46 +3028,46 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,61 +3097,61 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.1</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.12</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
         <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
         <v>2.64</v>
       </c>
       <c r="V20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W20" t="n">
         <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
         <v>14</v>
@@ -3163,19 +3163,19 @@
         <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
         <v>15.5</v>
@@ -3187,22 +3187,22 @@
         <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>4.1</v>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I21" t="n">
         <v>1.96</v>
@@ -3247,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3256,28 +3256,28 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q21" t="n">
         <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T21" t="n">
         <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V21" t="n">
         <v>2.04</v>
@@ -3295,13 +3295,13 @@
         <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3316,28 +3316,28 @@
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22">
@@ -3370,16 +3370,16 @@
         <v>4.2</v>
       </c>
       <c r="G22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I22" t="n">
         <v>2.18</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
@@ -3397,13 +3397,13 @@
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
         <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
         <v>4.1</v>
@@ -3412,7 +3412,7 @@
         <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
         <v>1.85</v>
@@ -3424,22 +3424,22 @@
         <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z22" t="n">
         <v>30</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
         <v>90</v>
@@ -3448,10 +3448,10 @@
         <v>90</v>
       </c>
       <c r="AG22" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AI22" t="n">
         <v>300</v>
@@ -3472,7 +3472,7 @@
         <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
@@ -3526,34 +3526,34 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" t="n">
         <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
         <v>14</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG23" t="n">
         <v>20</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>85</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
         <v>90</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H24" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="I24" t="n">
         <v>2.68</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.52</v>
@@ -3667,7 +3667,7 @@
         <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q24" t="n">
         <v>2.36</v>
@@ -3679,10 +3679,10 @@
         <v>4.4</v>
       </c>
       <c r="T24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.9</v>
       </c>
       <c r="V24" t="n">
         <v>1.6</v>
@@ -3691,13 +3691,13 @@
         <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,16 +3706,16 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
         <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.49</v>
@@ -3799,16 +3799,16 @@
         <v>3.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
         <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
         <v>4.2</v>
@@ -3823,13 +3823,13 @@
         <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X25" t="n">
         <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
         <v>120</v>
@@ -3838,10 +3838,10 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>38</v>
@@ -3865,7 +3865,7 @@
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
         <v>170</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.46</v>
@@ -3934,7 +3934,7 @@
         <v>3.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
         <v>1.79</v>
@@ -3946,7 +3946,7 @@
         <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T26" t="n">
         <v>1.84</v>
@@ -3955,10 +3955,10 @@
         <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4045,19 +4045,19 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I27" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.56</v>
@@ -4066,7 +4066,7 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.48</v>
@@ -4075,10 +4075,10 @@
         <v>1.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
         <v>4.9</v>
@@ -4087,16 +4087,16 @@
         <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X27" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y27" t="n">
         <v>14</v>
@@ -4111,10 +4111,10 @@
         <v>80</v>
       </c>
       <c r="AC27" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AD27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
         <v>140</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
@@ -4195,7 +4195,7 @@
         <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
@@ -4207,28 +4207,28 @@
         <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
         <v>2.22</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
         <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
         <v>1.96</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X28" t="n">
         <v>19.5</v>
@@ -4318,7 +4318,7 @@
         <v>1.83</v>
       </c>
       <c r="H29" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I29" t="n">
         <v>5.7</v>
@@ -4330,55 +4330,55 @@
         <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.9</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.92</v>
       </c>
       <c r="V29" t="n">
         <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
         <v>9</v>
@@ -4390,7 +4390,7 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -4402,19 +4402,19 @@
         <v>380</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.46</v>
@@ -4471,37 +4471,37 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T30" t="n">
         <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y30" t="n">
         <v>44</v>
@@ -4510,22 +4510,22 @@
         <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB30" t="n">
         <v>6.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>10.5</v>
@@ -4534,22 +4534,22 @@
         <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AK30" t="n">
         <v>70</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I31" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.41</v>
@@ -4606,49 +4606,49 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q31" t="n">
         <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="V31" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
         <v>2.96</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="n">
         <v>360</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC31" t="n">
         <v>10.5</v>
@@ -4657,25 +4657,25 @@
         <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>150</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>170</v>
@@ -4684,10 +4684,10 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
@@ -4717,82 +4717,82 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G32" t="n">
         <v>2.54</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.35</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S32" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
         <v>14.5</v>
@@ -4801,28 +4801,28 @@
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN32" t="n">
         <v>36</v>
       </c>
-      <c r="AK32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>32</v>
-      </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,31 +4852,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="G33" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="H33" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I33" t="n">
         <v>2.76</v>
       </c>
-      <c r="I33" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O33" t="n">
         <v>1.41</v>
@@ -4888,10 +4888,10 @@
         <v>2.24</v>
       </c>
       <c r="R33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
         <v>1.84</v>
@@ -4900,40 +4900,40 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="W33" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="X33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA33" t="n">
         <v>340</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
         <v>13.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
         <v>19.5</v>
@@ -4942,19 +4942,19 @@
         <v>300</v>
       </c>
       <c r="AJ33" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="AK33" t="n">
         <v>120</v>
       </c>
       <c r="AL33" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AO33" t="n">
         <v>90</v>
@@ -4987,25 +4987,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="G34" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5014,13 +5014,13 @@
         <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P34" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R34" t="n">
         <v>1.22</v>
@@ -5029,70 +5029,70 @@
         <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="X34" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB34" t="n">
-        <v>17.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC34" t="n">
         <v>7.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF34" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO34" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H35" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.52</v>
@@ -5146,25 +5146,25 @@
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T35" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U35" t="n">
         <v>1.86</v>
@@ -5173,7 +5173,7 @@
         <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="X35" t="n">
         <v>11</v>
@@ -5182,43 +5182,43 @@
         <v>13.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG35" t="n">
         <v>12</v>
       </c>
-      <c r="AG35" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="n">
         <v>70</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G36" t="n">
         <v>3.85</v>
       </c>
       <c r="H36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I36" t="n">
         <v>2.14</v>
       </c>
       <c r="J36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.85</v>
       </c>
       <c r="L36" t="n">
         <v>1.39</v>
@@ -5281,28 +5281,28 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
         <v>1.71</v>
       </c>
       <c r="U36" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V36" t="n">
         <v>1.87</v>
@@ -5314,31 +5314,31 @@
         <v>16.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE36" t="n">
         <v>22</v>
       </c>
       <c r="AF36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH36" t="n">
         <v>17</v>
@@ -5347,13 +5347,13 @@
         <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AL36" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="n">
         <v>85</v>
@@ -5392,31 +5392,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G37" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H37" t="n">
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K37" t="n">
         <v>4.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O37" t="n">
         <v>1.19</v>
@@ -5425,43 +5425,43 @@
         <v>2.58</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R37" t="n">
         <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T37" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U37" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V37" t="n">
         <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X37" t="n">
         <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA37" t="n">
         <v>140</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
         <v>22</v>
@@ -5470,16 +5470,16 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI37" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
         <v>18.5</v>
@@ -5491,13 +5491,13 @@
         <v>75</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
         <v>7.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -5533,13 +5533,13 @@
         <v>1.77</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I38" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K38" t="n">
         <v>4.7</v>
@@ -5563,16 +5563,16 @@
         <v>1.51</v>
       </c>
       <c r="R38" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S38" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T38" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="V38" t="n">
         <v>1.23</v>
@@ -5581,7 +5581,7 @@
         <v>2.28</v>
       </c>
       <c r="X38" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y38" t="n">
         <v>28</v>
@@ -5602,13 +5602,13 @@
         <v>21</v>
       </c>
       <c r="AE38" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AF38" t="n">
         <v>15</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
         <v>17</v>
@@ -5629,7 +5629,7 @@
         <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO38" t="n">
         <v>600</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H39" t="n">
         <v>2.72</v>
@@ -5680,10 +5680,10 @@
         <v>4.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>6.8</v>
@@ -5692,79 +5692,79 @@
         <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R39" t="n">
         <v>1.79</v>
       </c>
       <c r="S39" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T39" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U39" t="n">
         <v>2.92</v>
       </c>
       <c r="V39" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W39" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X39" t="n">
         <v>90</v>
       </c>
       <c r="Y39" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="n">
         <v>130</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC39" t="n">
         <v>11.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AG39" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI39" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AJ39" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AK39" t="n">
         <v>40</v>
       </c>
       <c r="AL39" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
         <v>55</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K40" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>1.26</v>
@@ -5830,25 +5830,25 @@
         <v>2.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R40" t="n">
         <v>1.74</v>
       </c>
       <c r="S40" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T40" t="n">
         <v>1.58</v>
       </c>
       <c r="U40" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W40" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="X40" t="n">
         <v>170</v>
@@ -5860,13 +5860,13 @@
         <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="AB40" t="n">
         <v>34</v>
       </c>
       <c r="AC40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD40" t="n">
         <v>65</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>4.4</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -5950,55 +5950,55 @@
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R41" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S41" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="T41" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U41" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V41" t="n">
         <v>1.25</v>
       </c>
       <c r="W41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
         <v>24</v>
       </c>
       <c r="Z41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
         <v>330</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC41" t="n">
         <v>9.4</v>
@@ -6010,13 +6010,13 @@
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
         <v>10.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6028,16 +6028,16 @@
         <v>18.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
         <v>200</v>
       </c>
       <c r="AN41" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AO41" t="n">
-        <v>270</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -6067,25 +6067,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G42" t="n">
         <v>1.59</v>
       </c>
       <c r="H42" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I42" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J42" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K42" t="n">
         <v>5.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M42" t="n">
         <v>1.02</v>
@@ -6097,25 +6097,25 @@
         <v>1.15</v>
       </c>
       <c r="P42" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R42" t="n">
         <v>1.81</v>
       </c>
       <c r="S42" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T42" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U42" t="n">
         <v>2.48</v>
       </c>
       <c r="V42" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W42" t="n">
         <v>2.68</v>
@@ -6124,19 +6124,19 @@
         <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6151,13 +6151,13 @@
         <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G43" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H43" t="n">
         <v>10.5</v>
       </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="J43" t="n">
         <v>6.4</v>
       </c>
       <c r="K43" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
         <v>1.21</v>
@@ -6229,7 +6229,7 @@
         <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P43" t="n">
         <v>3.4</v>
@@ -6241,73 +6241,73 @@
         <v>1.98</v>
       </c>
       <c r="S43" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T43" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U43" t="n">
         <v>2.22</v>
       </c>
       <c r="V43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="X43" t="n">
         <v>120</v>
       </c>
       <c r="Y43" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="Z43" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA43" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AB43" t="n">
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AD43" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AE43" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AG43" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
         <v>48</v>
       </c>
       <c r="AI43" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AL43" t="n">
         <v>75</v>
       </c>
       <c r="AM43" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO43" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44">
@@ -6337,52 +6337,52 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G44" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H44" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I44" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L44" t="n">
         <v>1.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R44" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S44" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U44" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="V44" t="n">
         <v>1.54</v>
@@ -6391,7 +6391,7 @@
         <v>1.54</v>
       </c>
       <c r="X44" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="Y44" t="n">
         <v>1000</v>
@@ -6406,7 +6406,7 @@
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6481,16 +6481,16 @@
         <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="n">
         <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6502,7 +6502,7 @@
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="Q45" t="n">
         <v>1.54</v>
@@ -6511,7 +6511,7 @@
         <v>1.67</v>
       </c>
       <c r="S45" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T45" t="n">
         <v>1.56</v>
@@ -6520,13 +6520,13 @@
         <v>2.56</v>
       </c>
       <c r="V45" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
         <v>1.96</v>
       </c>
       <c r="X45" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="n">
         <v>55</v>
@@ -6544,7 +6544,7 @@
         <v>42</v>
       </c>
       <c r="AD45" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE45" t="n">
         <v>170</v>
@@ -6562,10 +6562,10 @@
         <v>130</v>
       </c>
       <c r="AJ45" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK45" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AL45" t="n">
         <v>80</v>
@@ -6574,7 +6574,7 @@
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AO45" t="n">
         <v>600</v>
@@ -6610,16 +6610,16 @@
         <v>2.46</v>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H46" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I46" t="n">
         <v>3.1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>3.7</v>
@@ -6631,16 +6631,16 @@
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R46" t="n">
         <v>1.51</v>
@@ -6649,10 +6649,10 @@
         <v>2.78</v>
       </c>
       <c r="T46" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U46" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V46" t="n">
         <v>1.47</v>
@@ -6661,10 +6661,10 @@
         <v>1.63</v>
       </c>
       <c r="X46" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y46" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z46" t="n">
         <v>60</v>
@@ -6673,10 +6673,10 @@
         <v>280</v>
       </c>
       <c r="AB46" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
@@ -6742,76 +6742,76 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G47" t="n">
         <v>1.96</v>
       </c>
       <c r="H47" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I47" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N47" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="O47" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="P47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="R47" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S47" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T47" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="V47" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
         <v>2.04</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="Z47" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
@@ -6820,10 +6820,10 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH47" t="n">
         <v>1000</v>
@@ -6832,7 +6832,7 @@
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK47" t="n">
         <v>1000</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I48" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J48" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="K48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L48" t="n">
         <v>1.51</v>
@@ -6901,13 +6901,13 @@
         <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O48" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P48" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q48" t="n">
         <v>2.34</v>
@@ -6925,13 +6925,13 @@
         <v>1.92</v>
       </c>
       <c r="V48" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W48" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X48" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="n">
         <v>1000</v>
@@ -6943,10 +6943,10 @@
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD48" t="n">
         <v>1000</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G49" t="n">
         <v>1.54</v>
@@ -7030,46 +7030,46 @@
         <v>5.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M49" t="n">
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O49" t="n">
         <v>1.23</v>
       </c>
       <c r="P49" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R49" t="n">
         <v>1.51</v>
       </c>
       <c r="S49" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T49" t="n">
         <v>1.84</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V49" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W49" t="n">
         <v>2.88</v>
       </c>
       <c r="X49" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z49" t="n">
         <v>1000</v>
@@ -7084,7 +7084,7 @@
         <v>11.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
@@ -7108,7 +7108,7 @@
         <v>30</v>
       </c>
       <c r="AL49" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
@@ -7147,58 +7147,58 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H50" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="I50" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="J50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K50" t="n">
         <v>3.7</v>
       </c>
-      <c r="K50" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L50" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P50" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R50" t="n">
         <v>1.5</v>
       </c>
       <c r="S50" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T50" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U50" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V50" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="W50" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X50" t="n">
         <v>18</v>
@@ -7207,25 +7207,25 @@
         <v>14</v>
       </c>
       <c r="Z50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD50" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF50" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG50" t="n">
         <v>11.5</v>
@@ -7237,19 +7237,19 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="n">
         <v>70</v>
       </c>
       <c r="AN50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO50" t="n">
         <v>20</v>
@@ -7282,112 +7282,112 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G51" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I51" t="n">
         <v>6.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K51" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R51" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S51" t="n">
         <v>3.75</v>
       </c>
       <c r="T51" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U51" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V51" t="n">
         <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X51" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y51" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z51" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA51" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AE51" t="n">
         <v>420</v>
       </c>
       <c r="AF51" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG51" t="n">
         <v>10</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="n">
         <v>330</v>
       </c>
       <c r="AJ51" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AK51" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL51" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AM51" t="n">
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO51" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52">
@@ -7423,7 +7423,7 @@
         <v>1.78</v>
       </c>
       <c r="H52" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
         <v>6</v>
@@ -7441,28 +7441,28 @@
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O52" t="n">
         <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R52" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S52" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T52" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U52" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V52" t="n">
         <v>1.2</v>
@@ -7486,7 +7486,7 @@
         <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7498,7 +7498,7 @@
         <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH52" t="n">
         <v>1000</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="J53" t="n">
         <v>4.1</v>
       </c>
       <c r="K53" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L53" t="n">
         <v>1.27</v>
@@ -7585,79 +7585,79 @@
         <v>2.72</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R53" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S53" t="n">
         <v>2.28</v>
       </c>
       <c r="T53" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="U53" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="V53" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="X53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z53" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC53" t="n">
         <v>11</v>
       </c>
       <c r="AD53" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AF53" t="n">
         <v>18.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI53" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AK53" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL53" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AM53" t="n">
         <v>580</v>
       </c>
       <c r="AN53" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G54" t="n">
         <v>1.34</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J54" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="K54" t="n">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
         <v>4.2</v>
@@ -7831,16 +7831,16 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J55" t="n">
         <v>3.7</v>
       </c>
       <c r="K55" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -7849,43 +7849,43 @@
         <v>3.4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S55" t="n">
         <v>3.75</v>
       </c>
       <c r="T55" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U55" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V55" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W55" t="n">
         <v>1.31</v>
       </c>
       <c r="X55" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y55" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB55" t="n">
         <v>1000</v>
@@ -7894,10 +7894,10 @@
         <v>42</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF55" t="n">
         <v>1000</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G56" t="n">
         <v>2.54</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.56</v>
-      </c>
       <c r="H56" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I56" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -7975,37 +7975,37 @@
         <v>3.8</v>
       </c>
       <c r="L56" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O56" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P56" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V56" t="n">
         <v>1.51</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.52</v>
       </c>
       <c r="W56" t="n">
         <v>1.64</v>
@@ -8014,19 +8014,19 @@
         <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA56" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB56" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD56" t="n">
         <v>13</v>
@@ -8035,16 +8035,16 @@
         <v>29</v>
       </c>
       <c r="AF56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG56" t="n">
         <v>11.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="n">
         <v>36</v>
@@ -8056,13 +8056,13 @@
         <v>34</v>
       </c>
       <c r="AM56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN56" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G57" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
@@ -8110,34 +8110,34 @@
         <v>3.15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="M57" t="n">
         <v>1.13</v>
       </c>
       <c r="N57" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="O57" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P57" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="R57" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S57" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T57" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U57" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V57" t="n">
         <v>1.46</v>
@@ -8146,52 +8146,52 @@
         <v>1.56</v>
       </c>
       <c r="X57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y57" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z57" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB57" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC57" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD57" t="n">
         <v>14.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF57" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG57" t="n">
         <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI57" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ57" t="n">
         <v>44</v>
       </c>
       <c r="AK57" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL57" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM57" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN57" t="n">
         <v>44</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G58" t="n">
         <v>2.9</v>
       </c>
       <c r="H58" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I58" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J58" t="n">
         <v>3.35</v>
@@ -8257,25 +8257,25 @@
         <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
         <v>1.29</v>
       </c>
       <c r="S58" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T58" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U58" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V58" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W58" t="n">
         <v>1.53</v>
@@ -8284,16 +8284,16 @@
         <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z58" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA58" t="n">
         <v>44</v>
       </c>
       <c r="AB58" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC58" t="n">
         <v>7.2</v>
@@ -8311,7 +8311,7 @@
         <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI58" t="n">
         <v>55</v>
@@ -8320,16 +8320,16 @@
         <v>48</v>
       </c>
       <c r="AK58" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM58" t="n">
         <v>120</v>
       </c>
       <c r="AN58" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO58" t="n">
         <v>34</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G59" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H59" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J59" t="n">
         <v>4.4</v>
       </c>
       <c r="K59" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8386,13 +8386,13 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P59" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q59" t="n">
         <v>1.73</v>
@@ -8500,55 +8500,55 @@
         <v>1.4</v>
       </c>
       <c r="G60" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H60" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="I60" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K60" t="n">
         <v>5.4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M60" t="n">
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q60" t="n">
-        <v>2</v>
-      </c>
       <c r="R60" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S60" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="T60" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U60" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="V60" t="n">
         <v>1.09</v>
       </c>
       <c r="W60" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8557,7 +8557,7 @@
         <v>1000</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA60" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>7.8</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q2" t="n">
         <v>1.59</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>6.2</v>
+        <v>60</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,31 +745,31 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.4</v>
+        <v>2.66</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.4</v>
+        <v>3.95</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Karpaty</t>
+          <t>Chindia Targoviste</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>19.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>1.41</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>1.98</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>36</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>2.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>1.45</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>3.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chindia Targoviste</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>2.28</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>2.58</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>3.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>1.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>3.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>WSC Hertha Wels</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.36</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WSC Hertha Wels</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>1.17</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>2.74</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>1.48</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>2.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rapid Vienna (Am)</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bregenz</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>1.17</v>
       </c>
       <c r="G7" t="n">
-        <v>2.72</v>
+        <v>1.19</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.32</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.66</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>2.54</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.03</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>880</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>95</v>
+        <v>8.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>4.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>2.28</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>2.82</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>2.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q8" t="n">
         <v>4.4</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.79</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.96</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.78</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>1.24</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>340</v>
+      </c>
+      <c r="AK8" t="n">
         <v>200</v>
       </c>
-      <c r="AB8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="AM8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,109 +1603,109 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.2</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V9" t="n">
         <v>3.1</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.9</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF9" t="n">
         <v>130</v>
       </c>
-      <c r="AB9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1717,13 +1717,13 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="W10" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>140</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>170</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>27</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>5.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH11" t="n">
         <v>34</v>
       </c>
-      <c r="AB11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70</v>
+        <v>5.1</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>3.45</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>2.28</v>
       </c>
       <c r="J12" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>5.8</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.78</v>
       </c>
       <c r="W12" t="n">
-        <v>2.84</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA12" t="n">
         <v>28</v>
       </c>
-      <c r="Y12" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>190</v>
-      </c>
       <c r="AB12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>24</v>
-      </c>
       <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>80</v>
       </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>1.79</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>1.81</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.42</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.72</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
         <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>2.22</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK14" t="n">
         <v>17</v>
       </c>
-      <c r="AF14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>55</v>
-      </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>8.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2422,118 +2422,118 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
         <v>4.2</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
         <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
         <v>75</v>
       </c>
-      <c r="AM15" t="n">
-        <v>790</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>600</v>
-      </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.88</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>1.83</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="S16" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U16" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="V16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.28</v>
       </c>
-      <c r="W16" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X16" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="n">
         <v>25</v>
       </c>
-      <c r="Y16" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
         <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.6</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>1.29</v>
@@ -2716,94 +2716,94 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
       </c>
       <c r="Y17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH17" t="n">
         <v>14</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>1.64</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>2.06</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.08</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S18" t="n">
         <v>4.1</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>2.78</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>2.52</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="Z18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>65</v>
-      </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.800000000000001</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.48</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>17</v>
       </c>
-      <c r="Y19" t="n">
-        <v>970</v>
-      </c>
       <c r="Z19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA19" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>600</v>
-      </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="P20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.86</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AH20" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="AL20" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
         <v>600</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>1.79</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>2.28</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.9</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="T21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W21" t="n">
-        <v>2.26</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.4</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.72</v>
-      </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
         <v>3.25</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AA22" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>340</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="n">
         <v>120</v>
       </c>
-      <c r="AB22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>380</v>
-      </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.9</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="V23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.43</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>100</v>
+        <v>16.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC23" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH23" t="n">
         <v>34</v>
       </c>
-      <c r="AE23" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>40</v>
-      </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="AK23" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AL23" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>1.78</v>
       </c>
       <c r="H24" t="n">
-        <v>2.28</v>
+        <v>5.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.72</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>1.36</v>
+        <v>2.22</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK24" t="n">
         <v>70</v>
       </c>
-      <c r="AG24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL24" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="I25" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="J25" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>900</v>
       </c>
-      <c r="AB25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3898,118 +3898,118 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="V26" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="G27" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE27" t="n">
         <v>60</v>
       </c>
-      <c r="AA27" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="n">
         <v>140</v>
       </c>
-      <c r="AF27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>580</v>
-      </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>1.42</v>
       </c>
       <c r="G28" t="n">
-        <v>2.68</v>
+        <v>1.44</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W28" t="n">
         <v>3.25</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.59</v>
-      </c>
       <c r="X28" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.4</v>
+        <v>28</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>90</v>
       </c>
       <c r="AA28" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AE28" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL28" t="n">
         <v>48</v>
       </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>70</v>
-      </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>46</v>
+        <v>7.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.05</v>
+        <v>2.42</v>
       </c>
       <c r="G29" t="n">
-        <v>3.15</v>
+        <v>2.46</v>
       </c>
       <c r="H29" t="n">
-        <v>2.58</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.35</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.48</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.4</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
         <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN29" t="n">
         <v>32</v>
       </c>
-      <c r="AF29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>42</v>
-      </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>2.66</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>2.72</v>
       </c>
       <c r="J30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.45</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U30" t="n">
         <v>2.04</v>
       </c>
-      <c r="U30" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="W30" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="X30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="n">
         <v>11</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG30" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AH30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO30" t="n">
         <v>29</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.43</v>
+        <v>2.66</v>
       </c>
       <c r="G31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.45</v>
       </c>
-      <c r="H31" t="n">
+      <c r="W31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X31" t="n">
         <v>9.4</v>
       </c>
-      <c r="I31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X31" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="n">
         <v>100</v>
       </c>
-      <c r="AA31" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AJ31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK31" t="n">
         <v>38</v>
       </c>
-      <c r="AE31" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI31" t="n">
+      <c r="AL31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM31" t="n">
         <v>170</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>580</v>
-      </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
-        <v>2.48</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="I32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.25</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="V32" t="n">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="X32" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE32" t="n">
         <v>22</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AF32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>70</v>
       </c>
-      <c r="AB32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>36</v>
-      </c>
       <c r="AK32" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO32" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.65</v>
+        <v>1.61</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="H33" t="n">
-        <v>2.18</v>
+        <v>5.6</v>
       </c>
       <c r="I33" t="n">
-        <v>2.22</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>2.44</v>
       </c>
       <c r="T33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U33" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="V33" t="n">
-        <v>1.82</v>
+        <v>1.2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.36</v>
+        <v>2.56</v>
       </c>
       <c r="X33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>70</v>
-      </c>
       <c r="AK33" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>6.6</v>
       </c>
       <c r="AO33" t="n">
-        <v>15.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="I34" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>3.35</v>
+        <v>2.38</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="R34" t="n">
-        <v>1.96</v>
+        <v>1.54</v>
       </c>
       <c r="S34" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="W34" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="X34" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA34" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="AB34" t="n">
-        <v>27</v>
+        <v>11.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH34" t="n">
         <v>18.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK34" t="n">
         <v>17.5</v>
       </c>
-      <c r="AK34" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL34" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>1.74</v>
+        <v>2.44</v>
       </c>
       <c r="H35" t="n">
-        <v>4.9</v>
+        <v>2.84</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="P35" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="R35" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="S35" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="T35" t="n">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="U35" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="V35" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="W35" t="n">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="n">
         <v>23</v>
       </c>
-      <c r="Z35" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC35" t="n">
+      <c r="AL35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN35" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AO35" t="n">
-        <v>290</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
       <c r="G36" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="H36" t="n">
-        <v>2.84</v>
+        <v>4.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.98</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
         <v>1.25</v>
@@ -5281,88 +5281,88 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O36" t="n">
         <v>1.15</v>
       </c>
       <c r="P36" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="T36" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="U36" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="V36" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="W36" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="X36" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Y36" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z36" t="n">
         <v>44</v>
       </c>
-      <c r="Z36" t="n">
-        <v>75</v>
-      </c>
       <c r="AA36" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI36" t="n">
         <v>40</v>
       </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AM36" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AN36" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO36" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G37" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="H37" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.25</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W37" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="X37" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AA37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB37" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AF37" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ37" t="n">
         <v>20</v>
       </c>
       <c r="AK37" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM37" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
       <c r="G38" t="n">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="R38" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>2.54</v>
+        <v>1.93</v>
       </c>
       <c r="T38" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="U38" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>2.18</v>
+        <v>2.88</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="Z38" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AA38" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AE38" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AF38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK38" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL38" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AM38" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="G39" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="H39" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="P39" t="n">
-        <v>2.64</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="R39" t="n">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="S39" t="n">
-        <v>2.46</v>
+        <v>1.99</v>
       </c>
       <c r="T39" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="U39" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="W39" t="n">
-        <v>2.48</v>
+        <v>4.2</v>
       </c>
       <c r="X39" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="Y39" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="Z39" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AA39" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="n">
         <v>140</v>
       </c>
-      <c r="AB39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>110</v>
-      </c>
       <c r="AF39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AI39" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AJ39" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AL39" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AM39" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="AO39" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.29</v>
+        <v>2.86</v>
       </c>
       <c r="G40" t="n">
-        <v>1.32</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>9.800000000000001</v>
+        <v>2.56</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>2.66</v>
       </c>
       <c r="J40" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="R40" t="n">
-        <v>1.92</v>
+        <v>1.44</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="U40" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="V40" t="n">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="W40" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
-        <v>48</v>
+        <v>17.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="n">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>16.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AF40" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AI40" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.65</v>
+        <v>29</v>
       </c>
       <c r="AO40" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.86</v>
+        <v>1.97</v>
       </c>
       <c r="G41" t="n">
-        <v>2.98</v>
+        <v>2.06</v>
       </c>
       <c r="H41" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U41" t="n">
         <v>2.7</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N41" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.34</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="W41" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="X41" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM41" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>600</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.97</v>
+        <v>2.32</v>
       </c>
       <c r="G42" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="H42" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P42" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="R42" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="S42" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U42" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W42" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="X42" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z42" t="n">
         <v>24</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL42" t="n">
         <v>34</v>
       </c>
-      <c r="AA42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB42" t="n">
+      <c r="AM42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN42" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>9</v>
-      </c>
       <c r="AO42" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="I43" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J43" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="K43" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="O43" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="P43" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W43" t="n">
         <v>1.47</v>
       </c>
-      <c r="S43" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X43" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AA43" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AF43" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AI43" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK43" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.83</v>
+        <v>2.82</v>
       </c>
       <c r="G44" t="n">
-        <v>1.96</v>
+        <v>2.84</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>2.72</v>
       </c>
       <c r="I44" t="n">
-        <v>6.6</v>
+        <v>2.74</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="M44" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>2.44</v>
+        <v>4.8</v>
       </c>
       <c r="O44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.61</v>
       </c>
-      <c r="P44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.3</v>
-      </c>
       <c r="U44" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="V44" t="n">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="W44" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="X44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y44" t="n">
-        <v>140</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="n">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AD44" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF44" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG44" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,109 +6463,109 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="G45" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>2.54</v>
+        <v>5.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="J45" t="n">
-        <v>2.88</v>
+        <v>4.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>2.54</v>
+        <v>4.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="P45" t="n">
-        <v>1.67</v>
+        <v>2.26</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="R45" t="n">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="S45" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="T45" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V45" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>1.44</v>
+        <v>2.48</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
         <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL45" t="n">
         <v>1000</v>
@@ -6574,16 +6574,16 @@
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,88 +6598,88 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S46" t="n">
         <v>5.7</v>
       </c>
-      <c r="J46" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.92</v>
-      </c>
       <c r="T46" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="U46" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="V46" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W46" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="X46" t="n">
-        <v>38</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y46" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Z46" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE46" t="n">
         <v>1000</v>
@@ -6688,28 +6688,28 @@
         <v>11.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17.5</v>
+        <v>130</v>
       </c>
       <c r="AK46" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AL46" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>1.87</v>
       </c>
       <c r="H47" t="n">
-        <v>2.74</v>
+        <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>2.76</v>
+        <v>5.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L47" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="P47" t="n">
-        <v>2.28</v>
+        <v>1.77</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="S47" t="n">
-        <v>2.94</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="U47" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="V47" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="W47" t="n">
-        <v>1.55</v>
+        <v>2.14</v>
       </c>
       <c r="X47" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z47" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AB47" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE47" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AF47" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH47" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AJ47" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AL47" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>19.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="G48" t="n">
-        <v>1.87</v>
+        <v>2.42</v>
       </c>
       <c r="H48" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="J48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.65</v>
       </c>
-      <c r="K48" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="U48" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="V48" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="X48" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB48" t="n">
         <v>12</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AC48" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF48" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z48" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>10</v>
-      </c>
       <c r="AG48" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK48" t="n">
         <v>23</v>
       </c>
-      <c r="AI48" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>21</v>
-      </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM48" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN48" t="n">
         <v>15.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="G49" t="n">
-        <v>1.78</v>
+        <v>2.74</v>
       </c>
       <c r="H49" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="I49" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="L49" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="P49" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.83</v>
+        <v>2.66</v>
       </c>
       <c r="R49" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="S49" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="U49" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V49" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="W49" t="n">
-        <v>2.28</v>
+        <v>1.57</v>
       </c>
       <c r="X49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK49" t="n">
         <v>38</v>
       </c>
-      <c r="Y49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN49" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U50" t="n">
         <v>2.02</v>
       </c>
-      <c r="G50" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N50" t="n">
-        <v>6</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V50" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="W50" t="n">
-        <v>1.94</v>
+        <v>1.48</v>
       </c>
       <c r="X50" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>22</v>
+        <v>9.6</v>
       </c>
       <c r="Z50" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE50" t="n">
         <v>32</v>
       </c>
-      <c r="AA50" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>36</v>
-      </c>
       <c r="AF50" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH50" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AJ50" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AN50" t="n">
-        <v>8.6</v>
+        <v>40</v>
       </c>
       <c r="AO50" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,36 +7268,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="G51" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="H51" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="I51" t="n">
-        <v>22</v>
+        <v>5.8</v>
       </c>
       <c r="J51" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="K51" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7306,16 +7306,16 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P51" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,801 +7403,126 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.75</v>
+        <v>1.28</v>
       </c>
       <c r="G52" t="n">
-        <v>3.95</v>
+        <v>1.29</v>
       </c>
       <c r="H52" t="n">
-        <v>2.12</v>
+        <v>10.5</v>
       </c>
       <c r="I52" t="n">
-        <v>2.22</v>
+        <v>14.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="K52" t="n">
+        <v>8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W52" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X52" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN52" t="n">
         <v>3.7</v>
       </c>
-      <c r="L52" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X52" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK52" t="n">
+      <c r="AO52" t="n">
         <v>150</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>French Ligue 1</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N53" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S53" t="n">
-        <v>3</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X53" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Oviedo</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Mallorca</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X54" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>3</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U55" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X55" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Palestino</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Huachipato</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Deportivo Cuenca</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W57" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-05.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>1.11</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>1.13</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>1.08</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>1.08</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.18</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="V3" t="n">
         <v>1.08</v>
       </c>
-      <c r="P3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.05</v>
-      </c>
       <c r="W3" t="n">
-        <v>5.3</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
-        <v>75</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.88</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
